--- a/Data Lookup Table.xlsx
+++ b/Data Lookup Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fa06986545af3ff/Desktop/Shopt/Codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105864D3-7AEA-4784-ADED-4131F2A95C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{105864D3-7AEA-4784-ADED-4131F2A95C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F5F1056-E89E-4796-96B0-DA762635A2F6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product and attributes" sheetId="1" r:id="rId1"/>
@@ -1505,12 +1505,1637 @@
     <t>Bugaboo Fox 5</t>
   </si>
   <si>
+    <t>https://www.bugaboo.com/us-en/bugaboo-fox-5-ultimate-all-terrain-stroller/</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSVzjQFoMsCsJcGj7a2zamMqH8VVcdHjrpyfg&amp;s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleek and lightweight enough to be pushed with one hand, the Nuna MIXX™ Next Stroller is cleverly designed with all-wheel suspension and easy maneuverability for a smooth and comfortable ride. Featuring a plush seat that fully reclines, this durable stroller will keep your little one cozy and undisturbed when you’re on the go. Plus, the full-coverage UPF 50+ canopy with a peekaboo window helps shade baby while you keep an eye on them, and the large storage basket lends ample space for all their essentials.
+DETAILS THAT MATTER
+Four modes — PIPA™ series infant car seat, bassinet, seat parent facing or world facing.
+Ring adapter included for easy on/off one-click travel system.
+Rear-wheel Free Flex suspension™ and front-wheel progressive suspension technology.
+Compact fold-away axle™ for a more compact fold. One-piece fuss-free, compact fold no matter which way the seat is facing. Stands when folded.
+All-season seat keeps baby cozy in winter and unsnaps to mesh in summer.
+Luxe leatherette accented pushbar and armbar.
+UPF 50+ canopy is water repellent, extendable and features a flip out eyeshade, ventilation panel and window.
+One-hand 5-position recline for on-the-go relaxing and True flat recline seat.
+Removable two-piece bamboo blend fabric seat insert grows with baby.
+One-touch brake and front swivel wheel locks.
+No re-thread harness for easy adjustments.
+Adjustable calf support and height adjustable pushbar.
+Two compartment basket including secret zipper pocket. Cell phone pocket on seat back.
+Tough, rubber foam filled tires are ready for any terrain.
+GREENGUARD Gold Certified to contribute to healthier indoor air, keeping you and your family safer.
+KEY PRODUCT POINTS
+All color options include the MagneTech Secure Snap™ self-guiding buckle. 
+Recommended for use from birth up to 50 pounds.
+Machine washable seat pad.
+Compatible with stroller are the following accessories (all sold separately): Mixx and Demi grow cup holder, Mixx rain cover, Mixx series bassinet, all Pipa Infant Series car seats, Mixx series child tray, wheeled travel bag, extra Mixx series ring adapter.
+Reddot Product Design winner for 2020.
+Imported.
+THIS SET INCLUDES
+Set includes: Frame, wheels, car seat ring adapter, canopy, arm bar, calf support, shoulder harness, canopy clips, insert and storage basket.
+DIMENSIONS
+Overall (open): 23.6" wide x 32.7" long x 45.3" high
+Overall (folded): 23.6" wide x 27.5" long x 19" high
+Seat Depth: 11"
+Seat Thickness: 0.5"
+Harness Straps: 18" long
+Handle: 18" long
+Front Wheel: 7.5" diameter
+Back Wheel: 11.5" diameter
+Child Footrest: 13" wide x 6" high
+Distance Between Wheels (front to back): 30"
+Distance Between Wheels (front side to side): 18.5"
+Distance Between Wheels (rear side to side): 23"
+Storage Basket: 14.5" wide x 8" long x 21" high
+Hood: 17" wide x 17-28" long
+Stroller Weight:  28.3 lbs without arm bar and insert (arm bar and insert approx. 0.7 lbs)
+Basket Weight Capacity: 10 lbs
+Stroller Weight Capacity: Birth to 50 lbs
+CARE
+Frame
+Clean the frame, plastic parts, and any non-removable fabric with a damp cloth.
+Do not use abrasives, silicon lubricants or bleach.
+Do not store your stroller in a damp place.
+Wipe with a soft, absorbent cloth after using it in rainy weather and before storing away.
+Fabric
+Wash removable fabrics in cold water, delicate cycle.
+Do not bleach.
+Do not tumble dry.
+Do not iron.
+Do not dry clean.
+</t>
+  </si>
+  <si>
+    <t>https://nunababy.com/usa/catalogsearch/result/?q=Nuna+MIXX+Next</t>
+  </si>
+  <si>
+    <t>https://n.nordstrommedia.com/id/sr3/7fca3821-fd3e-4d32-af65-a647d4f83bc4.jpeg?trim=color&amp;w=350&amp;h=536</t>
+  </si>
+  <si>
+    <t>Highlights:
+One-pull harness 3-in-1 Travel System One-hand recline and fold Individual design
+Individual Design
+Customize your New Generation Priam according to your taste. Match your frame of choice with a wide variety of seat packs and change the look of your stroller whenever you want. The lightweight aluminum frames come in four different variations with individual finishes and selected bumper bar and handlebar colors.
+Tech Specs:
+From birth (with use of Priam Lux Carry Cot or infant car seat) to approx. 4 years (with the use of a Priam Seat Pack) *All attachments sold separately Weight: Max. child weight 55 lbs. (front-facing or parent-facing)
+Functions:
+XXL sun canopy All-wheel suspension Reversible seat unit Extra large shopping basket Adjustable legrest Adjustable handlebar Removable bumper bar Lockable swivel wheels
+Products to combine:
+New Generation Priam Lux Carry Cot New Generation Priam Seat Pack Cloud Q Kid Board Snack Tray Parasol
+Length	32.6 - 36.2 in
+Width	23.6 in
+Height	39.1 - 42.9 in
+Weight	28.4 lbs
+The unique one-pull harness helps you secure your child in the stroller in seconds, with just one hand. Fitting is easy and more comfortable for your growing child.
+One hand is all you need to recline the Priam seat to a near-flat position, or to fold the stroller for easy storage on the go – keeping your other hand free to hold onto your little one. 
+One frame; three travel options. The Priam frame is compatible with a stroller seat unit, an infant car seat, and a Lux Carry Cot.</t>
+  </si>
+  <si>
+    <t>https://www.cybex-online.com/en/us/p/Set_ST_PL_Priam_Travel_System_3in1_US.html</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQaWrTMWj8S5jACoR3jxznE88z2Pwj_-X5zwg&amp;s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polyester
+Imported
+Customizable Stroller: Customize your ride with 4 different modes via accessories such as infant car seat, pram, glider board, parent console and child tray.
+Easy Handling: The adjustable handlebar &amp; hand-operated parking brake ensure a comfortable steering and control, always within arm’s reach.
+Comfort First: Near-flat reclining seats and adjustable calf supports for your children’s comfort.
+One-step Quick-fold: Patented technology for easy transportation and storage.
+Compatibility: Compatible with Britax, Cybex, Graco, and Maxi Cosi infant car seats.
+High Weight Limit: Supports children up to 50 lb per seat and conforms to Disney size requirements.
+UV 50 Canopies: Canopies equipped with peekaboo windows provide shade and visibility.
+Full-coverage UV 50+ canopies with 2 magnetic peekaboo windows keep your children shaded while allowing you to easily check in
+Product Care Instructions	Machine Wash
+Canopy Material	Polyester
+Tire Material	Rubber
+Seat Material	Polyester
+Fabric Type	Polyester
+Frame Material Type	Metal
+Material Type	Rubber,Polyester,Metal
+Additional Features	Convertible, Hand Operated Brakes, Canopy, Folds for Easy Transport and Storage, Storage Area, Adjustable Handle
+Seating Capacity	2
+Number of wheels	4
+Is Car Seat Compatible	No
+Number of Cup Holders	2
+Harness Type	5 Point
+Stroller Type	Standard Stroller
+Front Wheel Diameter	8.5 Inches
+Back Wheel Diameter	12 Inches
+Rear Facing Stroller Maximum Height	40 Inches
+Item Dimensions L x W x H	40.7"L x 29.25"W x 42.25"H
+Frame Weight	16.55 Kilograms
+Item Weight	36.5 Pounds
+</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Baby-Jogger-City-Double-Stroller/dp/B07YGVFZFH/ref=sr_1_1?crid=1QG7RP23T6YCZ&amp;dib=eyJ2IjoiMSJ9.skY0-5hHDTRMQk2NblHlmCCepuC5e-utyBioCl6RwsCteHRCSnpS6D6GGOqnzMi5CEyRDrW5FuwngAH3TCMuFJIeCrqqWGdW4EB8D1rpkt-Cn6u8Yd4u803M4MqERuhHPVaoYN2_F9pmo0Vlh4Gp4SuRE7Ct4bAt6GS5vGKvRsCmz1iwtpY3kkqvYraD06nA_7ZqmiyZBd9Z79vB9zZvkIbzcbyl9W6OgYayeb2nVhRhLGt0LJhAVjPFudylNDSbKVtsRyyaDELMJI-zSZWfMh9L16trgUiaRbnj6VZ5bN4.DoNNIVsH0rCqFY_VAT5eRkdgKLRs78pNne4hKpsrXVA&amp;dib_tag=se&amp;keywords=Baby+Jogger+City+Mini+GT2&amp;qid=1727480107&amp;s=baby-products&amp;sprefix=baby+jogger+city+mini+gt2%2Cbaby-products%2C127&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS46aE4HECtEpVbA3omQM3yjtjJnrRUULmUEg&amp;s</t>
+  </si>
+  <si>
+    <t>Stroller Harness Slot Heights
+9.5/12.5/15
+Stroller Buckle Strap Depths
+4
+Maximum Unfolded Dimensions
+33"L x 23"W x 40"H
+Folded Dimensions, Wheels On
+29"L x 23"W x 12"H
+Cruise smooth with the B-Lively Stroller, featuring an all-wheel suspension system and lightweight frame. Designed with multi-tasking parents in mind, the 3-wheel configuration offers smooth maneuverability, and one-hand quick fold closes the stroller in seconds. The large UPF 50+ canopy with breathable ventilation window provides protection for your child on sunny or rainy days, and has a large zipper pocket on the back. The quiet, peek-a-boo window lets you check in on your little one without disrupting naptime. A footrest and near-flat infinite recline is perfect for laying back or seeing the world. Moving from car-to-stroller is easy when you click in a Britax infant car seat for a custom travel system. Before heading out, store your baby gear in the extra-large stroller storage basket with convenient front access.</t>
+  </si>
+  <si>
+    <t>https://us.britax.com/shop/strollers/britax-b-lively-lightweight-stroller</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81JqbzDio1L.jpg</t>
+  </si>
+  <si>
+    <t>Polyester
+Imported
+Versatile 3-in-1 Stroller: Transforms from an Infant Car Seat Carrier to Infant Pramette and then to Toddler Stroller
+Inclusive Travel System: Comes with the Graco SnugRide 35 Lite Elite Infant Car Seat for infants from 4-35 lb and up to 32
+Slide2Me Adjustable Seat: Modify the height for closer face-to-face interaction
+Reversible Seat: Can face parent or the world for an enjoyable baby ride
+Durable Lightweight Frame: Provides a smooth ride with its lightweight aluminum make up
+Expandable Storage Basket: Allows more room for baby and parent essentials
+Effortless Operation: One-step, self-standing fold for optimum convenience.
+One-step self-standing fold for easy storage
+Product Care Instructions	Air Dry, Machine Wash, Spot or Wipe Clean
+Canopy Material	Fabric
+Tire Material	Plastic
+Seat Material	polyester
+Fabric Type	Polyester
+Frame Material Type	Aluminum
+Material Type	Aluminum
+Additional Features	Snack Tray,Canopy, Storage Area, Modular, LATCH Compatible, Folds for Easy Transport and Storage, Pram Mode, One-Hand Fold
+Seating Capacity	1.0
+Built-in Light	No
+Number of wheels	4
+Is Electric	No
+Is Car Seat Compatible	Yes
+Number of Cup Holders	2
+Harness Type	3 Point
+Stroller Type	Standard Stroller
+Rear Facing Maximum Weight	35 Pounds
+Installation Type	Freestanding
+Maximum Weight Recommendation	20 Kilograms
+Front Wheel Diameter	6.5 Inches
+Back Wheel Diameter	7.5 Inches
+Car Seat Weight Capacity Maximum	35 Pounds
+Item Dimensions L x W x H	35.5"L x 25.75"W x 47"H
+Item Weight	30 Pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Graco-Stroller-Adjustable-Reversible-Lightweight/dp/B07Y5X7N27/ref=sr_1_2?crid=460HVBLAG45A&amp;dib=eyJ2IjoiMSJ9.CPqbMR3scmwq103LG0KbgRzd4qIHrxL5pWnBdJ61Q_OQXH80o2GDMU_xZ0v_kerHBx3Wb7LVGLf3SIyQfrzPgSYcUt_ChV6lvKXpyAc3ZhkXrYxiQzRph1wkIW-iUTwcc5htkygKSsXwBYWiKS2MKFL4de6F2pKJfW7y2vw1jChCg32k835sIx3faaIakvqkBAMFJVvJRdc2Q0zN2fyh7Bsud2JVW0oTP0fUd0WE96oIlMAfmXbWg2oqt6TYDL5wn0cacH91OGY2tK7fHV5HrkZLoqsf7ycwT7pySV1yd38.6P7ti7L8wumB0YQ8Gs-ngY_JLYOJJJIWxH9C-ac9YCo&amp;dib_tag=se&amp;keywords=Graco+Modes+Nest&amp;qid=1727480154&amp;s=baby-products&amp;sprefix=graco+modes+nest%2Cbaby-products%2C127&amp;sr=1-2</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81x6qxxGWFL._AC_UF894,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>Polyester
+The Bravo Stroller is designed for children up to 50 lbs. The KeyFit 30 Infant Car Seat is designed for infants between 4-30 lbs. and up to 30" tall
+SEAMLESS TRANSITIONS – A removable seat and canopy transform the stroller to a lightweight infant car seat carrier and offers secure, click-in attachment via the child tray – no adapter needed
+EASY TO USE | EASY TO STORE – With a compact, one-hand, smart fold design, the stroller stands independently without the push handle touching the ground. Large wheels with treaded tires and all-wheel suspension help navigate uneven terrain
+INFANT CAR SEAT – Easy to install, the KeyFit 30 features premium LATCH connectors, a SuperCinch Force Multiplying Tightener, EPS energy-absorbing foam and removable head and body support, ideal for a newborn car seat
+COMFORT AND CONVENIENCE – The Bravo Stroller features a one-hand, multi-position reclining seat, child tray with cup holders and large storage basket. A UPF 50+ canopy with peek-a-boo mesh window provides privacy and protection from the elements
+CAR SEAT AND STROLLER COMBO – The Chicco Bravo Quick-Fold Stroller paired with the Chicco KeyFit 30 Infant Car Seat creates a baby travel system
+Product Care Instructions	Easy to clean
+Canopy Material	Polyester
+Tire Material	Flat-Free, EVA
+Seat Material	Polyester
+Fabric Type	Polyester
+Frame Material Type	Plastic, Metal
+Material Type	Polyester, Foam
+Additional Features	Infant Car Seat Compatible
+Seating Capacity	1
+Built-in Light	No
+Is Electric	No
+Is Car Seat Compatible	Yes
+Number of Cup Holders	2
+Harness Feature	adjustable straps, padded shoulders
+Harness Type	5 Point
+Stroller Type	Standard Stroller
+pecification Met	JPMA Certified, Meets ASTM Standards
+Installation Type	LATCH or Seat Belt
+Maximum Weight Recommendation	50 Pounds
+Rear Facing Car Seat Maximum Height	3E+1 Inches
+Front Wheel Diameter	7.5 Inches
+Back Wheel Diameter	10.3 Inches
+Car Seat Weight Capacity Maximum	30 Pounds
+Rear Facing Stroller Maximum Height	3E+1 Inches
+Car Seat Weight	9.6 Pounds
+Item Dimensions L x W x H	35.2"L x 22.8"W x 42.7"H
+Item Weight	24.9 Pounds
+Folded Size	15x22.8x36.8 inches</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Chicco-Quick-Fold-Stroller-Top-Rated-Brooklyn/dp/B08VS8D513/ref=sr_1_1?crid=11UUXOK072S6O&amp;dib=eyJ2IjoiMSJ9.HrwXdEMTPEIldA3SoL9tWzEffK-wvMoA9E0RG_Z8ZaIVVjiKPMTmoRYaPU5wffZfWzAGRK3ugNU4TnSSj88OPqA3f6ttwffwcHvy59hrPtmDxu3Ld_MoJVudb1DwUEPa89mz8aSbuD5TCpOAIMIeVTFagnBXUMl050ro8wmiMwT8Tx775uUXGvlLvXDO6NgZOL8qpVD0bd8eUq-8QElDwQfPd6UnJQ-5ZDytxIyw1vI.wmqR-ZRvJVwMOa9Mv75FMEyt1dKbBlEnTnoL6pFKPXo&amp;dib_tag=se&amp;keywords=Chicco+Bravo+Trio&amp;qid=1727652843&amp;sprefix=%2Caps%2C281&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcShcWH7THP3WA-9NqGv9H_I-Q_0LtUIYLK1dQ&amp;s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lightweight, all-terrain stroller perfect for jogging or strolling through town
+Voted Best Jogging Stroller of 2023 by Women’s Health
+Swivel front wheel locks into place for jogging and running
+Large 16" rear wheels with suspension provide an ultra-smooth ride
+One-handed, compact fold makes storage and transport easy
+Reclining seat is comfortable and safe with a padded 5-point harness
+Ergonomic, adjustable handlebar has an integrated twist-hand brake
+Large storage basket with zip-top cover
+Use from birth with a variety of accessories; like car seat adapters (sold separately)
+Product weight: 25.3 lbs; Max child weight: 49 lb; Max stroller weight capacity: 75 lb
+Product Care Instructions	Hand Wash Only
+Canopy Material	Polyester or Nylon
+Tire Material	EVA
+Seat Material	Polyester or Nylon
+Frame Material Type	Metal, Plastic
+Material Type	Aluminum
+Additional Features	Canopy, Folds for Easy Transport and Storage, Storage Area, Ultra-Compact
+Seating Capacity	1
+Built-in Light	No
+Number of wheels	3
+Is Electric	No
+Is Car Seat Compatible	No
+Harness Feature	Adjustable, Padded
+Harness Type	5 Point
+Stroller Type	Jogging Stroller
+Maximum Weight Recommendation	75 Pounds
+Front Wheel Diameter	6 Inches
+Back Wheel Diameter	6 Inches
+Item Dimensions L x W x H	41.1"L x 27.2"W x 40"H
+Frame Weight	16.67 Pounds
+Item Weight	32.6 Pounds
+</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Thule-10101924-Jogging-Stroller-Shadow/dp/B077QP17WF/ref=sr_1_1?crid=2AE72NS247OOT&amp;dib=eyJ2IjoiMSJ9.G6GrJvMjEqla8Mxq4iSPFBy6a4OTs0mAn-mpD9b2kCcGuHs7jOGsbQt1hG09K3r43AxgsrppbviNNqAwuGozrDO1IoRIfEKLp-ARfEmypQhOINal4uWTgRo27iX5NtwN-AKc0AWjabokkGR4dOl7kbKzRjUsnAgEFUo4hAh174qJkiHPpEdXFr_jJr_48Prsgo2ggATP6qxQ9EDlzxoteRj_oFWSuLz1m7-6_U7SLlU.wYHrIy_-_92LkOmnhb0-3CVE1PFDjmRSolhvl-W9Ma0&amp;dib_tag=se&amp;keywords=Thule+Urban+Glide+2&amp;qid=1727652862&amp;sprefix=thule+urban+glide+2%2Caps%2C152&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/814zbRPZ7eL._AC_UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>FROM CAR SEAT TO STROLLER IN SECONDS - Whether you're running errands or traveling by car, train, or plane, Doona is the complete travel system. Move from car seat to stroller at the click of a button, without disturbing your sleeping child.
+EASY TO USE - With an adjustable handlebar, washable materials, and an intuitive design, Doona's one-click, secure mechanism ensures correct installation every time—and allows you to explore the world with an infant, with freedom and flexibility.
+ERGONOMIC SUPPORT - Doona is designed to ensure your baby's body is properly supported. The Doona Infant Insert’s near-flat ergonomic design boosts your newborn’s upper and lower back and ensures the neck &amp; back are aligned.
+SAFE - Includes 3-layer side impact protection, anti-rebound bar crash technology &amp; a 5-point safety harness. It's TUV and FAA aircraft approved for travel, made with baby-safe materials &amp; the canopy is water repellant with UPF 50+ sun protection.
+MADE TO LAST - Doona is made from premium-grade fiber-reinforced polymers, rust-free aluminum, and durable wheels. It's the only car seat to have been tested and certified as a rear-facing car seat, a stroller, and an infant carrier.
+WHAT'S INCLUDED - The Doona Car Seat &amp; Stroller includes the Doona Car Seat, the Doona Stroller, the Doona Infant Insert and Head Support, the Doona Vehicle Seat Protector, and the Doona LATCH Car Seat Base.
+SPECS - Suitable from 4 lbs. to 35 lbs. Rear-facing car seat only. Car seat/stroller weighs 17.2 lbs., base weighs 9.7 lbs. Product Dimensions: Folded: 17.4 x 26 x 22.4 inches; Open: 17.4 x 32.3 x 39 inches.
+Product Dimensions	‎17.3 x 23.6 x 26 inches
+Item model number	‎SP101-10-033-003
+Is Discontinued By Manufacturer	‎No
+Minimum weight recommendation	‎1.8 Kilograms
+Maximum weight recommendation	‎15 Kilograms
+Minimum height recommendation	‎7 Inches
+Maximum height recommendation	‎32 Inches
+Material Type	‎PA+GF, PP, Al, PU, EPS, Polyester
+Number Of Items	‎1
+Style	‎Compact
+Number of reclining positions	‎5
+Batteries required	‎No
+Orientation	‎Rear Facing
+Rear-facing minimum child weight	‎4 Pounds
+Harness type	‎5-Point
+Item Weight	‎16.98 pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Doona-Infant-Seat-Latch-Base/dp/B07HML1BT5/ref=sr_1_1?crid=3CBUKE7ARUT1D&amp;dib=eyJ2IjoiMSJ9.m7u7GtCCPI4Ui_3AJ22jePZmBRLkjn15hBmVlZCCLiQ6g9UP5lpUjQK89VZrMbKHjy_AB817WavH7BLNTB4PHiAMV0neq6HJL0-lt1s23XGMsWwFDjtE9lKBDpruBwKwdN7vB34o3QNIcwu71etvOaq4fq20LAROldLGsJrSGzoojIaEx8tkzWFKgcckEWb3pkMTmWYMlSqoFuSnPbEdRyQ-SlxL7J4j_2j6fZvYKgu1pEBItKt0UI9pexY7WFFBRDucFIWlnKE4K46TCJheO4mYrpWJsqvRl2-7rX-3FNM._hmqhhX0S1luZoqUnl_rN8W1LiDeT72sLySCcMNzZZg&amp;dib_tag=se&amp;keywords=Doona+Infant+Car+Seat%2FStroller&amp;qid=1727652884&amp;sprefix=doona+infant+car+seat%2Fstroller%2Caps%2C144&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71wxdkV71cL.jpg</t>
+  </si>
+  <si>
+    <t>Leather
+INCLUDED TODDLER SEAT: The full size, reversible Toddler Seat allows your growing child to ride forwards, backwards, completely upright, reclined, and anywhere in between.
+ONE-HANDED RECLINE: The multi-position recline on the Toddler Seat allows your child to lie comfortably for naps or sit upright to take in the sights, offering the flexibility your busy toddler needs.
+EXTENDABLE, UPF 50 + CANOPY: The zip-out canopy on the Toddler Seat extends for additional sun protection, plush the mesh panels make it easy to peek in while adding airflow.
+EXTRA-LARGE, EASY-ACCESS BASKET: The extra-large opening means it’s easier to reach your diaper bag, toys, and whatever else you pick up along the way, up to 30 lbs!
+STROLL IN STYLE: Choose from a variety of luxurious fabrics and premium full-grain leather details like our adjustable, telescoping handlebar which extends for parents of varying heights. Our leather accents are all REACH certified for safer strolling.
+PATENTED TWO-STAGE SYSTEM: The All-Wheel Suspension and independent shocks ensure your child has a smooth and comfortable ride whether traveling down winding paths or over bumpy pavement.
+STANDS WHEN FOLDED: The Cruz one-step fold is easy and intuitive. The stroller stands on its own when folded and can be folded with or without the Toddler Seat attached.
+GREENGUARD GOLD CERTIFIED: Supporting healthier air quality &amp; low chemical emissions.
+PERFORMANCE TRAVEL SYSTEM: Our UPPAbaby Aria and Mesa Infant Car Seats attach directly to the Cruz stroller without adapters to create a complete Performance Travel System.
+Product Care Instructions	CANOPY: SPOT CLEAN ONLY. DO NOT BLEACH. DO NOT IRON OR DRY CLEAN. SEAT: SPOT CLEAN OR HAND WASH GENTLY IN COLD WATER WITH MILD DETERGENT. DO NOT BLEACH. DRY FLAT AND AWAY FROM DIRECT SUNLIGHT BEFORE RE-USE OR STORAGE. DO NOT IRON OR DRY CLEAN.
+Tire Material	Plastic
+Seat Material	leather
+Fabric Type	Leather
+Frame Material Type	Aluminum
+Material Type	Leather
+Features &amp; Specs
+Additional Features	Performance Travel System
+Seating Capacity	1
+Built-in Light	No
+Is Electric	No
+Harness Type	5 Point
+Maximum Weight Recommendation	50 Pounds
+Measurements
+Rear Facing Car Seat Maximum Height	32 Inches
+Item Dimensions L x W x H	37.5"L x 22.8"W x 40"H
+Item Weight	35 Pounds
+Folded Size	16.5 x 22.8 x 33 inches</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/UPPAbaby-Stroller-Full-Featured-Capabilities-Included/dp/B099NY5H4B/ref=sr_1_1_sspa?crid=7K6ZNYJUTQ1V&amp;dib=eyJ2IjoiMSJ9.GVukkKytGWwXDAWswDFRrm_EV0Hmb2MSD0iATKZUYCR1AZO3pT2rGTmfjwwroIFCC5vE-U-zWhnRe8I87_RByUDlq_xk-G0Ya9uhVG6kFRdkAwRc3877ePVgOit-5vYvpso_Deid0OPamL9Vgw8IKFtk1qZ-yu_gInhfTcAifk71GNe8dNoxrH4kQzKtE_5JZirWE4ACom75v5YmgNsoMpl0A-P2Jp5KlH-qTtcFtIg.4Zj4vTaIjd5ERCiOF0FlFVcBNKwcmAT0g3VRrrZfBhQ&amp;dib_tag=se&amp;keywords=UPPAbaby+Cruz+V2&amp;qid=1727652998&amp;sprefix=uppababy+cruz+v2%2Caps%2C135&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>The CYBEX e-PRIAM 2 stroller uniquely combines the luxurious design and functionality of the PRIAM stroller, with the electronic power of smart technology. The unique uphill and downhill support make ascents and descents as effortless as ﬂat terrain by smartly adapting to the respective surface. Whether cobblestones, sand, snow or gravel, the e-PRIAM is a breeze to maneuver. The innovative one-pull harness helps you secure your child in the stroller in seconds, with just one hand. 
+Download the e-PRIAM app to unlock the Rocking feature – set the e-PRIAM to rock back and forth automatically to gently soothe your child. And, enjoy a more comfortable journey by choosing between two support modes: Eco to save battery power or Tour for maximum power on hills or rough ground.
+One frame enables three different modes of use: from birth with the PRIAM 4/e-PRIAM 2 Lux carry cot or any CYBEX infant car seat (both sold separately), and later with the seat unit as a luxurious parent-facing or forward-facing stroller. 
+Why we love it:
+The ePriam offers three modes: travel system with your favorite car seat, parent-facing and forward-facing.
+The ePriam boasts all-terrain wheels &amp; suspension for a comfy ride
+Seat adjusts to a near-flat position with one hand
+Extra-large shopping basket with magnetic closure
+Pair this ePriam2 with the Cloud Q reclining infant car seat in a snap!
+The car seat adapter comes included with the stroller.
+Car seats compatible with Cybex e-Priam (with included adapters):
+Cybex car seats
+Nuna PIPA series (excluding Nuna Pipa Lite &amp; Pipa Lite LX)
+Maxi Cosi Mico series (excluding Coral XP)
+Other Key Features:
+e-PRIAM APP FEATURES: Rocking Mode - Choose between 3 rocking settings and set the duration to gently soothe your child, Support Modes - Tour Mode provides maximum assistance while Eco mode saves battery power, Battery Status - Monitor the battery level so you always know when to rechargeSMART UPHILL SUPPORT: Handle bar sensors detect pushing pressure and adjust the support accordingly, making climbs and descents feel effortless
+SMART UNEVEN SURFACE SUPPORT: Helps you power over rough ground for a smooth ride
+UNIQUE ONE-PULL HARNESS: Helps you secure your child in the stroller in seconds, with just one hand
+TRAVEL SYSTEM READY: Frame is compatible with the PRIAM 4/e-PRIAM 2 Lux Carry Cot or any CYBEX infant seat (sold separately)
+ONE-HAND FOLD: Into a self-standing position for easy storage on the go
+MULTIPLE RECLINE POSITIONS: Easily adjust with one hand
+REVERSIBLE SEAT UNIT: Can be easily positioned forward or parent facing
+ALL-WHEEL SUSPENSION: Ensures a soft, quiet and comfortable ride
+LARGE STORAGE BASKET: Holds up to 11 lbs.
+EXTENDABLE UPF 50+SUN CANOPY: Protects your child from the sun and includes a peek-a-boo window
+ADJUSTABLE LEATHERETTE HANDLEBAR: Extends for users of varying heights
+ADJUSTABLE LEG REST: For customized comfort for your child
+LEATHERETTE BUMPER BAR: Opens to the side for easy access to the seat
+SWIVEL FRONT WHEELS: Can be locked for stability on uneven terrain
+CONVENIENT TWO-WHEEL MODE: For strolling over loose terrain like sand or gravel
+TABLE HEIGHT SEATING: Makes dining out convenient
+INCLUDES: Rain cover, cup holder, bumper bar, PRIAM/e-PRIAM infant car seat/carry cot adapters, battery and charger
+COMPATIBLE WITH: PRIAM 4/e-PRIAM 2 Seat Packs and Lux Carry Cots 
+Child Usage: 0 - age/55lbs 
+Warranty: 2 Years
+Weight: 34.2 lbs
+Assembled measurements: 36.8” D x 44.5” H x 23.6” W</t>
+  </si>
+  <si>
+    <t>https://www.cybex-online.com/en/us/p/Set_ST_PL_ePraim_Travel_System_3in1_US.html</t>
+  </si>
+  <si>
+    <t>Polyester
+𝐄𝐂𝐎-𝐅𝐑𝐈𝐄𝐍𝐃𝐋𝐘 𝐌𝐀𝐓𝐄𝐑𝐈𝐀𝐋𝐒: Made with soft, sustainable jersey fabric sourced from recycled plastic bottles, complemented by vegan leather and chrome accents, making this jogging stroller an environmentally responsible choice
+𝐋𝐈𝐆𝐇𝐓𝐖𝐄𝐈𝐆𝐇𝐓 𝐀𝐍𝐃 𝐂𝐎𝐌𝐏𝐀𝐂𝐓: Designed for travel, fly through terminals and city streets with the Jet 4's ultra-compact foldable toddler stroller with featherweight 13.6 lbs design. It fit into overhead lockers on aircraft, ensuring it's ready for any adventure with this baby stroller travel systems
+𝐎𝐍𝐄-𝐇𝐀𝐍𝐃𝐄𝐃 𝐑𝐄𝐂𝐋𝐈𝐍𝐄: The Jet 4's one-handed recline allows you to easily adjust your baby's position, soothe your little one and adjust their position seamlessly with the Jet 4's ingenious single-handed recline, even while holding it in the other arm made it baby trend stroller of all time
+𝐀𝐋𝐋 𝐈𝐍𝐂𝐋𝐔𝐒𝐈𝐕𝐄: The Jet 4's super compact stroller is the only one approved in the USA to include a toddler bar, feature an adjustable footrest, newborn to 55 pounds, and feature a quick, one-hand fold; all while being compact enough to fit all overhead bins on an airplane which make it a best travel stroller for airplane
+𝗡𝗘𝗪𝗕𝗢𝗥𝗡 𝗖𝗢𝗠𝗣𝗔𝗧𝗜𝗕𝗟𝗘: The Jet 4's unique flat recline mode allows you to use the stroller from newborn all the way to 55 pounds - making it last longer and ensure years of happy outings and jogging with this strollers for babies and toddlers
+𝐄𝐗𝐓𝐄𝐍𝐃𝐄𝐃 𝐂𝐀𝐍𝐎𝐏𝐘: Say goodbye to harsh rays and blustery winds with this umbrella stroller. The Jet 4's lightweight baby strollers include a UPF50+ canopy with a mesh viewing window, offering protection from the sun while allowing you to keep an eye on your little one. This makes it the best summer stroller baby travel system for infants, toddlers, and newborns
+𝐀𝐃𝐕𝐀𝐍𝐂𝐄𝐃 𝐒𝐀𝐅𝐄𝐓𝐘 𝐅𝐄𝐀𝐓𝐔𝐑𝐄𝐒: This newborn stroller is equipped with the Genius magnetic buckle system for a secure, easy-to-use, three-click harness that keeps your baby safe and comfortable on the go
+𝐂𝐎𝐍𝐕𝐄𝐍𝐈𝐄𝐍𝐂𝐄 𝐅𝐄𝐀𝐓𝐔𝐑𝐄𝐒: Boasts a large storage basket, flip-flop friendly brake, and anti-crease fabric to ensure this portable stroller stays looking sharp and is easy to manage during travel which makes it the best compact stroller for travel
+Fabric Type        Polyester
+Frame Material Type        Alloy Steel
+Material Type        Polyester
+Built-in Light        No
+Is Electric        No
+Harness Type        5 Point
+Stroller Type        Standard Stroller
+Maximum Weight Recommendation        15 Kilograms
+Measurements
+Back Wheel Diameter        74.87 Centimeters
+Item Dimensions L x W x H        23"L x 8.27"W x 12.8"H
+Frame Weight        8.1 Kilograms
+Item Weight        8.1 Kilograms
+Folded Size        7.08 x 11.81 x 21.65 inches</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Silver-Cross-Jet-Lightweight-All-Terrain/dp/B0D5BNPD8M/ref=sr_1_1?crid=2F9KUSHSLL48K&amp;dib=eyJ2IjoiMSJ9.YErdAP9_ZtwUdtfY6rc0TIOJJXnb2K3uS1ps4b4nV62Oh72QhzVpnRGGUq1e7P47TtIu4ZX1QHAjvoTMcg_TdAdP3ZVS4ddHOpYvwF5Ao_S1G8rofAh6LuwvwnUdtU6d7f9s8Y4-KY7VA7U0dVuiDAs-XvhWa7aDE5tl8VkGy4JjNdGLlIXujJr6JNcBDPDbrojWsEo__ZglIIsHcGBpHkP_HKlYpO4xBeyv8lfsL7c.b_Xn56LyUDKFpgz5VN3sCUO2rhsrWADXOdt7-yN6gDo&amp;dib_tag=se&amp;keywords=silver+cross+wave+stroller&amp;qid=1727653102&amp;sprefix=Silver+Cross+Wave+%2Caps%2C137&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>ICONIC STYLE FOR TRENDY PARENTS.
+Intuitive features that just make sense. The mima xari max full-size stroller is suitable for newborns when used with a car seat or Xari Max bassinet, supports children up to 55 lbs.
+Each detail of the mima xari max is designed to enhance safety and comfort for babies while adding convenience and ease of use for parents.
+The mima xari max features 3-recline positions, reversible &amp; roomy seat, storage basket, adjustable handlebar height, 5-point safety harness, and magnetic harness release that locks in place.
+Need to navigate through gravel, sand, or snow? Shock-absorbing tires, rear wheel suspension, and lockable swivel front wheels provide an incredibly smooth ride.
+Your child is protected from the elements and harmful UV rays. The high-quality UV 50+ fabric canopy gives a sleek modern look. The mima xari max stroller's extendable canopy plus concealed zipper extension surpasses competitiors. You won't miss a moment with the additional peek-a-boo window.
+Leatherette fabric on the seat unit for easy wipe cleaning
+Adjustable handlebar
+Easy to fold and unfold
+Seat pad with a 5-point safety harness
+New style magnetic harness clasp
+Reversible seat
+Three seat recline angles
+A large canopy with 50+ UV protection and a roof window
+Stroller weight: 29.3 lbs
+Maximum child weight: 55 lbs
+User age: from newborn up to 4 years old, bassinet sold separately. 
+Chassis Folded dimension (with wheels attached) - 27” x 16”x 25.5”</t>
+  </si>
+  <si>
+    <t>https://mimakidsusa.com/products/mima-xari-max-stroller?gad_source=1&amp;gclid=CjwKCAjw9eO3BhBNEiwAoc0-jcIVPJMu2JDSpsHipB5jbDZlIdodywf6nw_Yvt7wXUrVN8m98tImVhoCNysQAvD_BwE</t>
+  </si>
+  <si>
+    <t>COMFORT &amp; CONNECTION​ - Stokke Xplory X features a high seat to bring your baby closer, facilitating the connection they need to feel safe &amp; loved. The padding and the adjustable seat &amp; footrest provide comfort every step of the way.
+SAFETY FIRST​ - Protective from top to bottom, our stroller features a hard shell seat, a 5-point harness, a reflective zipper, and a one-push brake system for quick response. Tested internally &amp; with external institutions​.
+EASY TO USE - Parents will appreciate the easy, one-step foldable stroller chassis​, the adjustable handle that accommodates different heights​, the easy-to-clean fabric, and swivel front wheels for effortless maneuverability.
+MAKE IT YOUR OWN - With stroller accessories like the Changing Bag, Cup Holder, and Snack Tray, you can customize the Stokke Xplory X for use with children from newborn to toddler (up to a limit of 48.5 lbs). Plus, choose from a variety of colors!
+DESIGN WITH A PURPOSE - Stokke entered the children's furniture &amp; accessories sector in 1972, and since then, all our products have been designed to challenge the ordinary, foster healthy development, and nurture family bonding.
+anopy Material	Polyester or Nylon
+Tire Material	Plastic
+Seat Material	Synthetic material or engineered plastic
+Frame Material Type	Aluminum
+Features &amp; Specs
+Harness Feature	Adjustable, padded straps
+Harness Type	5 Point
+Installation Type	Portable
+Maximum Weight Recommendation	22 Kilograms
+Measurements
+Item Weight	13.4 Kilograms</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Stokke-Xplory-Royal-Blue-Adjustable/dp/B08Z5X1K1S/ref=sr_1_1_sspa?crid=GWSW8RLRW51L&amp;dib=eyJ2IjoiMSJ9.GEG_u8JfXg06Oc8-rhQHnnGq-tk2xbIp6d5iUfc-zyisuNuDDEj0lSENx4qKwn-xhNgOvmjo7QH8MqYr5pdZfXQHQe99q3SGkrMKBqGOZ7r8RBgLRTuoHvTKSfpTa1dwbg866jOC9q5kJE-a6UcW3XtWxCNS5iSO0FZZ_eNFMszpOgxgtC7JesXDWig0Gkt7nwgOS7kCYUQy0J03yPXl7CMgE5D_F14NlCvLML2PI2s.JvZCRqxWR_28QJ7GmIjptLDgv0-OnasxrLIKblSyZ2g&amp;dib_tag=se&amp;keywords=stokke+xplory+x+stroller&amp;qid=1727653291&amp;sprefix=Stokke+Xplory+X%2Caps%2C140&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>SMOOTH RIDE: Advanced 4-wheel suspension ensures a smooth, stable journey for your baby on any terrain. Large wheels and superior engineering offer excellent maneuverability and safety in the city.
+COMPACT AND PORTABLE: With a lightweight frame, this stroller folds down quickly without removing the seat. Sling the carry strap over your shoulder for hassle-free portability in crowded areas.
+SUPERIOR COMFORT: The parent-facing seat is fully reclinable, with an adjustable footrest and XXL sun hood providing UPF50+ protection. Your baby can rest, sleep, or sit comfortably at any angle.
+ENHANCED VISIBILITY: The stroller features integrated LED lights in the frame, perfect for low-light conditions. Improve visibility during evening walks for added safety, without compromising style.
+HIGH-QUALITY BUILD: Built with premium materials, this stroller is both durable and elegant. Its sleek design, reversible seat, and smooth one-hand steering make it ideal for urban parents on the go.
+Product Care Instructions	Hand wash with a mild detergent
+Canopy Material	Gorgeous Grey
+Measurements
+Basket Weight Capacity Maximum	11 Pounds
+Front Wheel Diameter	6.3 Inches
+Back Wheel Diameter	10.3 Inches
+Frame Weight	9 Pounds
+Item Weight	10.1 Pounds
+Specification Met	EN 1888-2
+EU Spare Part Availability Duration	5 Years
+Maximum Weight Recommendation	50 Pounds
+Features &amp; Specs
+Number of wheels	4
+Is Car Seat Compatible	No
+Harness Type	5 Point
+Stroller Type	Standard Stroller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Joolz-Stroller-Integrated-Suitable-Gorgeous/dp/B08KWJT145/ref=sr_1_3?crid=3EBJWEAAKL2A0&amp;dib=eyJ2IjoiMSJ9.q6M0lKq0BlB29d7WYT9pxMg47LY61X9BFBLh-ZPpEVEBgTd1h1wKVFaOP9c5QBGgsB9jDmhW6hS6IncQu-DM9WJW4eFHRihWNlw2_KTHxSss2Hn4PdV1YX1061hepzHrDc4zqwGE4qzEGRl6b3nduazfAaua4U6wqlF48LWSUGr8-JLR44WdtTaEKGwf7ZMiC3WLLnq0EbL3aHw0-qIujBbl5jtO40LND3G1ruxtqGY.M0-XhCcgIiYexm1rCiQraG1TqykiaHrC4x-04PaAMzw&amp;dib_tag=se&amp;keywords=Joolz+Hub%2B+stroller&amp;qid=1727653323&amp;sprefix=joolz+hub%2B+stroller%2Caps%2C138&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Polyester
+Fully featured modular stroller converts from single to double or triple stroller with glider board (second seat, infant car seat, and glider board sold separately)
+Easily lift and carry this stroller that is lighter than the original City Select
+One-step compact fold, 20% smaller than the leading single-to-double stroller* *as compared to the 2020 UPPAbaby Vista V2 single-to-double stroller in the US
+Plenty of room between the seats means more comfort for your kids (more than the UPPAbaby Vista V2 when the second seat is attached)
+With over 24 configurations, the City Select 2 offers versatile seating for up to 3 kids (accessories sold separately)
+Tire Material	Rubber
+Fabric Type	Polyester
+Measurements
+Stroller Seat Weight	26.4 Pounds
+Back Wheel Diameter	20.5 Inches
+Item Dimensions L x W x H	36"L x 23.8"W x 41.1"H
+Frame Weight	26.4 Pounds
+Item Weight	26.4 Pounds
+Installation Type	Freestanding
+Maximum Weight Recommendation	45 Pounds
+Features &amp; Specs
+Additional Features	Convertible, Compact Fold
+Built-in Light	No
+Is Electric	No
+Is Car Seat Compatible	No
+Harness Type	5 Point
+Stroller Type	Modular Stroller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Baby-Jogger-Single-Stroller-Collection/dp/B094P1912M/ref=sr_1_1?crid=9ZA49DAH5VA0&amp;dib=eyJ2IjoiMSJ9.8i6wAsiwPGvWSC00jfGUkkEF8350Vc7MICKkBy2CDWPPgK37lrzra7qKafgwV_6WFg7cEEKp1JzYylDkGnezZ2fHSJryBzdM27iW1wN3hOAs_JcuigJak5OPuPgDqE0fotUN_goCPWJhDV0WLk8X9fCwSWVz2sbUH4icAZylPloEcqOhoLvY_VivuxuaAY3hccDG578aG7TWn0x1iRjMKwjcFNrRA726Gv3nc-iYHCI.L16PopEu45lT_w-F68g5sgUZk4l10jSpYYp8zYuAoTU&amp;dib_tag=se&amp;keywords=baby+jogger+city+select+2+stroller&amp;qid=1727653353&amp;sprefix=Baby+Jogger+City+Select+2%2Caps%2C135&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>EASY TO USE - YOYO2 is one of the most lightweight, compact, full-feature strollers available. Designed for every situation, every day, you can steer with one hand, carry it on your shoulder &amp; store essentials in the zippered back pocket.
+TAKE IT EVERYWHERE - It's never been easier to meet up with friends, catch a cab, or hop onto the subway. The YOYO2 not only folds &amp; unfolds with one hand, it’s so compact that you can store it in the overhead bin of a plane.
+GROWS WITH YOUR CHILD - Now you only need one stroller! Our all-in-one frame accommodates your growing child, from newborn to toddler (up to 48.5 lbs), with a comfortable seat cushion, a reclining backrest &amp; a secure 5-point harness.
+CUSTOMIZABLE - Choose from nine trendy colors and lots of accessories to suit your needs, like the YOYO board, YOYO bag, YOYO cup holder, YOYO footmuff, YOYO legrest, YOYO parasol, YOYO travel bag, and YOYO mosquito net.
+WHAT’S INCLUDED - Your YOYO2 Stroller includes a frame, 5-point harness, multi-position reclining backrest, canopy extensions, shoulder strap, protective storage bag &amp; the 6+ Color Pack, which includes the seat cushion &amp; matching canopy.
+Material Type	Polyester, Faux Leather
+Measurements
+Item Dimensions L x W x H	33.86"L x 20.5"W x 41.7"H
+Item Weight	6.5 Kilograms
+Maximum Weight Recommendation	22 Kilograms
+Features &amp; Specs
+Seating Capacity	2
+Built-in Light	No
+Is Electric	No
+Is Car Seat Compatible	No
+Harness Type	5 Point
+Stroller Type	Umbrella Stroller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/BABYZEN-YOYO2-Stroller-Toffee-Cushion/dp/B08573FNK4/ref=sr_1_1?crid=1HK8B45KHBZXX&amp;dib=eyJ2IjoiMSJ9.A53jb8OOyOu_5rEEKMom_TEuXeppQ0JP4Pz_E2uMGDmqGtEZjjHQFsyIaVc1cg18P4ptpd8oFXnjF0cb_LDC5AL8zfbIvOCQsPrV_H6KIi65sPRtV2bgIU8QR_hxY9hqYaBTML11wksofbmQwdrPVC3x3LCV3yLsTw8ElE9Q1NZsE5Y6eBqgUQfPrRcVO_LyZcDcl74lYhyMvIfo8dm05dgL006oj-fTy2J8SXIzjpI.sqQsHIDRjB-AgMgMC-QvKVTB8ciYkJtWx4NEqPdVTRw&amp;dib_tag=se&amp;keywords=Babyzen+YOYO2+stroller&amp;qid=1727653379&amp;sprefix=babyzen+yoyo2+stroller%2Caps%2C149&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Polyester
+Imported
+Collapsible and Compact Design: This travel stroller's ultra-compact and collapsible design ensures it will fit in most overhead compartments on planes and trains, eliminating the need to check your baby stroller while travelling.
+Lightweight Convenience: This must-have umbrella stroller weighs a mere 9 1/2 pounds and makes one-handed pushing and steering a breeze. It folds down in 2 simple steps and can be carried effortlessly via the attached handle.
+Durable and Flexible Construction: Durable for everyday use as well as travel the Pockit plus is designed to roll with the punches. Its flexible construction keeps wiggly bodies safe and happy during their travels.
+UPF50 plus Sun Canopy and Reclining Seat Back: Your little one can take a stroller snooze in total comfort thanks to the reclining seat back and the UPF50 plus sun canopy. The seat reclines to a baby lounger, and the canopy keeps the sun's rays at bay.
+Agile Front Swivel Wheels: The helpful front swivel wheels make navigating busy streets and turning corners seem like a walk in the park for this lightweight stroller. For increased stability on uneven terrain, simply switch the wheel lock.
+Product Care Instructions	Spot or Wipe Clean
+Canopy Material	Polyester
+Tire Material	Plastic, EVA
+Seat Material	Polyester
+Fabric Type	Polyester
+Frame Material Type	Plastic
+Material Type	Plastic
+Features &amp; Specs
+Additional Features	he Pockit+ All-Terrain folds up into a compact, handbag shaped package in secondsand is airplane carry-on compliant*
+Seating Capacity	1
+Built-in Light	No
+Number of wheels	4
+Is Car Seat Compatible	Yes
+Harness Feature	Adjustable Straps
+Harness Type	3 Point
+Stroller Type	Umbrella Stroller
+Specification Met	ASTM
+Installation Type	Freestanding
+Maximum Weight Recommendation	55 Pounds
+Measurements
+Stroller Seat Weight	10.4 Pounds
+Front Wheel Diameter	4.7 Inches
+Back Wheel Diameter	4.7 Inches
+Item Dimensions L x W x H	28"L x 19.1"W x 39.8"H
+Item Weight	10.4 Pounds
+Folded Size	13.4 x 7.9 x 16.5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gb-Pockit-All-Terrain-Velvet-Black/dp/B07RGLBX41/ref=sr_1_1_sspa?crid=YFYF5HE7L6WA&amp;dib=eyJ2IjoiMSJ9.FEwLgZtU_rowQ58uUsESJvcNFKBUoB6BkD_6kC0Nl7kGr-4pA-_c3hwaHKDCpBFq6m2pABfVt0BSa0mH35DVWDXCVcqc6JsWZUKHB2Cg5ZgXXVTpzx2xoztsIrVir58QYkBSVxlHpkN4J6kirHiPYe29P7HDHQkofXDE3A5j7xEYe6pDLHyU4rvpK4MBb2qKfa73vaRCdcEIenFRK8JrB2CBuEYwpUy5Ks0vafepkxU.Egzo6FGCF8gY6JZhCzswO_GFyFW5GXrW_DqAjLnvjso&amp;dib_tag=se&amp;keywords=gb+pockit+stroller&amp;qid=1727653409&amp;sprefix=gb+pockit%2B+stroller%2Caps%2C140&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>100% Polyester
+TRAVEL BIG, CARRY SMALL: At just under 17 lbs, easily bring the Minu on planes, trains, and ferries thanks to the built-in carry handle and included shoulder strap.
+OVERHEAD FRIENDLY: One hand and one smooth motion are all it takes to completely fold the Minu – small enough to fit in compact travel compartments.
+LARGE BASKET FOR BIGH ADVENTURES: Store everyday essentials, a diaper bag, and any souvenirs you pick up throughout your travels with the large storage basket that can hold up to 20 lbs!
+EXTENDABLE UPF 50+ CANOPY: Zip-out canopy with vented peekaboo window for protection even during the sunniest vacations.
+SMOOTH STROLLING: Front and rear spring-action suspension creates a smooth ride from city sidewalks to beachy boardwalks.
+THE PERFECT TRAVEL COMPANION: The spacious seat holds up to 50 lbs so even the big kids can rest after a big day of adventures.
+STROLL IN STYLE: Choose from a variety of luxurious fashions and premium details like our adjustable, full-grain leather handlebar. Our leather accents are all REACH certified for safer strolling.
+PERFORMANCE TRAVEL SYSTEM: Our UPPAbaby Mesa Infant Car Seats attach to the Minu stroller with convenient adapters to create a complete Performance Travel System.
+Product Care Instructions	Spot clean or hand wash gently in cold water with mild detergent. DO NOT BLEACH Dry flat and away from direct sunlight before re-use or storage DO NOT IRON OR DRY CLEAN
+Canopy Material	100% Polyester
+Tire Material	Plastic or hard rubber
+Seat Material	Polyester
+Fabric Type	100% Polyester
+Frame Material Type	Aluminum
+Material Type	Leather
+Features &amp; Specs
+Additional Features	All-wheel shock absorption suspension, UPF 50+ canopy, lightweight and compact design, one-handed one-step fold, large storage basket, no-rethread harness
+Built-in Light	No
+Is Electric	No
+Is Car Seat Compatible	No
+Harness Feature	5 adjustable points for secure fit
+Harness Type	5 Point
+Stroller Type	Umbrella Stroller
+Specification Met	All-wheel shock absorption, UPF 50+ canopy
+Installation Type	portable
+Maximum Weight Recommendation	50 Pounds
+Measurements
+Item Dimensions L x W x H	35.5"L x 20.3"W x 41"H
+Frame Weight	14.4 Pounds
+Item Weight	16.9 Pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/UPPAbaby-Stroller-Lightweight-Portable-One-Hand/dp/B09XY59SMV/ref=sr_1_1_sspa?crid=E0JNQ9HXDB1T&amp;dib=eyJ2IjoiMSJ9.WiLtZGrHDVeT6Vn8PR5aN4ctKjscnb5AGkUc29FOaAW_sXkY5H9Hgn58-KXgdskpI6rMeVN0O_qbqITT0s1xmvXNLPavP0IW8ejn6kbZj_1xdariy6EpqxTkGmVjz8X4zWMb3auTbcpjppiIyOxDdKSJwUD_jC8wettMXrJEB7RxicXkQ1vYw0PdXqirSRylxp-4jaJ2HLnbANJcIihWd735r1RijXrLhWCdU27obnc.P1LRqGpHb5B19HPrcLv667mow5jE-9WZ47e-yOWYrd8&amp;dib_tag=se&amp;keywords=UPPAbaby+MINU+V2+stroller&amp;qid=1727653444&amp;sprefix=uppababy+minu+v2+stroller%2Caps%2C140&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Unbeatable versatility in a compact size
+The Bugaboo Ant is an ultra compact stroller packed with incredible features designed to provide versatility and ease for you and your family. Its lightweight frame makes it easy to drive while its height-adjustable comfort seat lets your child face you or the world in one simple switch. A true joy to ride and steer, and ready to go from your very first stroll.
+Two-view seat
+An extraordinary stroller needs an extraordinary seat. This easily adjustable and reversible seat lets your child face you or the world in one easy switch.
+Ultra compact fold
+It’s convenient to store out of sight, park in small spaces, or fit in an overhead locker where you would usually keep a bag.
+Grows with your family
+The height-adjustable seat lets you have a safe, comfortable, and seamless ride from newborn to toddler. For extra comfort during the first months, pair your stroller with the Bugaboo baby cocoon.
+Easy to drive
+As your newborn grows into a lively toddler, your push can remain as gentle as ever thanks to the advanced suspension packed into its nimble wheels.
+Key features
+Perfect as a second stroller
+Suitable from birth, for extra comfort pair with the Bugaboo Baby Cocoon
+Car seat compatible
+Lightweight and easy to carry
+Folds in one-piece into an ultra compact size
+Pull-along trolley mode
+Advanced suspension for fewer bumps
+Suitable for a child up to 48.5 lbs
+Comfortable and reclinable seat, featuring three different positions
+Reversible seat, with parent-facing or facing-the-world position
+Height-adjustable handlebar
+Push and steer with one hand
+Rear luggage basket holds up to 11 lbs
+Underseat basket holds up to 6.6 lbs
+Specifications
+Weight, size &amp; dimensions
+Stroller width: 16.06 in
+Stroller weight with seat: 15.8 lbs
+Folded dimensions (length x width x height): 21.6 x 14.9 x 9.1 in
+Minimum handlebar height: 37.4 in
+Maximum handlebar height: 40.9 in
+Front wheel diameter: 4.7 in
+Rear wheel diameter: 5.9 in
+Capacity
+Weight capacity (seat): up to 50 lbs
+Combined under seat basket &amp; rear luggage basket capacity: 17.6 lbs
+Compatible with different car seat models. Check out our Accessories page for information about car seat adapters.
+Fabrics &amp; Care
+Outside: 100% polyester
+Machine washable fabrics, at 30 degrees. Always wash it separately.</t>
+  </si>
+  <si>
+    <t>https://www.bugaboo.com/us-en/strollers/bugaboo-ant/bugaboo-ant-stroller-MI002360.html</t>
+  </si>
+  <si>
+    <t>Polyester
+Ultra-lightweight: Weighs only 14 lbs for easy maneuvering
+Travel System: Can be used with a Baby Jogger infant car seat (sold separately)
+Ultra-compact: One-step fold with auto-lock for transportation and storage
+Comfortable: Multi-position padded seat reclines nearly flat
+Adjustable Calf Support: Provides comfort for growing children
+UV 50+ canopy: Protects your baby from the harsh sun
+Carry Bag: Included for protection against dirt and scratches when traveling
+Lightweight and durable tires with locking front-swivel wheels provide a smooth and nimble ride
+Product Care Instructions	Machine wash seat on cold, gentle or delicate and drip dry. Do not use bleach, solvents or abrasive cleaning materials. Do not press, iron, dry clean or tumble dry. Reminder to always remove the metal frame and PE boards from the seat before washing. If the seat cover requires replacing, only use parts from a Baby Jogger authorized dealer. Plastic and metal parts may be surface washed only using warm water and mild soap; towel dry. The wheels can be cleaned using a damp cloth and must be dried completely with a soft towel or cloth before use. Do not store outside or near a direct heat source such as a radiator or fire. Always store in a dry and safe environment.
+Canopy Material	polyester
+Tire Material	Rubber
+Seat Material	Polyester
+Fabric Type	Polyester
+Frame Material Type	Metal 47.6%, Plastic 52.4%
+Material Type	Plastic, Metal, Fabric
+Features &amp; Specs
+Additional Features	Ultra-Compact, Storage Area, Folds for Easy Transport and Storage, Canopy
+Seating Capacity	1
+Built-in Light	No
+Number of wheels	4
+Is Car Seat Compatible	No
+Harness Feature	enhanced safety, secure fit
+Harness Type	5 Point
+Stroller Type	Umbrella Stroller
+Specification Met	JPMA
+Maximum Weight Recommendation	20 Pounds
+Measurements
+Front Wheel Diameter	5 Inches
+Back Wheel Diameter	6 Inches
+Item Dimensions L x W x H	37.75"L x 19.6"W x 39.5"H
+Frame Weight	14.3 Pounds
+Item Weight	14.3 Pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Baby-Jogger-City-Single-Stroller/dp/B07NZPT3TR/ref=sr_1_1?crid=UJ4T5ADYJEVN&amp;dib=eyJ2IjoiMSJ9.JT40gtnt5qfq7z-UrisIT0qNlQuFcZrJHgNC_uL_xMsp2pVF3vo4LOOoKsAdjP4SgkqkdKxU31mxS8mLlrtNKlVHwfPD14v_dDpTd6xGGbaTuGwJkGZYrkYaG5_SM0CcYZY3FiKiutXrxzcnZ0rdxg7E5HSmRXxxyMJgR56TaJhvvZyq5cS5YgvqkhHEeqWLGhHreC3RG_RBII3qv9RenNHdRLLyLI1BAK3tKeaMFcM.nM1Do8rxxO0gdYS-e4yAFJzzIQ6J5eYpOpl_aW9L3lI&amp;dib_tag=se&amp;keywords=Baby+Jogger+City+Tour+2+stroller&amp;qid=1727653548&amp;sprefix=baby+jogger+city+tour+2+stroller%2Caps%2C152&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Leatherette, Polyester
+FROM BIRTH to TODDLER: The Joolz Aer+ stroller suits kids 6 months to 4 years (up to 50 lbs). Weighs 13.2 lbs, with an ergonomic seat, compact design, and smooth maneuverability for active families.
+COMFORT, STYLE &amp; ADAPTABILITY: The Joolz Aer+ stroller offers one-handed folding, pre-assembled setup, 11 lb basket, all-terrain suspension, and an ergonomic high handlebar for comfort &amp; adaptability.
+ULTIMATE PORTABILITY &amp; TRAVEL SYSTEM: The Joolz AER+ stroller offers easy transport, compact storage, a shoulder strap, travel pouch, easy fold, airplane friendly compatibility (17.7 x 21 x 8.5 in).
+SAFETY 1st: The Joolz Aer+ pram has a 5-point buckle, adjustable harness, patented reclining stroller seat for safety, spacious seat, large UPF 50+ canopy, and ventilation for all weather conditions.
+SUSTAINABLE &amp; GUARANTEED: The Joolz Aer+ stroller is made from 100% recycled fabrics, offering durability and style. With a 10-year warranty, reusable packaging, and hand-washable materials.
+Fabric Type	Leatherette, Polyester
+Frame Material Type	Aluminum
+Material Type	Polyester
+Features &amp; Specs
+Number of wheels	4
+Is Car Seat Compatible	Yes
+Harness Type	5 Point
+Maximum Weight Recommendation	50 Pounds
+Measurements
+Stroller Seat Weight	50 Pounds
+Item Dimensions L x W x H	32.7"L x 17.7"W x 41.5"H
+Item Weight	13.2 Pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Joolz-Lightweight-Compact-Travel-Stroller/dp/B0CYQ89PC7/ref=sr_1_1_sspa?crid=ZWZ91FGN4LIW&amp;dib=eyJ2IjoiMSJ9.i9PuhDUtuk7gOVHMmlGho-BcOV12qSG-CPqrVQk0qCtS6dVaZGYSHEzRhiV451tVl_rSfd1iy464nK-fl9CR3OxbBBmGjEVStlv-JeyxqvhAXTEgUP-yJwLpeOLNRscoCW187zcREVtinDYZgVQRD0kSai3bLkb3dqBYmneSWaJjb5OQLR_wACx0nsG1pYtYMhUgx4W9WzYpsF1kDdcXMHCXfmyQOeV-jMypDNO6cg4.9SHq_mTHRYanZCO2j5mclZChzb6zcI54xXR-Dk7EXWU&amp;dib_tag=se&amp;keywords=Joolz+Aer+stroller&amp;qid=1727653580&amp;sprefix=joolz+aer+stroller%2Caps%2C152&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Seat Pad: 95% Polyester Fiber, 5% Polyurethane Foam Pad
+ULTRA-COMPACT FOLD: Folds into an ultra-compact, self-standing package in seconds for easy storage
+CARRY ON COMPLIANT: Compact travel stroller for airplane travel folds small enough to carry on. (Airline luggage and carry-on allowances may vary, and are subject to change. Please check airline websites prior to departure)
+LIGHTWEIGHT STROLLER: Weighs only 13.7 lbs.
+TRAVEL SYSTEM READY: Attach any CYBEX infant car seat to the frame to create a convenient baby travel system using included adapters
+SMOOTH FRONT WHEEL SUSPENSION: Infant and toddler stroller provides steady handling and a comfortable ride
+Product Dimensions	‎28.7 x 20.5 x 40.9 inches
+Item model number	‎524000281
+Maximum weight recommendation	‎55 Pounds
+Care instructions	‎Hang dry., Machine wash fabrics separately in cold water, with mild detergent, on a delicate cycle.
+Batteries required	‎No
+Harness type	‎5 Point
+Item Weight	‎13.7 pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cybex-Lightweight-Stroller-Suspension-Adjustable/dp/B0CWW85JWT/ref=sr_1_1_sspa?crid=17V58RDQUDOQ3&amp;dib=eyJ2IjoiMSJ9.C_BPPpYZFZLR2B7ceeCqkqhx0pNJk39d1wmnzYiyWrFiOAE6xTbsOrktacSbOOiB6tPdXP3swgdKpsQ1T4Y4VgLL0400L2Ob8l7WFiJyL4OD7wD6NVpDO0sMjLjdP-8dEtL9c6dJv6n2g_6us3YYHZJiQ1Y-6XCBwiBjRS0MMDfDhKQwYHkAurqnrTL_wUK88HZbZuRvYLK7zGViEe3Y_CIl2F4RgqBDrakrDqCe3V8.YMlk0PJQRrEdLdhWm4cal2xzw08hfBgNHM5vWoGkqws&amp;dib_tag=se&amp;keywords=Cybex+Libelle+stroller&amp;qid=1727653604&amp;sprefix=cybex+libelle+stroller%2Caps%2C154&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Out around town, on a whirlwind weekend trip, or exploring faraway places - an extra hand is always helpful for any parent. At the touch of a button on the push bar, the Nuna TRVL™ stroller self-folds into a super-compact, free-standing package - giving you the convenience and mobility you need to discover the world in style.
+The Nuna TRVL™ stroller is ultra-lightweight at just 13.6 lbs.* so it’s easy to carry with the arm bar when folded or go hands-free and store away during travel with the carry bag that’s included. It pairs perfectly with all PIPA™ series car seats, creating a sleek-looking travel system with just a click – no adapters needed. City living or jet-setting parents will love the luxe materials and innovative conveniences of this compact and lightweight travel stroller for miles to go.
+The Nuna TRVL stroller can be used for infants and toddlers weighing up to 50 lbs. in either the travel system mode or stroller mode.
+One-hand, multi-position recline and adjustable calf support for added comfort
+Progressive front and rear-wheel suspension technology provides a smooth ride
+One-handed steering and exceptional maneuverability make it a dream to push and turn
+Water repellent, easy to clean, UPF 50+ canopy provides both coverage and multiple windows
+Quick-release, no-rethread five-point harness for easy adjustments
+Luxe leatherette accented push bar and arm bar lend style to your strolls
+Quick release wheels make for an even more compact fold
+Simple, one-touch, rear-wheel braking system
+The removable and rotating arm bar fits kids of all sizes
+Front swivel wheels with swivel locks
+Easy access basket for storing on-the-go essentials
+GREENGUARD Gold Certified: Products that have achieved GREENGUARD Gold Certification are scientifically proven to meet some of the world's most rigorous third-party chemical emissions standards, and certified to not contribute to indoor air pollution or chemical exposure
+Recommended use: Up to 50 lbs
+Stroller dimensions  L 32.5 in  W 20.25 in  H 44 in  Stroller dimensions (folded, armbar removed)  L 24 in  W 20.25 in  H 11 in 
+Weight: 13.6 lbs (without canopy and arm bar - canopy and arm bar approx. 1 lb.)</t>
+  </si>
+  <si>
+    <t>https://nunababy.com/usa/trvl-easy-fold-compact-stroller?color_ref=16743</t>
+  </si>
+  <si>
+    <t>Polyester
+𝐄𝐂𝐎-𝐅𝐑𝐈𝐄𝐍𝐃𝐋𝐘 𝐌𝐀𝐓𝐄𝐑𝐈𝐀𝐋𝐒: Made with soft, sustainable jersey fabric sourced from recycled plastic bottles, complemented by vegan leather and chrome accents, making this jogging stroller an environmentally responsible choice
+𝐋𝐈𝐆𝐇𝐓𝐖𝐄𝐈𝐆𝐇𝐓 𝐀𝐍𝐃 𝐂𝐎𝐌𝐏𝐀𝐂𝐓: Designed for travel, fly through terminals and city streets with the Jet 4's ultra-compact foldable toddler stroller with featherweight 13.6 lbs design. It fit into overhead lockers on aircraft, ensuring it's ready for any adventure with this baby stroller travel systems
+𝐎𝐍𝐄-𝐇𝐀𝐍𝐃𝐄𝐃 𝐑𝐄𝐂𝐋𝐈𝐍𝐄: The Jet 4's one-handed recline allows you to easily adjust your baby's position, soothe your little one and adjust their position seamlessly with the Jet 4's ingenious single-handed recline, even while holding it in the other arm made it baby trend stroller of all time
+𝐀𝐋𝐋 𝐈𝐍𝐂𝐋𝐔𝐒𝐈𝐕𝐄: The Jet 4's super compact stroller is the only one approved in the USA to include a toddler bar, feature an adjustable footrest, newborn to 55 pounds, and feature a quick, one-hand fold; all while being compact enough to fit all overhead bins on an airplane which make it a best travel stroller for airplane
+𝗡𝗘𝗪𝗕𝗢𝗥𝗡 𝗖𝗢𝗠𝗣𝗔𝗧𝗜𝗕𝗟𝗘: The Jet 4's unique flat recline mode allows you to use the stroller from newborn all the way to 55 pounds - making it last longer and ensure years of happy outings and jogging with this strollers for babies and toddlers
+𝐄𝐗𝐓𝐄𝐍𝐃𝐄𝐃 𝐂𝐀𝐍𝐎𝐏𝐘: Say goodbye to harsh rays and blustery winds with this umbrella stroller. The Jet 4's lightweight baby strollers include a UPF50+ canopy with a mesh viewing window, offering protection from the sun while allowing you to keep an eye on your little one. This makes it the best summer stroller baby travel system for infants, toddlers, and newborns
+𝐀𝐃𝐕𝐀𝐍𝐂𝐄𝐃 𝐒𝐀𝐅𝐄𝐓𝐘 𝐅𝐄𝐀𝐓𝐔𝐑𝐄𝐒: This newborn stroller is equipped with the Genius magnetic buckle system for a secure, easy-to-use, three-click harness that keeps your baby safe and comfortable on the go
+𝐂𝐎𝐍𝐕𝐄𝐍𝐈𝐄𝐍𝐂𝐄 𝐅𝐄𝐀𝐓𝐔𝐑𝐄𝐒: Boasts a large storage basket, flip-flop friendly brake, and anti-crease fabric to ensure this portable stroller stays looking sharp and is easy to manage during travel which makes it the best compact stroller for travel
+Fabric Type	Polyester
+Frame Material Type	Alloy Steel
+Material Type	Polyester
+Features &amp; Specs
+Built-in Light	No
+Is Electric	No
+Harness Type	5 Point
+Stroller Type	Standard Stroller
+Maximum Weight Recommendation	15 Kilograms
+Measurements
+Back Wheel Diameter	74.87 Centimeters
+Item Dimensions L x W x H	23"L x 8.27"W x 12.8"H
+Frame Weight	8.1 Kilograms
+Item Weight	8.1 Kilograms
+Folded Size	7.08 x 11.81 x 21.65 inches</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Silver-Cross-Jet-Lightweight-All-Terrain/dp/B0D5BNPD8M/ref=sr_1_1_sspa?crid=D42IQFGJ1BGK&amp;dib=eyJ2IjoiMSJ9.74iU6uwy3a2Yi74WVsL9QD0IHGhIpcSCAyOqlAjJj5_zrC29j7Vp7KfAgzc8LR0JfhYjriI_4vIZRsjOGoE7JG9-_gjjxoDLUv4Io49bdBCFknpidy0cA8Nqv4BVOsakSZpkk64JhOPUy_QFUWdNuiTZGU-8Yebw6u-P6vgWptZagaolZjsbrWUaL00ZkKRy5We0HMcdgtsyrYQfjCqctLkjGzAuQhKWAdIXYZbqE_I.wRhG-f-4DQpIri5ADrqzIj_EazwKg8aKlMJpH9lSte8&amp;dib_tag=se&amp;keywords=Silver+Cross+Jet+stroller&amp;qid=1727653699&amp;sprefix=silver+cross+jet+stroller%2Caps%2C153&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Polyester
+Imported
+The revolutionary ultra-compact folding mechanism of the Pocket Air All-Terrain reduces the stroller into a handbag-shaped package in seconds and is airplane hand luggage compliant.
+Take to the skies with confidence. The ultra-compact folding mechanism of the Pocket Air All-Terrain is airplane hand luggage compliant, freeing you to travel with your stroller without hassle
+Weighing only 4.6 kg, the Pocket Air All-Terrain is the perfect travel companion. Its super-lightweight frame is easy to man oeuvre, lift and carry. Perfect for the city, on vacation, or just being on the go.
+The backrest of the Pocket Air All-Terrain is designed with a breathable mesh fabric that provides comfort for your child even on hot days. Available as an accessory, a snug padded inlay can be added to the seat unit for additional warmth on cooler days.
+The double wheels of the Pocket Air All-Terrain increase both comfort and usability, allowing parents to confidently man oeuvre on different surfaces and ensuring you'll never get stuck in between cobblestones.
+Product Care Instructions	Spot or Wipe Clean
+Canopy Material	Polyester
+Tire Material	Plastic, EVA
+Seat Material	Polyester
+Fabric Type	Polyester
+Frame Material Type	Plastic
+Material Type	Aluminum/Polyester/Plastic/Rubber
+Features &amp; Specs
+Additional Features	Ultra-compact folding mechanism transforms the stroller into a handbag-shaped package in seconds and is airplane carry-on compliant*
+Seating Capacity	1
+Built-in Light	No
+Is Electric	No
+Is Car Seat Compatible	No
+Harness Type	3 Point
+Stroller Type	Umbrella Stroller
+Specification Met	ASTM
+Installation Type	Freestanding
+Maximum Weight Recommendation	55 Pounds
+Measurements
+Front Wheel Diameter	4.7 Inches
+Back Wheel Diameter	4.7 Inches
+Item Dimensions L x W x H	28"L x 17.5"W x 39.8"H
+Frame Weight	4.6 Pounds
+Item Weight	10.4 Pounds
+Folded Size	11.8 x 7 x 13.8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Pockit-Terrain-Velvet-Black-Compact/dp/B07S3XDZDV/ref=sr_1_1?crid=363OJ390TG0F&amp;dib=eyJ2IjoiMSJ9.9rnl3fcwUItq_3O1MP3FNJEAvW2vse_ZwLYbkSpYQ8eJTA5dW1Nu2n3UWXrrm3Wt8iTyKGC180MUM7XkJsAuwKqS4OsOer7JjrJKR29es-q5VzqivK-APyqz570pabQw5pGt6TlX2wYVsF6hHXYNPWqfmvkZWLBpHUbavzTx8HkDvm8jJ8dfyTWUARU-_sEr1cuZSpJVGWQt35rymvXkQGORg2vZeMfsIyi57n1yjFU.TDyHvK-MaRR4wux9k1bzXkOFu_dOr8K7imVBgED7NuQ&amp;dib_tag=se&amp;keywords=GB+Pockit+Air+All-Terrain+stroller&amp;qid=1727653726&amp;sprefix=gb+pockit+air+all-terrain+stroller%2Caps%2C137&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>full recline fabric sling seat providing a lie flat mode that is perfect for newborns
+ultra lightweight at less than 6kg / 13lbs with a carry handle and shoulder strap - ideal for travel or the perfect secondary buggy
+easy two-step compact fold designed to fit in many carry-on luggage units or to leave in the car for quick trips
+travel system ready with universal car seat adaptors included to easily attach an infant car seat
+additional newborn comfort when paired with our additional cocoon essential accessory.
+Maximum Weight Recommendation	20 Kilograms
+Features &amp; Specs
+Additional Features	full recline fabric sling seat, built-in universal car seat adapters, travel system compatible
+Built-in Light	No
+Number of wheels	4
+Is Electric	No
+Is Car Seat Compatible	Yes
+Harness Type	5 Point
+Stroller Type	Umbrella Stroller
+Basket Weight Capacity Maximum	2000 Grams
+Front Wheel Diameter	5.5 Inches
+Back Wheel Diameter	41.34 Inches
+Item Dimensions L x W x H	22"L x 19"W x 9"H
+Frame Weight	6.1 Kilograms
+Item Weight	6 Kilograms</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Mountain-Buggy-Nano-Stroller-Black/dp/B085RZJ4QK/ref=sr_1_1?crid=1IHXQEX8M3JDC&amp;dib=eyJ2IjoiMSJ9.CzP-K9WAeCrvlvE76I120RMMcz2fqApAGEcxzJWp1CzrYwgVdAklRWQykwEbYrOd0IjKREfVkGZfbeG2dj0Z_CEts_-nPDUx0lkbt9owr_XL0D9wfLEx9T1Vk9ZrYD5fKC7XiRNLBiLhQ-7i3vuHMx6eYEszlubzRtY8nUwuM-q4oKY7NjJm34DXDokqE01SWTzvnOfEfkLOuGBVEgqdleVI8pdQCY5gCI1GuUNpXwU.1IZ7ohHgXG2neUUM0KMs7H5w5Uftc1DlkE5P7XByd6Q&amp;dib_tag=se&amp;keywords=Mountain+Buggy+Nano+stroller&amp;qid=1727653751&amp;sprefix=mountain+buggy+nano+stroller%2Caps%2C136&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Ripstop
+Extra Padding for enhanced comfort
+Washable footmuff
+Zip-off panel allows for easy access
+Keeps children warm and cosy
+Covers the entire length of the seat
+Style	‎Modern
+Blanket Form	‎Quilt
+Age Range (Description)	‎Baby
+Product Dimensions	‎34.25"L x 12.59"W
+Theme	‎Weather
+Pattern	‎Solid
+Seasons	‎All
+Fabric Type	‎Ripstop
+Global Trade Identification Number	‎05010902197963
+Manufacturer	‎Maclaren
+Item model number	‎ASE13032
+Is Discontinued By Manufacturer	‎No
+Target gender	‎Unisex
+Batteries required	‎No
+Item Weight	‎8.1 ounces</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Maclaren-Mark-II-Footmuff-Silver/dp/B00QVG24IS/ref=sr_1_1?crid=3T5VM0FCWTBPH&amp;dib=eyJ2IjoiMSJ9.JUGGtWR9yIDYznopB-WqaetD2m_cXyuF_M859rsXYyNNbReeydVKwrUHZae3JfSxBc_AM7dncrSJPNCJgA9PDjsEFa50zeivGmLQ66GjUXI9-ayLvVO53gcXhggmH169Htpbh9hRmhB9DoaQr6ahge5_LpC_D2YmVWgbJqvG370.1Xt8xfflVuQi8OoMx6vrKNF5uqbykd0qdzSVPPTe-08&amp;dib_tag=se&amp;keywords=maclaren+mark+ii&amp;qid=1727653778&amp;sprefix=Maclaren+Mark+II%2Caps%2C160&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://bumbleride.com/products/indie-all-terrain-stroller</t>
+  </si>
+  <si>
+    <t>Mesh
+ALL-IN-ONE baby and toddler stroller for growing families, for use from birth with a carrycot or infant car seat and can be expanded to accommodate two and three children
+MODULAR system provides endless possibilities with more than 20+ configurations – enjoy as a full-featured single with shopping basket, make it a double stroller ideal for twins and fit Gazelle S perfectly to your family
+ONE-PULL HARNESS makes it a breeze to load your child in to the seat safe and snug – extra handy if you’re doing it twice
+ERGONOMIC full-size reversible seat with near-flat recline position for little ones, advanced suspension for a smooth ride, and one-hand adjustable-height handlebar for parents
+XXL UPF50+ SUN CANOPY with breathable mesh window protects kids from the sun and keeps them safe and cool in the perfect summer stroller
+LOTS OF STORAGE with included shopper basket and spacious storage underneath equaling 55 lb. of cargo capacity
+COMPACT FOLD with one or two seats attached, for easy travel and storage
+Product Care Instructions	Wash separately. Gentle action wash warm water, do not bleach, do not tumble dry, do not iron, do not dry clean
+Tire Material	Plastic
+Fabric Type	Mesh
+Frame Material Type	Aluminum
+Material Type	Polyester, Aluminum
+Features &amp; Specs
+Additional Features	one-pull harness, babies
+Number of Cup Holders	1
+Harness Type	5 Point
+Stroller Type	Modular Stroller
+Maximum Weight Recommendation	50 Pounds
+Measurements
+Item Dimensions L x W x H	41.9"L x 25.4"W x 427"H
+Item Weight	28.4 Pounds
+Folded Size	32.9” L x 25.4” W x 12.2” H</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cybex-Stroller-Configurations-Ergonomic-Near-Flat/dp/B0BV7VST15/ref=sr_1_1_sspa?crid=XFKLXJOB7DKH&amp;dib=eyJ2IjoiMSJ9.91pJUuamXJYc_O-HmOad-4pdUBCr7LxeXFnJvmTMknH46661vCpvpLtb635eyXYib5j20U0dBPrx-RUUktTbqC2bt2UeEjrBdnGzjPZYZF1vgPcEfvYBJlxalFwxEYtMyTxl4SRP09wKoPhBLr2ieKx6mmu_5SBL8IkGGOd227uV3V5ZlFVn1_IsIWtFzi_7-RBcIRkiKLQKbPgzF67kOTTFtMBd42WeCWlWSfejgpk.2BoyW1ev-YYmvZmBZYLk2m2srKoWLsue6VqG31qBitA&amp;dib_tag=se&amp;keywords=Cybex+Gazelle+S&amp;qid=1727653941&amp;sprefix=cybex+gazelle+s%2Caps%2C147&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://greentom.com/greentom-classic?srsltid=AfmBOooJD7IndVkj8guLXNiTttZlHfW3KzWwyeYHym_ulhJcczFGDALL</t>
+  </si>
+  <si>
+    <t>249 Euros</t>
+  </si>
+  <si>
+    <t>RU: bassinet - up to 19 lbs.; stroller seat - babies 6 months up to 55 lbs.
+Coast includes: Magnesium and aluminum alloy frame, bassinet and stroller seat with a tailored fabric set and fully ventilated UPF50+ canopy with viewing window, a marl ombre knit jersey reversible seat liner, soft jersey harness pads, insect net, rain cover, extra large basket and cup holder.
+Create 6 configurations straight out of the box.
+Stroller seat is extra roomy and is suitable for babies 6 months old, up to 55 lbs. It has multiple one-handed recline (full upright, snooze recline and full lie flat), and easily switches between parent facing and forward facing modes. For added baby comfort, it has an adjustable calf rest and integrated footrest.
+Suitable for overnight sleeping, the soft padded bassinet is lined with bamboo fabric, which has antibacterial properties and helps regulate temperature.
+Compatible car seats. Silver Cross car seat adaptors allow you to click Maxi-Cosi Mico 30 and Mico Max 30, Nuna Pipa, Pipa Lite and Pipa Lite LX, Cybex Aton2 and Clek Liing infant car seats directly onto your Coast stroller frame. Car seat adaptors and infant car seats sold separately.
+Coast stroller frame uses the highest quality magnesium, making it extremely strong yet lightweight.
+Four-way independent wheel suspension with puncture proof tires.
+Lockable front swivel wheels for maximum maneuverability feature dynamic spring suspension for a smooth ride.
+Easy step-on step-off brake system is flip-flop friendly
+Stitched leatherette handle can be adjusted to 4 height positions
+Articulating and detachable bumper bar is included for the bassinet and stroller seat
+Accessories are available, giving the option of 27 intelligent configurations for one baby, siblings or twins. Sold separately.
+Product dims (assembled): 24"w x 42.9"d. Handle height 36.2-42.9"
+Product dims (folded): 24"w x 13.4"d x 37"h</t>
+  </si>
+  <si>
+    <t>https://silvercrossbaby.ca/en/product/coast-stroller/SX2164TU</t>
+  </si>
+  <si>
+    <t>Polyester
+Imported
+ALL TERRAIN JOGGING STROLLER: The BOB Gear Alterrain Pro Jogging Stroller rolls over all types of terrain
+TRUSTED DURABILITY: A lightweight yet durable aluminum frame, performance fabrics and reflective rims turn heads on the hiking trail or city street
+SMOOTH RIDE: SmoothShox suspension and air-filled tires balance out the ride for your little adventurer, so you can take on any terrain with this foldable stroller
+DOWNHILL CONTROL: An ergonomic handbrake puts downhill control at your fingertips
+SUN PROTECTION: The canopy is 100% waterproof, windproof and rated UPF 50+ to shield your child from the elements
+EXTRA SPACE: Features an XL, zip-top cargo basket and 5 storage pockets, including a cell phone holder by the handlebar to stow your items securely
+FOLD AND GO: The One-hand, quick-fold design collapses the travel stroller to a self-standing position with a single twist of the hand
+COMFY RIDE: Ultra-padded compression seat with infinite recline sits fully upright for all-day comfort and lays near-flat to relax
+VERSATILE CONTROL: Adjustable padded handlebar, adjustable front wheel tracking and swivel-locking front wheel offer easier control
+PEEK-A-BOO WINDOW: Magnetic “peek and chat” window keeps your child cool and lets you chat without stopping
+Product Care Instructions	Sponge area with a solution of lukewarm water and mild soap. Rinse thoroughly with clean water to remove all soap and allow to dry. Do not use detergent.
+Tire Material	Pneumatic
+Fabric Type	Polyester
+Frame Material Type	Aluminum
+Material Type	Pneumatic
+Features &amp; Specs
+Additional Features	Storage AreaCanopy, Folds for Easy Transport and Storage, Adjustable Handle, One-Hand Fold, Hand Operated Brakes
+Seating Capacity	1
+Number of wheels	3
+Harness Type	5 Point
+Stroller Type	Jogging Stroller
+Specification Met	certified frustration-free
+Maximum Weight Recommendation	75 Pounds
+Measurements
+Front Wheel Diameter	12 Inches
+Back Wheel Diameter	16 Inches
+Item Dimensions L x W x H	46"L x 25.5"W x 45.5"H
+Item Weight	32.3 Pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/BOB-Gear-Alterrain-Jogging-Stroller/dp/B07XV1WLSC/ref=sr_1_1?crid=1K29QMKVH92CW&amp;dib=eyJ2IjoiMSJ9.I0mDQvK7dy_oDZd8BM3kByYF_l3cYc8A3DNkH4lhT0qky2DRa8dyuCIItTH-qOYzCnlEb1uqQy_5cJrxaIeTlM2jOhjK0CD-jr4aunnzu3A3JyRJwBfNAVbfBxoE21IPFB3s2K_aeAmHmR6egCCBvR43wZEwqgMTgJViP2KGpJTTVrn4QfAylfKOZCN0BDqz.AyHbY80N9Uv6Otglb0PuwKTeUseWFFxEXrat_T_4uWE&amp;dib_tag=se&amp;keywords=BOB+Gear+Alterrain+Pro+stroller&amp;qid=1727654117&amp;sprefix=bob+gear+alterrain+pro+stroller%2Caps%2C139&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Polyurethane Foam Pad 100%/ Aluminum Frame
+One-Hand, Quick Fold makes it easy to store and go
+Ventilated Sidewalls improve air flow to keep baby cool; Athleisure Seat Liner wicks away moisture to keep baby dry; removable for easy cleaning
+Tire Material	Rubber
+Fabric Type	Polyurethane Foam Pad 100%/ Aluminum Frame
+Frame Material Type	Aluminum
+Material Type	Aluminum
+Features &amp; Specs
+Additional Features	Ventilated Sidewalls, Breathable Canopy, Quick Fold, Reflective Trim
+Built-in Light	No
+Number of wheels	3
+Is Electric	No
+Is Car Seat Compatible	Yes
+Number of Cup Holders	2
+Harness Feature	Adjustable Straps
+Harness Type	5 Point
+Stroller Type	Jogging Stroller
+Installation Type	Freestanding
+Maximum Weight Recommendation	65 Pounds
+Measurements
+Basket Weight Capacity Maximum	65 Pounds
+Front Wheel Diameter	6.5 Inches
+Back Wheel Diameter	10 Inches
+Car Seat Weight	65 Pounds
+Item Dimensions L x W x H	44"L x 24"W x 42"H
+Item Weight	22 Pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Britax-B-Free-Sport-Stroller-Asher/dp/B0CP2Z7JYW/ref=sr_1_1?crid=10WG6F36TFPC6&amp;dib=eyJ2IjoiMSJ9.Gg5uNHrIbPoZZltHEB1OZXxX3ovWoiUhgkp5N7NTUKr7Y729xRbastie3Wexuh7UgX4fdfDXhmxXdih8j9sfo8ufkT0Cd68knqcrtqm-ivJuU_CCCsUILh-eqeY4PWkSp3jxjdO-4jZpddGVH4mtkvJKhVwPVJ93ZcJFIO5iMlxJClUSl_qOHrQ0t6Cgvwrjnp8xKMQkBLN7UkoS1rX15brcyeORTm0xSr7TCv-PYA0.abm_AyWdkCXbYSBpqPfx-3mDEaFjf7tHnoePvtMe3XQ&amp;dib_tag=se&amp;keywords=Britax+B-Free+stroller&amp;qid=1727654151&amp;sprefix=britax+b-free+stroller%2Caps%2C135&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Nylon
+THREE POSITION SWIVEL LOCK FRONT WHEEL - Provides maximum control and maximum performance on any terrain while walking or jogging. Swivel, lock forwards, lock backwards or adjust the "play" to personalize your push
+ONE-HAND CONTROL SQUEEZE BRAKE - for hilly adventures and rough terrain;SHOCK ABSORBING SUSPENSION - a smooth push for mom and dad and a smooth ride for your baby
+NEWBORN READY IN THREE MODES - Newborn perfect reclinable seat, compatible with the Mountain Buggy Carry Cot+ in matching fabric (sold separately) and infant car seats from most major brands (sold separately) allow you to use the Terrain from birth until your ready to run
+ACCESSORIES INCLUDED - Reversible liner, two bottle holders, bumper bar and additional 12" rear wheel set to make your Terrain perfect for city strolls; COMPACT AND SIMPLE ONE HAND STANDING FOLD - for easy storage at home or in the car
+WATER-RESISTANT FABRIC - makes care and cleaning a breeze; SO MUCH STORAGE;Sunhood pocket with headphone port, mesh pockets in the seat, and zip-top gear basket
+REVERSIBLE LINER - seat liner is reversible
+Fabric Type	Nylon
+Frame Material Type	Alloy Steel
+Material Type	Nylon, Alloy Steel
+Features &amp; Specs
+Built-in Light	No
+Is Electric	No
+Harness Type	5 Point
+Maximum Weight Recommendation	65 Pounds
+Measurements
+Item Dimensions L x W x H	24.8"L x 15.3"W x 36.6"H
+Item Weight	28.5 Pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Mountain-Buggy-Terrain-Premium-Stroller/dp/B00Z6JLFFO/ref=sr_1_1?crid=159FV3OWJSPL6&amp;dib=eyJ2IjoiMSJ9.gKLPoxRp6_PS_r4NsbFOTr4qO8L71AZd6OTwVmngp4Z4bhZ5FEROAleM63YFqeHaF1OmByF7X2j0k-SFOgSzhy0i3IeX2GdE8bqJXiNP54VTwsAfCOEh70uwIAPUvOOhToOG8jyfi-14rluY-ykvHHBlms_N0bspl_4rcxJTtr6Tavdt1mkL_H-dTbD7LuGhYF0tbYmUaCjL9n_FkkT6uir1aJMl3hyuk5eT-XdBDDc.XCn-8SdisD2yUURUGCMaWD73pBqs3pf9-lfQb_UUYjI&amp;dib_tag=se&amp;keywords=Mountain+Buggy+Terrain+stroller&amp;qid=1727654182&amp;sprefix=mountain+buggy+terrain+stroller%2Caps%2C141&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Meet the PIPA urbn and DEMI next travel system with TWO PIPA urbn car seats. It's a game-changer for the modern family traveling with twins or doubles.
+Crafted for the confident parent who demands the best, the DEMI next stroller is a statement in style, comfort, and convenience. It grows with possibilities, providing everything you need and more. The PIPA urbn infant car seats pair seamlessly with the DEMI next and redefine travel with a baseless installation, ensuring secure transitions for both babies in seconds.
+Elevate your family's journey with this ultimate fusion of style, security, innovation, and comfort– because you and your babies deserve the very best.
+Forward and rear-facing seat options
+One-touch rear-wheel braking system for scuff-free shoe control
+Custom dual suspension™ provides a nice, smooth ride
+Wide, swivel-lock front wheels make it a master of smooth riding motion
+One-hand adjustable calf support and footrest to accommodate growth
+Self-guiding MagneTech secure snap™ buckles automatically lock into place
+Quick-release 3 to 5-point harness makes it easy to fasten them in
+Fenders and built-in hub caps protect from dirt and debris
+Easily removable premium Merino wool insert provides ultra-soft comfort
+Eye-to-eye connection is easier with the elevated seat level
+Rotating and removable armbar fits kids of all sizes
+Water-repellent UPF 50+ Aire protect canopy™ protects from the elements
+Built-in privacy drape and ventilation panels in the canopy for ideal airflow
+All-season seat keeps baby cozy in winter and easily converts to mesh in summer
+Tires are tough, foam-filled, and ready for any terrain
+No-rethread harness makes it easy to adjust for comfort and growth
+Large basket with 22 lb capacity holds everything you need for the journey
+Adjustable pushbar with luxe leatherette accents to accommodate varying heights
+Included rain cover for when the weather doesn't cooperate
+Compatible with the DEMI next sibling seat and DEMI next bassinet
+Rider board
+Two swivel wheels for easy maneuvering
+Holds up to 50 lbs
+Flips into the stroller basket when not in use
+Folds with stroller
+PIPA urbn
+Auto-reclining foot that aids in proper installations in vehicles
+European belt path for vehicle belt installations
+Aeroflex™ foam that is cleverly lightweight, resilient, and minimizes force transferred to baby by absorbing and diffusing energy
+Side Impact Protection for ultimate baby safe keeping
+Five-point harness keeps travels secure
+Sky drape™ pulls down smoothly and attaches quietly with magnets
+Full-coverage UPF 50+ canopy is extendable and features a flip-out eyeshade and XL peek-a-boo window
+From fabric to foam and beyond, each element is smartly sourced to be both flame resistant and contain no added fire-retardant chemicals
+Integrated magnetic buckle holders help keep straps out of the way when buckling baby in
+Head support includes a 2-layer soft surround to accommodate smaller babies
+Infant head support and body inserts feature environmentally friendly Merino wool and TENCEL™ *** branded lyocell fiber blend that is soft, naturally controls moisture, and is environmentally friendly
+Machine washable seat fabrics and inserts
+Luxe leatherette carry handle for stylish journeys
+FAA certified for aircraft use
+All installation types are baseless- no base needed
+Not compatible with PIPA™ series base or RELX™ base
+Set of included anchor guides make it easy to locate and install on the lower anchor bars in vehicle
+GREENGUARD Gold Certified: Products that have achieved GREENGUARD Gold Certification are scientifically proven to meet some of the world's most rigorous third-party chemical emissions standards, and certified to not contribute to indoor air pollution or chemical exposure
+Birth to 50 lbs
+Weight: 26 lbs without insert, canopy, and armbar (insert, canopy, and armbar approx. 3.4 lb)
+Stroller dimensions: L 39.5 x W 24 x H 49 in
+Stroller dimensions (folded): L 23.5 x W 24 x H 35 in</t>
+  </si>
+  <si>
+    <t>https://nunababy.com/usa/demi-next-two-pipa-urbn-travel-system?color_ref=16366</t>
+  </si>
+  <si>
+    <t>New Features - The Donkey 5 features an improved fold and unfold with ergonomically designed buttons, a higher seat and bassinet position to allow you to have a closer reach to your little one, and integrated attachment points allow for easy use with accessories such as our Cup Holder and Comfort Wheeled Board
+Effortless Expansion - The Donkey 5 Mono accommodates a single child from birth and transforms side-by-side to meet your growing family's needs into a Duo for two children (Duo Extension Set, sold separately) or Twin (Duo Extension Set and Twin Bassinet - sold separately)
+Breezy Bassinet - A sleek bassinet design with new ventilation system will keep your baby comfortable and regulate their temperature. The soft transparent mesh allows your baby to discover the world or their siblings in Duo and Twin mode
+Ample Storage - In Mono mode you have the extendable side luggage basket - perfect for babies essentials and more! The underseat basket also extends in Duo/Twin mode so you don't have to comprise on storage
+Travel System - The Donkey 5 easily integrates with selected car seats with the use of our car seat adapters (sold separately), made for both Mono/Duo and Twin mode
+Material Type	Metal
+Measurements
+Basket Weight Capacity Maximum	24.25 Pounds
+Bassinet Weight	15 Pounds
+Back Wheel Diameter	12 Inches
+Item Dimensions L x W x H	30"L x 24"W x 72"H
+Item Weight	50 Pounds
+Installation Type	Freestanding
+Maximum Weight Recommendation	22 Kilograms
+Features &amp; Specs
+Additional Features	Improved fold and unfold with ergonomically designed buttons
+Seating Capacity	2
+Built-in Light	No
+Number of wheels	4
+Is Electric	No
+Is Car Seat Compatible	Yes
+Harness Feature	Adjustable straps, possibly with padding
+Harness Type	5 Point
+Stroller Type	Standard Stroller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bugaboo-Donkey-Complete-Side-Side/dp/B0BZZH1K79/ref=sr_1_1?crid=3ERW7WJLNB5VI&amp;dib=eyJ2IjoiMSJ9.7UYCaQF5fWV1z6AuNddPvC5xVcFzwegpAqMgNO97WxXpDRPKOgYgIKsLVS6RnGt32rjwBbE2upGmbW4IxagF3-olaHCMOfs6s-XCdcplsbZsVTudnz6EmDtAEo5ZzCFDlsrBc9VYM-tsAHSQ3izKhiJfQo8QqWTWaE-bEDY7dRqTH1-MIRu7PoP8JETNisQIBiXyBZsVBr1LU_f-0pu2lFL-O4BwLlp79dTlly6eRzc.ReHR_Ai7XINgZT4g-BP-q3t0tErGN3HUFPFqzla4ASU&amp;dib_tag=se&amp;keywords=Bugaboo+Donkey+5+stroller&amp;qid=1727654346&amp;sprefix=bugaboo+donkey+5+stroller%2Caps%2C142&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% Polyester
+Imported
+MAKE IT A DOUBLE: The easy slide and lock system expands the frame in seconds to accommodate a second toddler or infant car seat without tools, extra parts or adapters
+SWITCH IT UP: Toddler seat transitions to lay flat carriage mode, allowing baby to stretch out, while the adjustable canopy offers three heights to fit kids up to 43 in.
+STROLL EFFORTLESSLY: Large cruiser tires with front-wheel swivel and rear-wheel suspension ensure a smooth ride
+GO OR STOW: Extra-large storage basket expands to over 2 feet in length with easy access front and back to hold a diaper bag and all the day’s essentials. When not in use, stroller folds compactly and self-stands with toddler seat attached for convenience
+ACCESSORIZE IT: Compatible with Evenflo’s LiteMax Infant Car Seats (sold separately), the stroller also accommodates several other brand models when used with Evenflo Infant Car Seat Adapter (sold separately). Additional accessories include the Pivot Xpand Stroller Second Seat (sold separately), Stroller Rider Board (sold separately), Evenflo Stroller Child Snack Tray with Snack Cup (sold separately), and Pivot Xpand Stroller Market Basket (sold separately)
+Product Care Instructions	Clean minor spills and stains on cloth, vinyl or plastic surfaces with cold water and mild soap. Air dry. On models with removable seat pads, machine wash them separately in cold water–delicate cycle. NO chlorine bleach. Tumble dry 10 – 15 minutes on low heat, remove immediately. DO NOT iron or dry clean. Metal and plastic parts can be wiped clean with a soft damp cloth and dried with a soft cloth. DO NOT use abrasive cleaners.
+Canopy Material	100% Polyester
+Tire Material	Rubber
+Fabric Type	100% Polyester
+Frame Material Type	Metal
+Material Type	Polyester
+Features &amp; Specs
+Seating Capacity	2
+Is Electric	No
+Number of Cup Holders	1
+Harness Feature	5-point harness with standard adjustable straps
+Harness Type	5 Point
+Installation Type	Assembly for Initial Use
+Maximum Weight Recommendation	55 Pounds
+Measurements
+Item Dimensions L x W x H	39"L x 26.5"W x 39.25"H
+Item Weight	30.2 Pounds
+Folded Size	26.5" W x 23.75" D x 33.75" H
+</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Evenflo-Pivot-Modular-Stroller-Sabino/dp/B0BRMC94T6/ref=sr_1_1_sspa?crid=3NPZLN4KZFODU&amp;dib=eyJ2IjoiMSJ9.prDIFNaigid5QMx7CSGpaxnzq5hnZ9j2kOyvc2XkXqKuKXvt2LQMmzMPNrpjU-pCbsNqrXGOWHsRaTzRmaK1WgYLdbRgWjhkvOHPMKY_FVR3VY5GPhDpLc7kaO7Wbz2RR2DEkhFXcs5hVtiFDdZIVHbToWEYmyYHIRRk0m86hTwJMnpF3MqrCtJ_KubmhYvnv9Wmht52kvzxliNC4Gh5flv34elUGMZsv0kw_U7CPLA.kR_WrjmLCDyzYRPiN3nFva-O-rVddRDdZxIQqifvTEo&amp;dib_tag=se&amp;keywords=Evenflo+Pivot+Xpand+stroller&amp;qid=1727654367&amp;sprefix=evenflo+pivot+xpand+stroller%2Caps%2C145&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Polyester
+Made in the USA or Imported
+Converts from a single to a double stroller by adding a sibling seat, bassinet or car seat adapters
+Use from birth with Thule Sleek Bassinet or car seat adapter (sold separately)
+Shock-absorbing 4 wheel suspension for a smooth ride
+Extendable ventilated canopy with UV protection (UPF 50+)
+No-puncture foam-filled 11" rear tires and swiveling front wheels that can be locked into place
+Simple compact fold with auto lock
+Large expandable cargo basket with zip-top cover
+Comfortable large seating area with adjustable footwell
+Reclining and reversible seat
+Accessory Car seat adapters (sold separately) fit all major brands including Nuna, Maxi-Cosi, Chicco, Cybex
+Tire Material	Rubber or Plastic
+Seat Material	Polyester
+Fabric Type	Polyester
+Frame Material Type	Aluminum
+Material Type	Polyester, Aluminum, Plastic
+Features &amp; Specs
+Additional Features	Convertible, Use from Birth, Shock-absorbing Suspension, Extendable Canopy with UV Protection, No-puncture Tires, Simple Compact Fold with Auto Lock, Large Expandable Cargo Basket, Comfortable Large Seating Area with Adjustable Footwell, Reclining and Reversible Seat, Accessory Car Seat Adapters
+Number of wheels	4
+Is Car Seat Compatible	Yes
+Harness Type	5 Point
+Stroller Type	Modular Stroller
+Maximum Weight Recommendation	33 Pounds
+Measurements
+Stroller Seat Weight	25 Pounds
+Frame Weight	28 Pounds
+Item Weight	28 Pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Thule-Sleek-City-Stroller-Melange/dp/B07BQPTXRH/ref=sr_1_1?crid=2V2UJ7BTOV1ML&amp;dib=eyJ2IjoiMSJ9.xoVX6x6UzvBssrTSPPuoXNd1oCzykUt0M8a7uXD2pfhJxj--Op5BG8vmD_mQ0UZX9AhblVYEEC6TxqeM9woMuWcNnVX7T3B-AwTpa4qE4o1S_OfAXD4vPXrnEYTXqoOaFnrXG6nCzc4CKLf9kHzqKXY0QxDjrkgWPd4OMdgGSlQ-Qjpb8i0nVQZKGKsmIgEoTru-pZockPH8cFbjSlEzP75UW97Kfh7KjwVovMcngj0.YjnqxNiU09QkfqUkacBFUvG7FhPk7aLj_YyRzOXKe58&amp;dib_tag=se&amp;keywords=thule+sleek+stroller&amp;qid=1727654387&amp;sprefix=thule+sleek+stroller%2Caps%2C143&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>COMPLETE: The Joolz Day+ comes with a chassis, front and rear wheels, carrycot, reversible ergonomic seat, extended sun hood, bumper bar, 11 lbs shopping basket &amp; rain cover—ready for any adventure.
+ERGONOMIC: The seat offers a supportive backrest, side cushioning, adjustable footrest, and a quick 5-point buckle. The reversible seat allows your baby to face you or the world as they grow.
+COZY: The carrycot includes a breathable mattress, soft head cushion, UPF50+ sun hood, and a secret storage pocket, offering a snug, safe, and comfortable space for your newborn’s best comfort.
+EASY: Steer with ease using just one hand and fold into a one-piece standing position for compact storage. Integrated LED lights and a high 43.7-inch handlebar offer convenience and safety.
+SUSTAINABLE: Made from recycled plastic bottles, the eco-friendly Joolz Day+ stroller includes a rain cover and an 11 lbs shopping basket for ultimate convenience in any weather or situation.
+Product Dimensions	‎33 x 23.4 x 39 inches
+Item model number	‎461105
+Maximum weight recommendation	‎50 Pounds
+Material Type	‎Fabric
+Care instructions	‎Hand wash: clean the fabric with tepid water and soap to prohibit fading of colors. After this, rinse thoroughly with clean water and let it dry.
+Additional product features	‎Reversible Seat, Extendable Canopy UPF 50+ sun protection, All-weather extended sun hood, Breathable mattress for bassinet, Height-adjustable leatherette handlebar, One-hand operation for adjusting footrest and recline function, Spacious shopping basket with a 5kg capacity, Lightweight wheels and all-wheel suspension, Integrated LED lights in the front and back, Rotatable bumper bar, Add-on board for older toddlers, One-touch brake and lockable swivel wheels
+Number Of Items	‎1
+Batteries required	‎No
+Specification met	‎EN 1888-2
+Forward-facing maximum child weight	‎50 Pounds
+Harness type	‎5 Point
+Seating capacity	‎1
+Tire material	‎Rubber
+Item Weight	‎34.6 pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Joolz-Day-Stroller-One-Hand-Comfortable/dp/B0968RTVGB/ref=sr_1_3?crid=3NSLCWQOBJ016&amp;dib=eyJ2IjoiMSJ9.i3BvVTblXlLPqil2NjqC2TeZ4-zf3uMoYVOyMtVDTLUSzde1KRdrTDg8hoCLI_7mS4ftPHpeb5chlwfjVUw5xhTMWUmL0nwecm2OcYyQ9CF1pkZwRcweK8iu7YAAQZNvSKXTgrJBgeBzBwW8TNJQ6A0zudzuiVvuriw-RZL0jukiYjDL4Jzr3UCuhzn-KDIXcsORUwUosSksPWfau0DtODWzFFZu8hKKzqh3DI9tUzg.8KrWVAVADH45m2Oer47ZG8bfqobW1oe0afMP7ov8V3Y&amp;dib_tag=se&amp;keywords=Joolz+Day%2B+stroller&amp;qid=1727654413&amp;sprefix=joolz+day%2B+stroller%2Caps%2C129&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Mesh
+Imported
+A lightweight and compact stroller for everyday use
+Quick and simple one hand fold
+30% smaller than traditional 3-wheel strollers
+Compact fold and self-standing capability to easily carry, transport and store
+Adjustable, vented canopy with UPF 50+ UV protection
+Swiveling front wheel with suspension can be locked into a fixed position
+Reclining seat with 5-point padded harness
+Step-in footrest for older children to climb into the stroller on their own
+Lightweight design: 22 lbs; Child weight capacity: 64 lbs
+Meets Disney size requirements: 23.4 in W x 35.2 in L x 38.6 in H
+Item Package Dimensions L x W x H	‎28.03 x 18.58 x 12.44 inches
+Package Weight	‎13.36 Kilograms
+Item Dimensions LxWxH	‎35.2 x 23.4 x 38.6 inches
+Item Weight	‎5.3 Kilograms
+Brand Name	‎Thule
+Warranty Description	‎Limited Lifetime
+Model Name	‎Spring
+Color	‎Shadow Grey
+Material	‎Aluminum
+Suggested Users	‎unisex-baby
+Number of Items	‎1
+Manufacturer	‎Thule
+Part Number	‎11300102
+Included Components	‎Stroller
+Size	‎One Size</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Thule-Spring-Stroller-Shadow-Model/dp/B08324RH6B/ref=sr_1_1?crid=1X0LHGJ4U2OCV&amp;dib=eyJ2IjoiMSJ9.FY_wc36SGr-iAIWTNYnmQE-vbE17PLT7-fBqwCCWXf5Kv-GQJnQhUipHwR74qABqaqzDj-2loz9-ZgqJ10cF-NGAmb7hGOrX6TeAozRR4YVWjEnxDb6AjmlgNx2J1b7SgxjUMNsrEkLQmR4maM7gjC4fUSnwqY9MXq7SStyI3rbixla7_rMAW_rBeNZAIwMz6B7lPoi0mC_STUumul_r5WMcAX6ZK8EqpMj_juPGNZY.JFY4B5y3866irMAwSzpPMyrovPVdvMy8oUS0fsiSz1w&amp;dib_tag=se&amp;keywords=Thule+Spring+stroller&amp;qid=1727654440&amp;sprefix=thule+spring+stroller%2Caps%2C126&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Polyester
+Imported
+Versatile design, no flat rubber tires, and double seating with the same mobility as a single stroller
+Quick fold with 1 or 2 seats attached; 12 seating options when paired with the B Ready Bassinet, Britax Infant Car Seats, or B Ready Second Seat (all sold separately)
+Travel System ready: compatible with all Britax and BOB infant car seats
+Extra large UV 50+ canopy, adjustable handlebar, 4 recline positions, and oversized storage basket
+Fit: Birth to 55 pounds; maximum unfolded stroller dimensions 44 L x 24 W x 43.25 H inches
+Fabric Content: Body: Polyurethane Foam Pad: 80 percent, Polyester Fiber Batting : 20 percent
+Product Care Instructions	Hand Wash, Line Dry
+Tire Material	Rubber
+Seat Material	Polyester / Polyurethane Foam
+Fabric Type	Polyester
+Frame Material Type	Possibly Rubber or a similar material
+Material Type	Foam
+Maximum Weight Recommendation	55 Pounds
+Measurements
+Bassinet Weight	15 Pounds
+Item Dimensions L x W x H	44"L x 24"W x 43.25"H
+Item Weight	30 Pounds
+Features &amp; Specs
+Additional Features	Puncture Proof
+Built-in Light	No
+Number of wheels	4
+Is Electric	No
+Is Car Seat Compatible	Yes
+Harness Feature	Comfort padding, Easy-to-use buckles, Secure energy-absorbing materials, Adjustable straps, Multiple harness height positions
+Harness Type	5 Point
+Stroller Type	Modular Stroller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Britax-B-Ready-G3-Stroller-Pistachio/dp/B07GBJR38J/ref=sr_1_1?crid=AR05T8CRJ6C5&amp;dib=eyJ2IjoiMSJ9.Bv7H-_BqDXEsNC2zvQ53kKAPbKFcNnFQ5WeeZvotTqwW_3Phxrdep13KsfvZDY_jCR80G8rH7nsoRLujjKWiw_oLwfVkM2pTA0nMMvtR7AhLC3I8T_w1USN84tbeHq0w86S09RZW0mjKq02hWuoKZXBwYUP62ElabeGmvVZ9ERoya_tyZVs9m_6y_SstGQdPSr8MuLjCBHJ5FFRNR4WWuoCudVf_5ASaYndaRr1dR6w.a11oVYnDOphKBaxyooY_JocXHbeGK8kGyr1Ji9Vevo8&amp;dib_tag=se&amp;keywords=Britax+B-Ready+G3+stroller&amp;qid=1727654464&amp;sprefix=britax+b-ready+g3+stroller%2Caps%2C140&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Polyester
+INCLUDES MICO LUXE INFANT CAR SEAT: This baby carseat and stroller set allows for seamless transition from car to stroller with a lightweight seat that also boasts a contoured, vegan leather-trimmed handle.
+5-IN-1 CHOOSE FROM 5 MODES Stroll 5 different ways in this versatile car seat and stroller combo. The Zelia2 Luxe 5-in-1 Modular Travel System switches easily between parent-facing car seat caddy, reversible carriage, and reversible stroller.
+PREMIUM MATERIALS FOR COMFORT &amp; DESIGN The Mico Luxe car seat and baby stroller combo features premium, plush PureCosiTM fabric made without added fire retardants. Shell is designed with our innovative ClimaFlowTM technology to help keep your baby cooler.
+MAXSHADE CANOPY FOR PROTECTION: This car seat stroller combo features a MaxShade canopy which not only protects your child from UV rays but also allows you to view your child through its zip-extend mesh panel.
+COMPACT STROLLER FOR EASY STORAGE: The infant travel system is designed for convenience with its easy-to-fold, self-standing compact stroller, perfect for storage and making transitions smoother between home, car, and strolls.
+Canopy Material	Fabric
+Tire Material	Plastic
+Fabric Type	Polyester
+Frame Material Type	Metal
+Material Type	Aluminum
+Features &amp; Specs
+Additional Features	5-in-1 Modular Design, Large Canopy with Peekaboo Window, Side Impact Protection
+Built-in Light	No
+Number of wheels	4
+Is Electric	No
+Is Car Seat Compatible	Yes
+Number of Cup Holders	1
+Harness Type	5 Point
+Stroller Type	Modular Stroller
+Maximum Weight Recommendation	50 Pounds
+Measurements
+Rear Facing Car Seat Maximum Height	32 Inches
+Front Wheel Diameter	7 Inches
+Back Wheel Diameter	7 Inches
+Rear Facing Stroller Maximum Height	32 Inches
+Item Dimensions L x W x H	40.7"L x 26.6"W x 44.1"H
+Item Weight	46 Pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Maxi-Cosi-ZeliaTM%C2%B2-Modular-Travel-System/dp/B0CBW18GDW/ref=sr_1_1?crid=3AEOCSTUBKIIE&amp;dib=eyJ2IjoiMSJ9.7zDOQ5W83rXcmiQr6NQ1ED73-wiBcJs4lHvTU26jA4-_PlQoXX4OeXoLOBKWsLf5sbFwKebosPMqOOxWsJ5IPfbYk2A0nhpz1oNlSDvGukCyVzTZBB26ma-99idMao9zCQB5kaPzJVH9bizZfxysfRYI2DzdqXdJxf3YBKLM6kLYE1uK3hZmKjnAhgrGqCbv652egZibWKOj0vcc_OTqhwY3o6zxyDu69h_GZBSFhwA.XQza3DBflxk-Uo2cvwJCzJpPpbFEeCObZAX41Ihuyo0&amp;dib_tag=se&amp;keywords=Maxi-Cosi+Zelia+stroller&amp;qid=1727654482&amp;sprefix=maxi-cosi+zelia+stroller%2Caps%2C138&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>100% Polyester Blend
+Imported
+Made in Italy. Innovative design allows for quick and easy folding and closes inward, always keeping upholstery clean.
+The Ypsi converts from a Single Stroller to Double Stroller with the Ypsi Double Adapters and Companion Seat (both sold separately)
+Wheels with ball bearings and suspension allow for 360 Degree agility and less effort in pushing,
+Reversible stroller seat with three adjustable backrest positions: sitting, relaxing and resting
+Travel system compatible with Primo Viaggio 4-35 Nido and Primo Viaggio 4-35 Lounge car seats (sold separately)
+Product Dimensions	‎40.55 x 23.5 x 45.66 inches
+Item model number	‎IP2400NA00GU13MO13
+Maximum weight recommendation	‎50 Pounds
+Material Type	‎Polyester, Aluminum, Plastic
+Additional product features	‎Adjustable Canopy, Reversible Seat, Adjustable Height, Swivel Wheels, 5-Point Safety Harness
+Style	‎True Black
+Batteries required	‎No
+Harness type	‎5 pt
+Seating capacity	‎2
+Tire material	‎Polyurethane
+Folded size	‎18.7 x 23.5 x 33.85
+Item Weight	‎25.9 pounds
+Country/Region of origin	‎Italy</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Peg-Perego-Ypsi-Compatible-Bassinets/dp/B0CRWNW5Y9/ref=sr_1_1?crid=12U0DL3E3848S&amp;dib=eyJ2IjoiMSJ9.OEvQBOn5CaZQmJEyqLc9LKDtQw4M5rnQPwzsK8u7V-8q2z6wUskqtM22odMP7Qvuvo-YRzDfpBBbpqYaMtNKXHPu3cQg9os_Pe6PzezGTbdM708J_dfI6LYWlrMaGKaARHTv_dUqJyG9qJM02Qa9-vTnxR6gXYoiYiNow_a47wbrA-TV5WjEpVlKCRlE5tDE-sabni0gdcIKetLK6-LevKs9OyysqtWj-rxyPQgWq_Y.01WYLiWNm6ygYmmO4TubIoeEN2tPvDbAjUUDV71E0Lc&amp;dib_tag=se&amp;keywords=Peg+Perego+YPSI+stroller&amp;qid=1727654504&amp;sprefix=peg+perego+ypsi+stroller%2Caps%2C139&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Polyester
+INCLUDED TODDLER SEAT: The full size, reversible Toddler Seat allows your growing child to ride forwards, backwards, completely upright, reclined, and anywhere in between.
+INCLUDED BASSINET: The included Bassinet is suitable from birth up to 20lbs. The Bassinet includes a perforated mattress pad and vented base which provides added breathability, creating a truly comfortable and safe resting space for your baby.
+ONE-HANDED RECLINE: The multi-position recline on the Toddler Seat allows your child to lie comfortably for naps or sit upright to take in the sights, offering the flexibility your busy toddler needs.
+EXTENDABLE, UPF 50 plus CANOPY: The zip-out canopy on the Toddler Seat extends for additional sun protection, plush the mesh panels make it easy to peek in while adding airflow.
+EXTRA-LARGE, EASY-ACCESS BASKET: The extra-large opening means it’s easier to reach your diaper bag, toys, and whatever else you pick up along the way, up to 30 lbs.
+PATENTED TWO-STAGE SYSTEM: The All-Wheel Suspension and independent shocks ensure your child has a smooth and comfortable ride whether traveling down winding paths or over bumpy pavement.
+STANDS WHEN FOLDED: The Vista one-step fold is easy and intuitive. The stroller stands on its own when folded and can be folded with or without the Toddler Seat attached.
+STROLL IN STYLE + GREENGUARD GOLD CERTIFIED: Supporting healthier air quality &amp; low chemical emissions. Luxurious fabrics &amp; REACH certified full-grain leather details; adjustable, telescoping handlebar which extends for parents of varying heights.
+Product Care Instructions	Hand Wash Only
+Canopy Material	Polyester
+Tire Material	Rubber
+Seat Material	Polyester
+Fabric Type	Polyester
+Frame Material Type	Aluminum
+Material Type	Leather
+Features &amp; Specs
+Additional Features	Performance Travel System Compatibility
+Seating Capacity	3
+Built-in Light	No
+Number of wheels	4
+Is Electric	No
+Is Car Seat Compatible	Yes
+Harness Feature	Adjustability and added safety
+Harness Type	5 Point
+Stroller Type	Modular Stroller
+Rear Facing Maximum Weight	30 Pounds
+Maximum Weight Recommendation	55 Pounds
+Measurements
+Basket Weight Capacity Maximum	30 Pounds
+Stroller Seat Weight	7 Pounds
+Bassinet Weight	8.8 Pounds
+Back Wheel Diameter	12 Inches
+Item Dimensions L x W x H	36"L x 25.7"W x 25.7"H
+Frame Weight	20 Pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/UPPAbaby-Vista-V2-Stroller-Charcoal/dp/B08Y71CS68/ref=sr_1_1_sspa?crid=31XQJ1TCXNSZH&amp;dib=eyJ2IjoiMSJ9.l7SkfNlN8IqWncT6EBkft2h37cqQe8AsZCmVYlJvkEpxcnWjciFD1jIt2HSdFV9tL8sy8WjP_Bnw2yRbrpLBgwYhAMNM1fA-i_LNCJW_KzgKoH27L-4x6wWxIKlCXQ_tvnVu77UKbXOH_yBolTVfsm3H0k9SserKvqCL8w2pMKKBRpmJx6JAC0kX7-9LsJa8RVs5ncj3OzTPy6d-rs023kZo6gbCiYoRrn7uIff7tQg.VqEOMf91R7H7yBzD2jXW6ijAeNDmDaRBYaV1AdoU1DM&amp;dib_tag=se&amp;keywords=UPPAbaby+VISTA+V2+-stroller&amp;qid=1727654526&amp;sprefix=uppababy+vista+v2+-stroller%2Caps%2C141&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Polyester
+Imported
+3 strollers in 1: Infant Car Seat Carrier, Infant Stroller, and Toddler Stroller to stroll from infant to toddler
+Reversible stroller seat can face parent or the world, for just the right ride as baby grows
+Includes the Graco SnugRide 35 Lite LX Infant Car Seat, rear-facing for infants from 4-35 lb and up to 32" for an easy transition from car to stroller
+Parent's tray with cup holders provides extra convenience on the go
+Child's tray with cup holders to store baby's essentials removes easily to help your child climb in and out of the stroller
+Product Care Instructions	Hand Wash, Spot or Wipe Clean, Machine Wash
+Canopy Material	Polyester
+Tire Material	Plastic
+Seat Material	Polyester
+Fabric Type	Polyester
+Frame Material Type	Metal, Plastic
+Material Type	Polyester
+Features &amp; Specs
+Additional Features	One-Hand Fold, LATCH Compatible, Modular
+Seating Capacity	1
+Built-in Light	No
+Number of wheels	4
+Is Electric	No
+Is Car Seat Compatible	Yes
+Harness Type	3 Point
+Stroller Type	Standard Stroller
+Specification Met	JPMA Certified, Meets ASTM Standards
+Installation Type	Freestanding
+Maximum Weight Recommendation	35 Pounds
+Measurements
+Rear Facing Car Seat Maximum Height	32 Inches
+Front Wheel Diameter	6.5 Inches
+Back Wheel Diameter	7.5 Inches
+Car Seat Weight Capacity Maximum	35 Pounds
+Rear Facing Stroller Maximum Height	32 Inches
+Item Dimensions L x W x H	35.5"L x 25"W x 43.5"H
+Item Weight	26 Pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Graco-Element-Stroller-Reversible-SnugRide/dp/B07Y5VH28M/ref=sr_1_1?crid=9OU0OHLUP4Q2&amp;dib=eyJ2IjoiMSJ9.w0vy3YxcWWDq8GZlW_fjqNin5zPATWmM0XDstjgxLrA8SB4eo2kyT-v20JEwosjqBM70EbJxzsBiWfn299SWkKI7rtZkFc3BonzKfq6o8YGthTYEqMosm-4B328DSWvG9tE2uBWoqksOBNJDXQWuRhVCTh0cXIMTUf62hd3EREA-2qLqAmP-xAxQx7_ZbtWAfz6pVMHScp8Q8ZToIu6vvBjrOAOFjCq165Vx5oLX-4o.KHGY4xU0sXavVZoxotnOriIVj3DS3tE-iLXZeIyY008&amp;dib_tag=se&amp;keywords=Graco+Modes+Element+stroller&amp;qid=1727654550&amp;sprefix=graco+modes+element+stroller%2Caps%2C138&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Britax Travel System: includes B-Lively stroller (birth to 50lbs), B-Safe Gen2 infant car seat (4-35lbs &amp; up to 32”), car seat base &amp; Click &amp; Go adapters
+Fold it Fast: One-hand quick fold closes the stroller in seconds
+Smooth Ride: Lightweight design and all-wheel suspension for smooth, easy strolls
+Britax Safety: Sturdy build with a high-strength steel reinforced car seat base &amp; SafeCell crumple zone; protective shell with foam provides head-to-toe safety
+Install with Confidence: Install car seat in 3 easy steps with SafeCenter LATCH: connect lower anchors, pull straps to tighten, click carrier into base
+Product Dimensions	‎33 x 23 x 40 inches
+Item model number	‎S12776400
+Minimum weight recommendation	‎1.8 Kilograms
+Maximum weight recommendation	‎24.9 Kilograms
+Material Type	‎Alloy Steel
+Material Composition	‎100% Polyester
+Style	‎B-Lively Gen2
+Batteries required	‎No
+Harness type	‎5 Point
+Seat Width	‎11 Inches
+Item Weight	‎40.5 pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Britax-B-Lively-Cobblestone-SafeWash-Exclusive/dp/B08S16GKMG/ref=sr_1_1?crid=5EBIPJ95WE75&amp;dib=eyJ2IjoiMSJ9.DtOOfujMjiMKUU8XXIkUUEkx2IkSEcHtkeW1KoqW-0GF3xD-D-A9qCFEXfBPCZ-jX1e1wrfEtiMeH3p9dTwYl01vCQkzK3lkCnzE__vLe0xqM7eWhYlWdD4DXxas-9gwTqlAFpfBKdK-8V16cDk_QND6RA2QW-ZZSTiZzd9J2lYTDD_WRMyZLOZz_hYesBs6Qad-Ap6D_ltcE2B5sM_SXQWLMEnhJhGuoutHTLtb5aI.oRIaMkHNBq9XzkCGG7W6nj1BnWIukYdMFLaLWVHFPgA&amp;dib_tag=se&amp;keywords=Britax+B-Lively+stroller&amp;qid=1727654574&amp;sprefix=britax+b-lively+stroller%2Caps%2C141&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Pack up and go anywhere with MIXX™ next. On the move, it's a smooth ride you can maneuver with one hand and lay flat for newborn comfort. Packed away, its compact fold lets it fit into tighter spaces, so you can take more trips to more places.
+Four modes—travel with MIXX next paired with a bassinet or PIPA™ series infant carrier, or use the stroller seat facing you or facing the world.
+MIXX next can be used from birth to 50 lb.
+One-touch, rear wheel braking system is strong and responsive
+Easy to flip the seat and switch to bassinet or travel system modes
+Quick release five-point harness for secure strolling
+True-flat recline
+Five position recline: easily adjusts with one hand
+Adjustable calf support with integrated footrest promises a comfortable ride
+Super convenient, automatic quick-click fold lock and trolley function when folded
+Height adjustable push bar
+Smart and stately dark matte frame with chrome black wheels
+Luxe leatherette accented pushbar and armbar
+UPF 50+ canopy is water repellent and extendable and features a flip out eyeshade, ventilation panel and window
+Two compartment basket including secret zipper pocket
+Cell phone pocket on seat back
+Removable arm bar fits kids of all sizes
+Pairs perfectly with all Nuna PIPA™ series infant car seats
+Removable two-piece seat insert grows with baby for a perfect fit
+No-rethread harness for easy adjustments
+Tough, rubber foam filled tires are ready for any terrain
+GREENGUARD Gold Certified: Products that have achieved GREENGUARD Gold Certification are scientifically proven to meet some of the world's most rigorous third-party chemical emissions standards, and certified to not contribute to indoor air pollution or chemical exposure
+Recommended use: birth to 50 lbs
+Stroller dimensions  L 32.7 in  W 23.6 in  H 45.3 in  Stroller dimensions (folded)  L 27.5 in  W 23.6 in  H 19 in 
+Weight: 28.3 lbs (without arm bar and insert - arm bar and insert approx. 0.7 lb)</t>
+  </si>
+  <si>
+    <t>https://nunababy.com/usa/mixx-next-compact-stroller?color_ref=16867</t>
+  </si>
+  <si>
+    <t>All-terrain baby stroller with one-hand fold, back rest recline &amp; footrest adjustment, plus improved front bridge design​ creating an automatic self-stand position
+Bugaboo Fox 5 stroller ensures best-in-class maneuverability thanks to the extra-large puncture-proof wheels, full suspension and sleek but sturdy design
+The stroller features compact fold for convenient storage and transportation; compatible with most Bugaboo pushchair accessories (car seats, wheeled board, bassinet stand and more)
+Fox 5 stroller features a spacious, breezy bassinet, reclinable toddler seat, aerated 3D comfort mattress and an extendable sun canopy for added comfort and visibility
+This dual-facing Bugaboo Fox 5 baby stroller features durable and machine-washable fabrics, a comfortable, quick-click harness, and an ergonomically padded seat.
+Product Care Instructions	Machine Wash
+Tire Material	Durable Rubber or Plastic
+Frame Material Type	Alloy Steel
+Material Type	Alloy Steel
+Features &amp; Specs
+Additional Features	All-Terrain, One-Hand Fold, Puncture-Proof Wheels, Accessory Compatibility, Comfort &amp; Visibility, Machine-Washable Fabrics
+Is Car Seat Compatible	Yes
+Harness Type	5 Point
+Stroller Type	Standard Stroller
+Maximum Weight Recommendation	33 Pounds
+Measurements
+Rear Facing Car Seat Maximum Height	32 Inches
+Bassinet Weight	21 Pounds
+Item Dimensions L x W x H	36.61"L x 23.62"W x 41.34"H
+Frame Weight	42 Pounds
+Item Weight	42 Pounds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bugaboo-All-Terrain-Suspension-Maneuverability-Black-Misty/dp/B0BX4PVZ7C/ref=sr_1_1?crid=HE0L19NEQ6N9&amp;dib=eyJ2IjoiMSJ9.AtpEfg7rkXXkZmdu_qYmQ_wXO33w2duZDFYt_ICj6aaO7BY-oT7ykho_VLBx5v6dCEUznSY9HNbgMUvpEsvLYs-9rxjmuBfLedqhvExHW35gNOWX8Q2nDg00BZ7ck1mpAj_W8UWQbtP1Ej6_DmZv3LzuMQb5-SRZC1yk81Vzd7Jz_REmAuK27k0YmVE-DTmOa85qMtQnMFbo5WFvNM31YdgBYlBLL1Sn9QBIMQnUKAw.d-x7r6-GJ79lxtl63La7SmJ3erDwGDz-Q_IB4N02dbk&amp;dib_tag=se&amp;keywords=Bugaboo+Fox+2+stroller&amp;qid=1727654631&amp;sprefix=bugaboo+fox+2+stroller%2Caps%2C143&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Protects precious cargo, giving parents peace of mind during outings.</t>
+  </si>
+  <si>
+    <t>Ensures baby's contentment, leading to enjoyable family adventures.</t>
+  </si>
+  <si>
+    <t>Easy to transport, perfect for on-the-go families.</t>
+  </si>
+  <si>
+    <t>Effortless maneuverability for busy parents.</t>
+  </si>
+  <si>
+    <t>Eco-conscious choice for environmentally aware families.</t>
+  </si>
+  <si>
+    <t>Long-lasting investment that grows with your child.</t>
+  </si>
+  <si>
+    <t>Adapts to various terrains and situations, simplifying family life.</t>
+  </si>
+  <si>
+    <t>Complements parents' daily routines and activities seamlessly.</t>
+  </si>
+  <si>
+    <t>Convenient solution for carrying essentials during outings.</t>
+  </si>
+  <si>
+    <t>Shields delicate skin from harmful rays, promoting outdoor exploration.</t>
+  </si>
+  <si>
+    <t>Ergonomic comfort for parents of all heights.</t>
+  </si>
+  <si>
+    <t>Maintains hygiene effortlessly, saving time for busy parents.</t>
+  </si>
+  <si>
+    <t>Trusted quality and innovative features for discerning parents.</t>
+  </si>
+  <si>
+    <t>A stroller's versatility refers to its ability to adapt and transform to meet different needs as your baby grows and as you encounter various situations. The most fundamental aspect of versatility is the ability to adjust the seating position. Many modern strollers offer multiple recline angles, allowing your baby to lie flat for naps, sit upright for engagement with surroundings, or any position in between.
+Reversible seats are another key versatility feature, enabling your baby to face you for bonding and reassurance during younger months, then face forward to explore the world as they grow more curious. Some versatile strollers also convert from a single to double configuration, accommodating a second child when your family expands. This is typically achieved through additional attachment points for a second seat, standing board, or ride-along platform.
+Many versatile strollers are also travel system compatible, meaning they can accept an infant car seat with appropriate adapters. This feature is particularly valuable during the newborn stage, as it allows for seamless transitions from car to stroller without disturbing a sleeping baby. Some models even accept a bassinet attachment for optimal newborn comfort during longer walks.
+Terrain adaptability is another aspect of versatility, with features like adjustable suspension, convertible wheel configurations (such as the ability to lock front wheels for rough terrain), and varying tire types for different surfaces. Storage versatility is also important, with adjustable handlebar heights to accommodate different caregivers, expandable storage baskets, and the ability to fold compactly for car transport or storage.
+The most versatile strollers also offer seasonal adaptability through removable weather shields, expandable canopies, ventilation panels, and foot muffs that can be added or removed as needed. This allows the stroller to provide comfort in various weather conditions, from sunny summer days to cold winter outings.</t>
+  </si>
+  <si>
+    <t>The lifestyle feature of baby strollers refers to how well a stroller matches and supports a family's daily activities, routines, and specific needs. For instance, an urban family who frequently uses public transportation and navigates crowded sidewalks might prefer a compact, lightweight stroller that's easy to fold and carry up subway stairs. These strollers often have smaller wheels and narrow frames to maneuver through tight spaces.
+In contrast, suburban families who enjoy outdoor activities might choose an all-terrain stroller with larger, air-filled tires and robust suspension systems. These features make it comfortable to push the stroller over various surfaces like grass, gravel paths, or uneven sidewalks. Some models even come with adjustable handlebars to accommodate parents of different heights.
+For active families who enjoy jogging or running, specialized jogging strollers offer fixed front wheels for stability at higher speeds, hand brakes for better control on slopes, and ergonomic features that make it comfortable to push while maintaining proper running form. These strollers often include extra safety features like five-point harnesses and wrist straps.
+Parents who travel frequently might prioritize strollers that are approved for air travel, can fold small enough to fit in overhead compartments, or come with carrying bags. Some travel-oriented strollers can even be wheeled like luggage when folded.
+For families with multiple children or those planning to expand, convertible strollers can adapt from single to double configurations. These modular systems might allow for adding a second seat, a standing platform for an older child, or attachment points for infant car seats.
+The lifestyle feature also encompasses storage needs – some families require large underneath baskets for shopping, while others prefer minimal storage to keep the stroller lightweight. Additional lifestyle considerations include whether the stroller needs to fit in a small apartment, a car trunk, or needs to be durable enough for daily use on rough terrain.</t>
+  </si>
+  <si>
+    <t>Storage space is one of the most important practical features of a baby stroller, designed to accommodate both everyday essentials and shopping items. The main storage compartment is typically the undercarriage basket, located beneath the seat. This basket's capacity can vary significantly between models, with some luxury strollers offering up to 30 pounds of storage space. The accessibility of this basket is crucial - some designs allow easy access from all sides, while others may be partially blocked by support bars or seat recline mechanisms.
+Beyond the main basket, most strollers include additional storage options. Parent organizers or console trays near the handlebar provide quick access to items like phones, keys, drinks, and small necessities. Many strollers also feature mesh pockets on the seat back or canopy, perfect for lightweight items like pacifiers, small toys, or burp cloths. Some models include zippered compartments within these pockets for more secure storage.
+For parents who need extra storage, attachable stroller hooks can be used to hang diaper bags or shopping bags, though it's important to follow weight guidelines to maintain stability. Travel systems often incorporate special storage features like car seat adapters that don't compromise the main storage space.
+The storage design also affects the stroller's folding capability. Premium models often maintain storage accessibility even when folded, while others might require emptying the storage areas before collapsing. Weather protection is another consideration, with some strollers featuring water-resistant storage compartments or included rain covers to protect stored items.
+When evaluating storage space, consider your typical outings and storage needs. Urban parents might prioritize compact storage that can handle quick shopping trips, while those who take longer excursions might need more extensive storage options for supplies, picnic items, or beach gear.</t>
+  </si>
+  <si>
+    <t>UV protection in baby strollers is an important safety feature designed to shield infants from harmful ultraviolet radiation. Most modern strollers incorporate UV-protective canopies or sunshades made from specially treated fabrics that block both UVA and UVB rays. These fabrics typically carry a UPF (Ultraviolet Protection Factor) rating, similar to SPF in sunscreen, indicating how effectively they block UV radiation. For example, a UPF 50+ fabric blocks 98% or more of UV rays.
+The effectiveness of UV protection depends on several factors, including the canopy's coverage area, material quality, and design. Extended canopies that can be adjusted to different positions offer better protection as the sun moves throughout the day. Some premium strollers feature expandable sunshades with additional pop-out sections for enhanced coverage. The fabric's color can also play a role, with darker colors generally providing better UV protection than lighter ones.
+Many stroller manufacturers use specialized synthetic materials like polyester treated with UV-inhibiting chemicals or natural fabrics with tight weaves to achieve high UPF ratings. Some also incorporate ventilation panels or mesh windows with UV protection to maintain airflow while keeping the baby protected. It's worth noting that UV protection can diminish over time due to wear and exposure, so regular inspection of the canopy's condition is important.
+Beyond the built-in UV protection, many strollers can be supplemented with additional UV-protective accessories like clip-on sunshades or UV-filtering stroller covers for extra protection during extended outdoor activities. These features are particularly important since babies' sensitive skin is more susceptible to sun damage than adult skin, and early sun protection helps prevent long-term skin damage.</t>
+  </si>
+  <si>
+    <t>The adjustable handlebar feature on baby strollers is a thoughtfully designed element that allows caregivers of different heights to push the stroller comfortably. Most adjustable handlebars work through a telescoping mechanism or pivot point that enables height and angle modifications.
+The most common design uses a central button or lever located on or near the handlebar. When pressed, this releases an internal locking mechanism, allowing the handlebar to move up, down, or tilt to different positions. Once the desired position is reached, releasing the button re-engages the lock, securing the handlebar firmly in place.
+This adjustability typically offers a range of positions, usually spanning about 10-12 inches from lowest to highest setting. The feature is particularly valuable for families where multiple caregivers of varying heights share stroller duties – from a petite grandparent to a tall parent, everyone can maintain proper posture while pushing. This helps prevent back strain and ensures comfortable control of the stroller.
+Many premium stroller models incorporate additional ergonomic elements into their adjustable handlebars, such as foam or leatherette grips that provide tactile comfort and good grip even in wet conditions. The mechanisms are typically designed to withstand thousands of adjustments while maintaining stability and safety.
+From a safety perspective, quality adjustable handlebars include multiple locking points and audible clicks or visual indicators to confirm secure positioning. This prevents accidental height changes during use and ensures the handlebar remains stable even when used to lift the front wheels over curbs or obstacles.</t>
+  </si>
+  <si>
+    <t>When it comes to the ease of cleaning baby strollers, there are several key aspects to consider. The most important feature is typically the fabric used for the seat and canopy. Many modern strollers use machine-washable fabrics that can be easily removed via zippers or snap fasteners. These fabrics often have special treatments that make them stain-resistant and water-repellent, allowing parents to quickly wipe away spills before they set in.
+The seat padding design also plays a crucial role. Well-designed strollers have minimal seams and crevices where crumbs and dirt can accumulate. Some models feature one-piece seat designs that prevent food and debris from falling into hard-to-reach spaces. The harness system should be easily removable for thorough cleaning, with straps that can be wiped down or machine washed.
+Frame cleaning is another important consideration. Premium strollers often have smooth, non-textured frames with rounded corners that can be quickly wiped clean. The wheel assembly should be designed to prevent mud and debris from becoming trapped, with removable wheels that can be hosed down when necessary.
+Storage baskets and accessories should also be designed with cleaning in mind. Many strollers feature mesh or solid fabric baskets that can be wiped clean or removed for washing. Cup holders and snack trays often have smooth surfaces without deep grooves, making them easy to clean with a damp cloth.
+Some advanced strollers even incorporate antimicrobial materials or treatments that help prevent the growth of bacteria and mold, reducing the frequency of deep cleaning needed. Additionally, quick-dry materials help prevent moisture buildup after cleaning, which is particularly important for maintaining hygiene in areas that come into direct contact with the baby.</t>
+  </si>
+  <si>
+    <t>The top brands in baby strollers typically offer different features and benefits that cater to various parenting needs and lifestyles. UPPAbaby is known for their versatile Vista and Cruz models, which provide excellent maneuverability and can convert from single to double strollers. Their high-quality materials and construction justify their premium pricing.
+Bugaboo is another premium brand recognized for their innovative designs and durability. Their Bugaboo Fox and Lynx models feature advanced suspension systems and comfortable seating positions. The brand is particularly popular among urban parents due to their strollers' compact fold and ability to handle city terrain.
+Baby Jogger makes the popular City Mini and City Select series, offering excellent value with features like one-handed folding and adaptable configurations. These strollers are known for being lightweight while maintaining durability.
+Graco represents the more affordable end of the market without compromising on essential features. Their travel systems, which include both a stroller and car seat, are particularly popular among first-time parents seeking practical solutions at reasonable prices.
+Nuna has gained prominence for their eco-friendly materials and sleek European design aesthetic. Their MIXX and TRIV models are known for combining style with functionality, featuring materials free from harmful chemicals and advanced suspension systems.
+Thule, traditionally known for car racks, has successfully entered the stroller market with their urban and jogging models. Their strollers are particularly praised for their durability and suitability for active lifestyles.
+For parents focused on jogging or outdoor activities, BOB Revolution strollers are considered top-tier. They feature robust suspension systems, large air-filled tires, and excellent stability at higher speeds.</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Safety in the context of a stroller encompasses several key aspects that protect the child and provide peace of mind for caregivers:
+Core Safety Features:
+A secure, properly functioning 5-point harness system that keeps the child firmly in place across shoulders, hips, and between legs
+A reliable braking system that locks wheels when parked
+A stable frame design that prevents tipping, with good weight distribution
+Proper wheel locks and suspension for smooth navigation over different surfaces
+Protection Elements:
+Sturdy construction with no pinch points or sharp edges
+Safe materials free from harmful chemicals and meeting safety standards
+An adjustable canopy for sun and weather protection
+Side impact protection and reinforced frame in case of collisions
+Usage Safety:
+Weight and age limits clearly specified and followed
+Proper assembly and regular maintenance of all parts
+Secure attachment points for car seat adapters if applicable
+Clear locking mechanisms that indicate when parts are properly engaged
+Certifications and Standards:
+Compliance with current safety regulations like ASTM F833 in the US
+Regular testing for stability, durability, and potential hazards
+Up-to-date design that incorporates latest safety innovations</t>
+  </si>
+  <si>
+    <t>The comfort features in baby strollers are designed to ensure both the baby's well-being and the parent's convenience during use. At the core of baby comfort is the seat design, which typically includes plush padding and ergonomic support to cradle the baby's developing spine and neck. Many modern strollers offer multiple recline positions, allowing babies to sit upright when alert or lie nearly flat for naps.
+Suspension systems play a crucial role in comfort, with many premium strollers featuring all-wheel suspension that absorbs shocks from uneven terrain, reducing jolts and vibrations that could disturb the baby. The wheels themselves contribute to smoothness, with air-filled tires providing better cushioning than solid plastic ones.
+Weather protection is another essential comfort aspect. Adjustable canopies shield babies from sun, wind, and light rain. Many include UV protection and ventilation panels to maintain airflow while still protecting from the elements. Some models feature extendable canopies that can cover most of the seating area.
+The harness system, while primarily for safety, also contributes to comfort through padded straps and adjustable points that prevent pinching or chafing. Additional comfort features often include adjustable footrests, removable arm bars padded with soft materials, and breathable fabrics that help regulate temperature.
+For winter use, many strollers accommodate warm weather accessories like foot muffs or weather shields. In summer, mesh panels or removable seat liners help keep babies cool. Some premium models even include adjustable handlebar heights and customizable suspension settings to ensure a comfortable experience for both parent and child across different terrains and conditions.</t>
+  </si>
+  <si>
+    <t>The portability of baby strollers refers to how easily they can be transported, stored, and maneuvered when not in active use with a child. A stroller's portability is determined by several key design features working together.
+The folding mechanism is central to portability. Most modern strollers use a one-hand or two-hand folding system that collapses the frame into a compact configuration. Some premium models feature auto-folding technology activated by a button press. The most portable designs fold into a self-standing position, allowing the stroller to remain upright when stored.
+Weight plays a crucial role in portability. Lightweight strollers, often called umbrella strollers, typically weigh between 10-15 pounds and are ideal for travel and frequent transport. Full-sized strollers generally weigh 20-30 pounds, making them less portable but more feature-rich.
+Dimensions when folded impact storage and transport capabilities. Many portable strollers are designed to meet airline carry-on requirements and can fit in overhead compartments. Some models fold small enough to fit in a shopping basket or car trunk without taking up excessive space.
+Carrying features enhance portability. These might include shoulder straps, carrying handles, or travel bags designed specifically for the stroller model. Some strollers come with wheel covers to prevent dirt transfer when transported.
+The frame material affects both weight and durability. Aluminum frames offer an excellent balance of strength and lightness, while steel frames are heavier but more robust. Some ultra-portable models use specialized lightweight composites, though these typically come at a premium price point.
+Quick-release wheels are another important portability feature, allowing users to remove the wheels to achieve an even more compact fold. This is particularly useful for air travel or storing the stroller in tight spaces.</t>
+  </si>
+  <si>
+    <t>A lightweight stroller is a streamlined, portable baby transport solution that typically weighs between 10-20 pounds, making it significantly lighter than traditional full-featured strollers which can weigh 25-35 pounds or more. The lightweight design is achieved through several key engineering choices: using aluminum or other light metals for the frame instead of steel, incorporating compact folding mechanisms, and minimizing bulky features while maintaining essential functionality.
+The primary advantages of lightweight strollers include easy transportation, especially when lifting the stroller in and out of cars or carrying it up stairs. They're particularly valuable for urban parents who frequently use public transportation or travel, as well as for caregivers who may have physical limitations or need to manage multiple children. Many lightweight models can be folded with one hand and are compact enough to fit in airplane overhead compartments or small car trunks.
+However, this weight reduction often comes with trade-offs. Lightweight strollers typically have smaller wheels which may not handle rough terrain as well as their heavier counterparts. They usually have less storage space underneath, simpler sun canopies, and may not recline as fully as standard strollers. Some models might also have lower weight limits for children.
+Modern lightweight strollers have evolved to include more features while maintaining their portability. Many now offer decent suspension systems, adjustable handlebars, and adequate sun protection. Some even accommodate car seat attachments, making them suitable from birth through toddlerhood. The price range varies significantly, from basic models around $100 to premium lightweight strollers that can cost $500 or more, reflecting differences in material quality, design sophistication, and included features.
+For parents trying to decide if a lightweight stroller is right for them, the key consideration should be their lifestyle and specific needs. Those who frequently travel, live in walk-up apartments, or need a secondary stroller for quick trips often find lightweight models invaluable, while parents who frequently go off-road or need extensive storage might prefer a more robust traditional stroller.</t>
+  </si>
+  <si>
+    <t>Sustainable materials in baby strollers represent a growing trend in juvenile product manufacturing that prioritizes environmental responsibility while maintaining safety and durability. These materials typically fall into several categories: recycled materials, renewable resources, and biodegradable components.
+Common sustainable materials used in modern stroller manufacturing include recycled polyester made from post-consumer plastic bottles, which is often used in canopies and seat fabrics. This material provides excellent durability and weather resistance while reducing plastic waste. Some manufacturers also incorporate recycled aluminum and steel in frame construction, which not only reduces mining impact but also maintains the lightweight yet sturdy characteristics essential for stroller safety.
+Natural and renewable materials are another key component. Organic cotton is frequently used in seat padding and harness covers, offering both sustainability and comfort for the baby. Bamboo fabric has gained popularity for its naturally antimicrobial properties and quick-growing renewable nature. Some premium manufacturers have begun incorporating cork in handle grips and detail elements, as it's both sustainable and naturally moisture-resistant.
+Biodegradable materials are emerging in non-structural components. For instance, some manufacturers use bio-based plastics derived from corn or sugarcane for small parts like cup holders or snack trays. These materials can break down more easily at the end of the product's life cycle while maintaining necessary durability during use.
+The manufacturing process for sustainable strollers often emphasizes minimal waste and energy efficiency. Many companies now use water-based adhesives instead of traditional solvent-based ones, and some have implemented closed-loop manufacturing systems that recycle water and materials within the factory.
+It's worth noting that sustainable materials often come with specific care requirements to maintain their longevity. For example, organic cotton may require more gentle washing cycles, and bio-based plastics might need protection from extreme temperatures. However, most manufacturers provide detailed care instructions to help parents maintain these eco-friendly products effectively.
+The cost implications of sustainable materials vary. While these strollers often carry a higher initial price tag, many parents find them to be a worthwhile investment, particularly if they plan to use the stroller for multiple children or resell it. The durability of many sustainable materials can actually lead to a longer product lifespan, potentially offering better value over time.
+Certification standards play an important role in verifying sustainability claims. Look for recognized certifications such as Global Organic Textile Standard (GOTS) for organic materials, or Oeko-Tex Standard 100 for textile safety. These certifications help ensure that sustainable materials meet both environmental and safety standards.
+When considering a sustainable stroller, it's important to look at the entire lifecycle of the product, including its potential for recycling or biodegradation at the end of its use. Many manufacturers now offer take-back programs or provide guidance on responsible disposal of different components.</t>
+  </si>
+  <si>
+    <t>Durability in baby strollers refers to their ability to withstand regular use, maintain structural integrity, and remain functional over time. Several key aspects contribute to a stroller's durability.
+The frame material forms the foundation of stroller durability. Aluminum frames offer an excellent balance of strength and lightweight properties, while steel frames provide maximum strength but add weight. High-grade plastics are sometimes used for certain components but generally aren't the primary frame material in durable strollers.
+Joint construction plays a crucial role in long-term durability. Quality strollers feature reinforced joints with metal-on-metal connections rather than plastic components that can wear down quickly. The folding mechanisms, in particular, need robust construction as they endure repeated stress during daily use.
+Wheel construction significantly impacts durability. Air-filled tires offer better shock absorption but require maintenance and can puncture, while foam-filled or solid rubber tires are more durable for everyday use. The wheel mounting system should include quality bearings and secure attachments to prevent wobbling or failure over time.
+Fabric durability involves both the material quality and its attachment to the frame. Better strollers use heavy-duty, water-resistant fabrics with strong stitching and reliable attachment points. The fabric should resist fading from sun exposure and maintain its shape after repeated washing.
+Environmental resistance is another crucial durability factor. Quality strollers should withstand various weather conditions, including rain, sun exposure, and temperature changes. Rust-resistant treatments on metal parts and UV-protective coatings on fabrics help maintain longevity.
+The harness system needs particular attention to durability since it's crucial for safety. Strong webbing material, secure stitching, and robust buckles ensure the restraint system remains reliable throughout the stroller's life.
+Weight capacity testing is a key indicator of durability. Good strollers are tested well beyond their stated weight limits to ensure structural integrity. This includes both the seat weight capacity and storage basket durability.</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-      </rPr>
       <t xml:space="preserve">Advanced suspension with XL wheels; Light yet sturdy (12.2 kg/26.9 lbs with seat); Fold, adjust, and maneuver with one hand; Reversible, reclinable, and extendable seat; Breezy bassinet with aerated mattress; Large extendable UPF 50+ sun canopy; Adjustable five-point safety harness; Underseat basket holds 10 kg/22 lbs; One-piece self-standing fold or two-piece compact fold; Car seat compatible (adapters needed); Front wheels: 8.5 in - Rear wheels: /12 in; handlebar height 36.2 - 42.5 in; seat Width: 39 cm - Length: 50 cm (extendable by 10 cm/3.9 in with the canopy and footrest); </t>
     </r>
     <r>
@@ -1581,1636 +3206,6 @@
       </rPr>
       <t>17.3 x 23.6 x 35.4 in; Made with bio-based material, which reduces CO2 emissions by 15% compared to fossil-based plastic; Built to last with premium-quality materials and PFAS-free water-repellent fabric coating; Handlebar grips are made of 100% vegetarian leather; Modular design supports repairs and refurbishment; Shipped from factory to warehouse with biofuels; With seat: 12.2 kg/26.9 lbs. With bassinet: 13 kg/28.6 lbs; From birth to approx. 4 years old (max. 50 lbs); Comfort all-terrain stroller; 100% polyester; 100% PU leather-look; 100% polyester</t>
     </r>
-  </si>
-  <si>
-    <t>https://www.bugaboo.com/us-en/bugaboo-fox-5-ultimate-all-terrain-stroller/</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSVzjQFoMsCsJcGj7a2zamMqH8VVcdHjrpyfg&amp;s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleek and lightweight enough to be pushed with one hand, the Nuna MIXX™ Next Stroller is cleverly designed with all-wheel suspension and easy maneuverability for a smooth and comfortable ride. Featuring a plush seat that fully reclines, this durable stroller will keep your little one cozy and undisturbed when you’re on the go. Plus, the full-coverage UPF 50+ canopy with a peekaboo window helps shade baby while you keep an eye on them, and the large storage basket lends ample space for all their essentials.
-DETAILS THAT MATTER
-Four modes — PIPA™ series infant car seat, bassinet, seat parent facing or world facing.
-Ring adapter included for easy on/off one-click travel system.
-Rear-wheel Free Flex suspension™ and front-wheel progressive suspension technology.
-Compact fold-away axle™ for a more compact fold. One-piece fuss-free, compact fold no matter which way the seat is facing. Stands when folded.
-All-season seat keeps baby cozy in winter and unsnaps to mesh in summer.
-Luxe leatherette accented pushbar and armbar.
-UPF 50+ canopy is water repellent, extendable and features a flip out eyeshade, ventilation panel and window.
-One-hand 5-position recline for on-the-go relaxing and True flat recline seat.
-Removable two-piece bamboo blend fabric seat insert grows with baby.
-One-touch brake and front swivel wheel locks.
-No re-thread harness for easy adjustments.
-Adjustable calf support and height adjustable pushbar.
-Two compartment basket including secret zipper pocket. Cell phone pocket on seat back.
-Tough, rubber foam filled tires are ready for any terrain.
-GREENGUARD Gold Certified to contribute to healthier indoor air, keeping you and your family safer.
-KEY PRODUCT POINTS
-All color options include the MagneTech Secure Snap™ self-guiding buckle. 
-Recommended for use from birth up to 50 pounds.
-Machine washable seat pad.
-Compatible with stroller are the following accessories (all sold separately): Mixx and Demi grow cup holder, Mixx rain cover, Mixx series bassinet, all Pipa Infant Series car seats, Mixx series child tray, wheeled travel bag, extra Mixx series ring adapter.
-Reddot Product Design winner for 2020.
-Imported.
-THIS SET INCLUDES
-Set includes: Frame, wheels, car seat ring adapter, canopy, arm bar, calf support, shoulder harness, canopy clips, insert and storage basket.
-DIMENSIONS
-Overall (open): 23.6" wide x 32.7" long x 45.3" high
-Overall (folded): 23.6" wide x 27.5" long x 19" high
-Seat Depth: 11"
-Seat Thickness: 0.5"
-Harness Straps: 18" long
-Handle: 18" long
-Front Wheel: 7.5" diameter
-Back Wheel: 11.5" diameter
-Child Footrest: 13" wide x 6" high
-Distance Between Wheels (front to back): 30"
-Distance Between Wheels (front side to side): 18.5"
-Distance Between Wheels (rear side to side): 23"
-Storage Basket: 14.5" wide x 8" long x 21" high
-Hood: 17" wide x 17-28" long
-Stroller Weight:  28.3 lbs without arm bar and insert (arm bar and insert approx. 0.7 lbs)
-Basket Weight Capacity: 10 lbs
-Stroller Weight Capacity: Birth to 50 lbs
-CARE
-Frame
-Clean the frame, plastic parts, and any non-removable fabric with a damp cloth.
-Do not use abrasives, silicon lubricants or bleach.
-Do not store your stroller in a damp place.
-Wipe with a soft, absorbent cloth after using it in rainy weather and before storing away.
-Fabric
-Wash removable fabrics in cold water, delicate cycle.
-Do not bleach.
-Do not tumble dry.
-Do not iron.
-Do not dry clean.
-</t>
-  </si>
-  <si>
-    <t>https://nunababy.com/usa/catalogsearch/result/?q=Nuna+MIXX+Next</t>
-  </si>
-  <si>
-    <t>https://n.nordstrommedia.com/id/sr3/7fca3821-fd3e-4d32-af65-a647d4f83bc4.jpeg?trim=color&amp;w=350&amp;h=536</t>
-  </si>
-  <si>
-    <t>Highlights:
-One-pull harness 3-in-1 Travel System One-hand recline and fold Individual design
-Individual Design
-Customize your New Generation Priam according to your taste. Match your frame of choice with a wide variety of seat packs and change the look of your stroller whenever you want. The lightweight aluminum frames come in four different variations with individual finishes and selected bumper bar and handlebar colors.
-Tech Specs:
-From birth (with use of Priam Lux Carry Cot or infant car seat) to approx. 4 years (with the use of a Priam Seat Pack) *All attachments sold separately Weight: Max. child weight 55 lbs. (front-facing or parent-facing)
-Functions:
-XXL sun canopy All-wheel suspension Reversible seat unit Extra large shopping basket Adjustable legrest Adjustable handlebar Removable bumper bar Lockable swivel wheels
-Products to combine:
-New Generation Priam Lux Carry Cot New Generation Priam Seat Pack Cloud Q Kid Board Snack Tray Parasol
-Length	32.6 - 36.2 in
-Width	23.6 in
-Height	39.1 - 42.9 in
-Weight	28.4 lbs
-The unique one-pull harness helps you secure your child in the stroller in seconds, with just one hand. Fitting is easy and more comfortable for your growing child.
-One hand is all you need to recline the Priam seat to a near-flat position, or to fold the stroller for easy storage on the go – keeping your other hand free to hold onto your little one. 
-One frame; three travel options. The Priam frame is compatible with a stroller seat unit, an infant car seat, and a Lux Carry Cot.</t>
-  </si>
-  <si>
-    <t>https://www.cybex-online.com/en/us/p/Set_ST_PL_Priam_Travel_System_3in1_US.html</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQaWrTMWj8S5jACoR3jxznE88z2Pwj_-X5zwg&amp;s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polyester
-Imported
-Customizable Stroller: Customize your ride with 4 different modes via accessories such as infant car seat, pram, glider board, parent console and child tray.
-Easy Handling: The adjustable handlebar &amp; hand-operated parking brake ensure a comfortable steering and control, always within arm’s reach.
-Comfort First: Near-flat reclining seats and adjustable calf supports for your children’s comfort.
-One-step Quick-fold: Patented technology for easy transportation and storage.
-Compatibility: Compatible with Britax, Cybex, Graco, and Maxi Cosi infant car seats.
-High Weight Limit: Supports children up to 50 lb per seat and conforms to Disney size requirements.
-UV 50 Canopies: Canopies equipped with peekaboo windows provide shade and visibility.
-Full-coverage UV 50+ canopies with 2 magnetic peekaboo windows keep your children shaded while allowing you to easily check in
-Product Care Instructions	Machine Wash
-Canopy Material	Polyester
-Tire Material	Rubber
-Seat Material	Polyester
-Fabric Type	Polyester
-Frame Material Type	Metal
-Material Type	Rubber,Polyester,Metal
-Additional Features	Convertible, Hand Operated Brakes, Canopy, Folds for Easy Transport and Storage, Storage Area, Adjustable Handle
-Seating Capacity	2
-Number of wheels	4
-Is Car Seat Compatible	No
-Number of Cup Holders	2
-Harness Type	5 Point
-Stroller Type	Standard Stroller
-Front Wheel Diameter	8.5 Inches
-Back Wheel Diameter	12 Inches
-Rear Facing Stroller Maximum Height	40 Inches
-Item Dimensions L x W x H	40.7"L x 29.25"W x 42.25"H
-Frame Weight	16.55 Kilograms
-Item Weight	36.5 Pounds
-</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Baby-Jogger-City-Double-Stroller/dp/B07YGVFZFH/ref=sr_1_1?crid=1QG7RP23T6YCZ&amp;dib=eyJ2IjoiMSJ9.skY0-5hHDTRMQk2NblHlmCCepuC5e-utyBioCl6RwsCteHRCSnpS6D6GGOqnzMi5CEyRDrW5FuwngAH3TCMuFJIeCrqqWGdW4EB8D1rpkt-Cn6u8Yd4u803M4MqERuhHPVaoYN2_F9pmo0Vlh4Gp4SuRE7Ct4bAt6GS5vGKvRsCmz1iwtpY3kkqvYraD06nA_7ZqmiyZBd9Z79vB9zZvkIbzcbyl9W6OgYayeb2nVhRhLGt0LJhAVjPFudylNDSbKVtsRyyaDELMJI-zSZWfMh9L16trgUiaRbnj6VZ5bN4.DoNNIVsH0rCqFY_VAT5eRkdgKLRs78pNne4hKpsrXVA&amp;dib_tag=se&amp;keywords=Baby+Jogger+City+Mini+GT2&amp;qid=1727480107&amp;s=baby-products&amp;sprefix=baby+jogger+city+mini+gt2%2Cbaby-products%2C127&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS46aE4HECtEpVbA3omQM3yjtjJnrRUULmUEg&amp;s</t>
-  </si>
-  <si>
-    <t>Stroller Harness Slot Heights
-9.5/12.5/15
-Stroller Buckle Strap Depths
-4
-Maximum Unfolded Dimensions
-33"L x 23"W x 40"H
-Folded Dimensions, Wheels On
-29"L x 23"W x 12"H
-Cruise smooth with the B-Lively Stroller, featuring an all-wheel suspension system and lightweight frame. Designed with multi-tasking parents in mind, the 3-wheel configuration offers smooth maneuverability, and one-hand quick fold closes the stroller in seconds. The large UPF 50+ canopy with breathable ventilation window provides protection for your child on sunny or rainy days, and has a large zipper pocket on the back. The quiet, peek-a-boo window lets you check in on your little one without disrupting naptime. A footrest and near-flat infinite recline is perfect for laying back or seeing the world. Moving from car-to-stroller is easy when you click in a Britax infant car seat for a custom travel system. Before heading out, store your baby gear in the extra-large stroller storage basket with convenient front access.</t>
-  </si>
-  <si>
-    <t>https://us.britax.com/shop/strollers/britax-b-lively-lightweight-stroller</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81JqbzDio1L.jpg</t>
-  </si>
-  <si>
-    <t>Polyester
-Imported
-Versatile 3-in-1 Stroller: Transforms from an Infant Car Seat Carrier to Infant Pramette and then to Toddler Stroller
-Inclusive Travel System: Comes with the Graco SnugRide 35 Lite Elite Infant Car Seat for infants from 4-35 lb and up to 32
-Slide2Me Adjustable Seat: Modify the height for closer face-to-face interaction
-Reversible Seat: Can face parent or the world for an enjoyable baby ride
-Durable Lightweight Frame: Provides a smooth ride with its lightweight aluminum make up
-Expandable Storage Basket: Allows more room for baby and parent essentials
-Effortless Operation: One-step, self-standing fold for optimum convenience.
-One-step self-standing fold for easy storage
-Product Care Instructions	Air Dry, Machine Wash, Spot or Wipe Clean
-Canopy Material	Fabric
-Tire Material	Plastic
-Seat Material	polyester
-Fabric Type	Polyester
-Frame Material Type	Aluminum
-Material Type	Aluminum
-Additional Features	Snack Tray,Canopy, Storage Area, Modular, LATCH Compatible, Folds for Easy Transport and Storage, Pram Mode, One-Hand Fold
-Seating Capacity	1.0
-Built-in Light	No
-Number of wheels	4
-Is Electric	No
-Is Car Seat Compatible	Yes
-Number of Cup Holders	2
-Harness Type	3 Point
-Stroller Type	Standard Stroller
-Rear Facing Maximum Weight	35 Pounds
-Installation Type	Freestanding
-Maximum Weight Recommendation	20 Kilograms
-Front Wheel Diameter	6.5 Inches
-Back Wheel Diameter	7.5 Inches
-Car Seat Weight Capacity Maximum	35 Pounds
-Item Dimensions L x W x H	35.5"L x 25.75"W x 47"H
-Item Weight	30 Pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Graco-Stroller-Adjustable-Reversible-Lightweight/dp/B07Y5X7N27/ref=sr_1_2?crid=460HVBLAG45A&amp;dib=eyJ2IjoiMSJ9.CPqbMR3scmwq103LG0KbgRzd4qIHrxL5pWnBdJ61Q_OQXH80o2GDMU_xZ0v_kerHBx3Wb7LVGLf3SIyQfrzPgSYcUt_ChV6lvKXpyAc3ZhkXrYxiQzRph1wkIW-iUTwcc5htkygKSsXwBYWiKS2MKFL4de6F2pKJfW7y2vw1jChCg32k835sIx3faaIakvqkBAMFJVvJRdc2Q0zN2fyh7Bsud2JVW0oTP0fUd0WE96oIlMAfmXbWg2oqt6TYDL5wn0cacH91OGY2tK7fHV5HrkZLoqsf7ycwT7pySV1yd38.6P7ti7L8wumB0YQ8Gs-ngY_JLYOJJJIWxH9C-ac9YCo&amp;dib_tag=se&amp;keywords=Graco+Modes+Nest&amp;qid=1727480154&amp;s=baby-products&amp;sprefix=graco+modes+nest%2Cbaby-products%2C127&amp;sr=1-2</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81x6qxxGWFL._AC_UF894,1000_QL80_.jpg</t>
-  </si>
-  <si>
-    <t>Polyester
-The Bravo Stroller is designed for children up to 50 lbs. The KeyFit 30 Infant Car Seat is designed for infants between 4-30 lbs. and up to 30" tall
-SEAMLESS TRANSITIONS – A removable seat and canopy transform the stroller to a lightweight infant car seat carrier and offers secure, click-in attachment via the child tray – no adapter needed
-EASY TO USE | EASY TO STORE – With a compact, one-hand, smart fold design, the stroller stands independently without the push handle touching the ground. Large wheels with treaded tires and all-wheel suspension help navigate uneven terrain
-INFANT CAR SEAT – Easy to install, the KeyFit 30 features premium LATCH connectors, a SuperCinch Force Multiplying Tightener, EPS energy-absorbing foam and removable head and body support, ideal for a newborn car seat
-COMFORT AND CONVENIENCE – The Bravo Stroller features a one-hand, multi-position reclining seat, child tray with cup holders and large storage basket. A UPF 50+ canopy with peek-a-boo mesh window provides privacy and protection from the elements
-CAR SEAT AND STROLLER COMBO – The Chicco Bravo Quick-Fold Stroller paired with the Chicco KeyFit 30 Infant Car Seat creates a baby travel system
-Product Care Instructions	Easy to clean
-Canopy Material	Polyester
-Tire Material	Flat-Free, EVA
-Seat Material	Polyester
-Fabric Type	Polyester
-Frame Material Type	Plastic, Metal
-Material Type	Polyester, Foam
-Additional Features	Infant Car Seat Compatible
-Seating Capacity	1
-Built-in Light	No
-Is Electric	No
-Is Car Seat Compatible	Yes
-Number of Cup Holders	2
-Harness Feature	adjustable straps, padded shoulders
-Harness Type	5 Point
-Stroller Type	Standard Stroller
-pecification Met	JPMA Certified, Meets ASTM Standards
-Installation Type	LATCH or Seat Belt
-Maximum Weight Recommendation	50 Pounds
-Rear Facing Car Seat Maximum Height	3E+1 Inches
-Front Wheel Diameter	7.5 Inches
-Back Wheel Diameter	10.3 Inches
-Car Seat Weight Capacity Maximum	30 Pounds
-Rear Facing Stroller Maximum Height	3E+1 Inches
-Car Seat Weight	9.6 Pounds
-Item Dimensions L x W x H	35.2"L x 22.8"W x 42.7"H
-Item Weight	24.9 Pounds
-Folded Size	15x22.8x36.8 inches</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Chicco-Quick-Fold-Stroller-Top-Rated-Brooklyn/dp/B08VS8D513/ref=sr_1_1?crid=11UUXOK072S6O&amp;dib=eyJ2IjoiMSJ9.HrwXdEMTPEIldA3SoL9tWzEffK-wvMoA9E0RG_Z8ZaIVVjiKPMTmoRYaPU5wffZfWzAGRK3ugNU4TnSSj88OPqA3f6ttwffwcHvy59hrPtmDxu3Ld_MoJVudb1DwUEPa89mz8aSbuD5TCpOAIMIeVTFagnBXUMl050ro8wmiMwT8Tx775uUXGvlLvXDO6NgZOL8qpVD0bd8eUq-8QElDwQfPd6UnJQ-5ZDytxIyw1vI.wmqR-ZRvJVwMOa9Mv75FMEyt1dKbBlEnTnoL6pFKPXo&amp;dib_tag=se&amp;keywords=Chicco+Bravo+Trio&amp;qid=1727652843&amp;sprefix=%2Caps%2C281&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcShcWH7THP3WA-9NqGv9H_I-Q_0LtUIYLK1dQ&amp;s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A lightweight, all-terrain stroller perfect for jogging or strolling through town
-Voted Best Jogging Stroller of 2023 by Women’s Health
-Swivel front wheel locks into place for jogging and running
-Large 16" rear wheels with suspension provide an ultra-smooth ride
-One-handed, compact fold makes storage and transport easy
-Reclining seat is comfortable and safe with a padded 5-point harness
-Ergonomic, adjustable handlebar has an integrated twist-hand brake
-Large storage basket with zip-top cover
-Use from birth with a variety of accessories; like car seat adapters (sold separately)
-Product weight: 25.3 lbs; Max child weight: 49 lb; Max stroller weight capacity: 75 lb
-Product Care Instructions	Hand Wash Only
-Canopy Material	Polyester or Nylon
-Tire Material	EVA
-Seat Material	Polyester or Nylon
-Frame Material Type	Metal, Plastic
-Material Type	Aluminum
-Additional Features	Canopy, Folds for Easy Transport and Storage, Storage Area, Ultra-Compact
-Seating Capacity	1
-Built-in Light	No
-Number of wheels	3
-Is Electric	No
-Is Car Seat Compatible	No
-Harness Feature	Adjustable, Padded
-Harness Type	5 Point
-Stroller Type	Jogging Stroller
-Maximum Weight Recommendation	75 Pounds
-Front Wheel Diameter	6 Inches
-Back Wheel Diameter	6 Inches
-Item Dimensions L x W x H	41.1"L x 27.2"W x 40"H
-Frame Weight	16.67 Pounds
-Item Weight	32.6 Pounds
-</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Thule-10101924-Jogging-Stroller-Shadow/dp/B077QP17WF/ref=sr_1_1?crid=2AE72NS247OOT&amp;dib=eyJ2IjoiMSJ9.G6GrJvMjEqla8Mxq4iSPFBy6a4OTs0mAn-mpD9b2kCcGuHs7jOGsbQt1hG09K3r43AxgsrppbviNNqAwuGozrDO1IoRIfEKLp-ARfEmypQhOINal4uWTgRo27iX5NtwN-AKc0AWjabokkGR4dOl7kbKzRjUsnAgEFUo4hAh174qJkiHPpEdXFr_jJr_48Prsgo2ggATP6qxQ9EDlzxoteRj_oFWSuLz1m7-6_U7SLlU.wYHrIy_-_92LkOmnhb0-3CVE1PFDjmRSolhvl-W9Ma0&amp;dib_tag=se&amp;keywords=Thule+Urban+Glide+2&amp;qid=1727652862&amp;sprefix=thule+urban+glide+2%2Caps%2C152&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/814zbRPZ7eL._AC_UF1000,1000_QL80_.jpg</t>
-  </si>
-  <si>
-    <t>FROM CAR SEAT TO STROLLER IN SECONDS - Whether you're running errands or traveling by car, train, or plane, Doona is the complete travel system. Move from car seat to stroller at the click of a button, without disturbing your sleeping child.
-EASY TO USE - With an adjustable handlebar, washable materials, and an intuitive design, Doona's one-click, secure mechanism ensures correct installation every time—and allows you to explore the world with an infant, with freedom and flexibility.
-ERGONOMIC SUPPORT - Doona is designed to ensure your baby's body is properly supported. The Doona Infant Insert’s near-flat ergonomic design boosts your newborn’s upper and lower back and ensures the neck &amp; back are aligned.
-SAFE - Includes 3-layer side impact protection, anti-rebound bar crash technology &amp; a 5-point safety harness. It's TUV and FAA aircraft approved for travel, made with baby-safe materials &amp; the canopy is water repellant with UPF 50+ sun protection.
-MADE TO LAST - Doona is made from premium-grade fiber-reinforced polymers, rust-free aluminum, and durable wheels. It's the only car seat to have been tested and certified as a rear-facing car seat, a stroller, and an infant carrier.
-WHAT'S INCLUDED - The Doona Car Seat &amp; Stroller includes the Doona Car Seat, the Doona Stroller, the Doona Infant Insert and Head Support, the Doona Vehicle Seat Protector, and the Doona LATCH Car Seat Base.
-SPECS - Suitable from 4 lbs. to 35 lbs. Rear-facing car seat only. Car seat/stroller weighs 17.2 lbs., base weighs 9.7 lbs. Product Dimensions: Folded: 17.4 x 26 x 22.4 inches; Open: 17.4 x 32.3 x 39 inches.
-Product Dimensions	‎17.3 x 23.6 x 26 inches
-Item model number	‎SP101-10-033-003
-Is Discontinued By Manufacturer	‎No
-Minimum weight recommendation	‎1.8 Kilograms
-Maximum weight recommendation	‎15 Kilograms
-Minimum height recommendation	‎7 Inches
-Maximum height recommendation	‎32 Inches
-Material Type	‎PA+GF, PP, Al, PU, EPS, Polyester
-Number Of Items	‎1
-Style	‎Compact
-Number of reclining positions	‎5
-Batteries required	‎No
-Orientation	‎Rear Facing
-Rear-facing minimum child weight	‎4 Pounds
-Harness type	‎5-Point
-Item Weight	‎16.98 pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Doona-Infant-Seat-Latch-Base/dp/B07HML1BT5/ref=sr_1_1?crid=3CBUKE7ARUT1D&amp;dib=eyJ2IjoiMSJ9.m7u7GtCCPI4Ui_3AJ22jePZmBRLkjn15hBmVlZCCLiQ6g9UP5lpUjQK89VZrMbKHjy_AB817WavH7BLNTB4PHiAMV0neq6HJL0-lt1s23XGMsWwFDjtE9lKBDpruBwKwdN7vB34o3QNIcwu71etvOaq4fq20LAROldLGsJrSGzoojIaEx8tkzWFKgcckEWb3pkMTmWYMlSqoFuSnPbEdRyQ-SlxL7J4j_2j6fZvYKgu1pEBItKt0UI9pexY7WFFBRDucFIWlnKE4K46TCJheO4mYrpWJsqvRl2-7rX-3FNM._hmqhhX0S1luZoqUnl_rN8W1LiDeT72sLySCcMNzZZg&amp;dib_tag=se&amp;keywords=Doona+Infant+Car+Seat%2FStroller&amp;qid=1727652884&amp;sprefix=doona+infant+car+seat%2Fstroller%2Caps%2C144&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71wxdkV71cL.jpg</t>
-  </si>
-  <si>
-    <t>Leather
-INCLUDED TODDLER SEAT: The full size, reversible Toddler Seat allows your growing child to ride forwards, backwards, completely upright, reclined, and anywhere in between.
-ONE-HANDED RECLINE: The multi-position recline on the Toddler Seat allows your child to lie comfortably for naps or sit upright to take in the sights, offering the flexibility your busy toddler needs.
-EXTENDABLE, UPF 50 + CANOPY: The zip-out canopy on the Toddler Seat extends for additional sun protection, plush the mesh panels make it easy to peek in while adding airflow.
-EXTRA-LARGE, EASY-ACCESS BASKET: The extra-large opening means it’s easier to reach your diaper bag, toys, and whatever else you pick up along the way, up to 30 lbs!
-STROLL IN STYLE: Choose from a variety of luxurious fabrics and premium full-grain leather details like our adjustable, telescoping handlebar which extends for parents of varying heights. Our leather accents are all REACH certified for safer strolling.
-PATENTED TWO-STAGE SYSTEM: The All-Wheel Suspension and independent shocks ensure your child has a smooth and comfortable ride whether traveling down winding paths or over bumpy pavement.
-STANDS WHEN FOLDED: The Cruz one-step fold is easy and intuitive. The stroller stands on its own when folded and can be folded with or without the Toddler Seat attached.
-GREENGUARD GOLD CERTIFIED: Supporting healthier air quality &amp; low chemical emissions.
-PERFORMANCE TRAVEL SYSTEM: Our UPPAbaby Aria and Mesa Infant Car Seats attach directly to the Cruz stroller without adapters to create a complete Performance Travel System.
-Product Care Instructions	CANOPY: SPOT CLEAN ONLY. DO NOT BLEACH. DO NOT IRON OR DRY CLEAN. SEAT: SPOT CLEAN OR HAND WASH GENTLY IN COLD WATER WITH MILD DETERGENT. DO NOT BLEACH. DRY FLAT AND AWAY FROM DIRECT SUNLIGHT BEFORE RE-USE OR STORAGE. DO NOT IRON OR DRY CLEAN.
-Tire Material	Plastic
-Seat Material	leather
-Fabric Type	Leather
-Frame Material Type	Aluminum
-Material Type	Leather
-Features &amp; Specs
-Additional Features	Performance Travel System
-Seating Capacity	1
-Built-in Light	No
-Is Electric	No
-Harness Type	5 Point
-Maximum Weight Recommendation	50 Pounds
-Measurements
-Rear Facing Car Seat Maximum Height	32 Inches
-Item Dimensions L x W x H	37.5"L x 22.8"W x 40"H
-Item Weight	35 Pounds
-Folded Size	16.5 x 22.8 x 33 inches</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/UPPAbaby-Stroller-Full-Featured-Capabilities-Included/dp/B099NY5H4B/ref=sr_1_1_sspa?crid=7K6ZNYJUTQ1V&amp;dib=eyJ2IjoiMSJ9.GVukkKytGWwXDAWswDFRrm_EV0Hmb2MSD0iATKZUYCR1AZO3pT2rGTmfjwwroIFCC5vE-U-zWhnRe8I87_RByUDlq_xk-G0Ya9uhVG6kFRdkAwRc3877ePVgOit-5vYvpso_Deid0OPamL9Vgw8IKFtk1qZ-yu_gInhfTcAifk71GNe8dNoxrH4kQzKtE_5JZirWE4ACom75v5YmgNsoMpl0A-P2Jp5KlH-qTtcFtIg.4Zj4vTaIjd5ERCiOF0FlFVcBNKwcmAT0g3VRrrZfBhQ&amp;dib_tag=se&amp;keywords=UPPAbaby+Cruz+V2&amp;qid=1727652998&amp;sprefix=uppababy+cruz+v2%2Caps%2C135&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
-  </si>
-  <si>
-    <t>The CYBEX e-PRIAM 2 stroller uniquely combines the luxurious design and functionality of the PRIAM stroller, with the electronic power of smart technology. The unique uphill and downhill support make ascents and descents as effortless as ﬂat terrain by smartly adapting to the respective surface. Whether cobblestones, sand, snow or gravel, the e-PRIAM is a breeze to maneuver. The innovative one-pull harness helps you secure your child in the stroller in seconds, with just one hand. 
-Download the e-PRIAM app to unlock the Rocking feature – set the e-PRIAM to rock back and forth automatically to gently soothe your child. And, enjoy a more comfortable journey by choosing between two support modes: Eco to save battery power or Tour for maximum power on hills or rough ground.
-One frame enables three different modes of use: from birth with the PRIAM 4/e-PRIAM 2 Lux carry cot or any CYBEX infant car seat (both sold separately), and later with the seat unit as a luxurious parent-facing or forward-facing stroller. 
-Why we love it:
-The ePriam offers three modes: travel system with your favorite car seat, parent-facing and forward-facing.
-The ePriam boasts all-terrain wheels &amp; suspension for a comfy ride
-Seat adjusts to a near-flat position with one hand
-Extra-large shopping basket with magnetic closure
-Pair this ePriam2 with the Cloud Q reclining infant car seat in a snap!
-The car seat adapter comes included with the stroller.
-Car seats compatible with Cybex e-Priam (with included adapters):
-Cybex car seats
-Nuna PIPA series (excluding Nuna Pipa Lite &amp; Pipa Lite LX)
-Maxi Cosi Mico series (excluding Coral XP)
-Other Key Features:
-e-PRIAM APP FEATURES: Rocking Mode - Choose between 3 rocking settings and set the duration to gently soothe your child, Support Modes - Tour Mode provides maximum assistance while Eco mode saves battery power, Battery Status - Monitor the battery level so you always know when to rechargeSMART UPHILL SUPPORT: Handle bar sensors detect pushing pressure and adjust the support accordingly, making climbs and descents feel effortless
-SMART UNEVEN SURFACE SUPPORT: Helps you power over rough ground for a smooth ride
-UNIQUE ONE-PULL HARNESS: Helps you secure your child in the stroller in seconds, with just one hand
-TRAVEL SYSTEM READY: Frame is compatible with the PRIAM 4/e-PRIAM 2 Lux Carry Cot or any CYBEX infant seat (sold separately)
-ONE-HAND FOLD: Into a self-standing position for easy storage on the go
-MULTIPLE RECLINE POSITIONS: Easily adjust with one hand
-REVERSIBLE SEAT UNIT: Can be easily positioned forward or parent facing
-ALL-WHEEL SUSPENSION: Ensures a soft, quiet and comfortable ride
-LARGE STORAGE BASKET: Holds up to 11 lbs.
-EXTENDABLE UPF 50+SUN CANOPY: Protects your child from the sun and includes a peek-a-boo window
-ADJUSTABLE LEATHERETTE HANDLEBAR: Extends for users of varying heights
-ADJUSTABLE LEG REST: For customized comfort for your child
-LEATHERETTE BUMPER BAR: Opens to the side for easy access to the seat
-SWIVEL FRONT WHEELS: Can be locked for stability on uneven terrain
-CONVENIENT TWO-WHEEL MODE: For strolling over loose terrain like sand or gravel
-TABLE HEIGHT SEATING: Makes dining out convenient
-INCLUDES: Rain cover, cup holder, bumper bar, PRIAM/e-PRIAM infant car seat/carry cot adapters, battery and charger
-COMPATIBLE WITH: PRIAM 4/e-PRIAM 2 Seat Packs and Lux Carry Cots 
-Child Usage: 0 - age/55lbs 
-Warranty: 2 Years
-Weight: 34.2 lbs
-Assembled measurements: 36.8” D x 44.5” H x 23.6” W</t>
-  </si>
-  <si>
-    <t>https://www.cybex-online.com/en/us/p/Set_ST_PL_ePraim_Travel_System_3in1_US.html</t>
-  </si>
-  <si>
-    <t>Polyester
-𝐄𝐂𝐎-𝐅𝐑𝐈𝐄𝐍𝐃𝐋𝐘 𝐌𝐀𝐓𝐄𝐑𝐈𝐀𝐋𝐒: Made with soft, sustainable jersey fabric sourced from recycled plastic bottles, complemented by vegan leather and chrome accents, making this jogging stroller an environmentally responsible choice
-𝐋𝐈𝐆𝐇𝐓𝐖𝐄𝐈𝐆𝐇𝐓 𝐀𝐍𝐃 𝐂𝐎𝐌𝐏𝐀𝐂𝐓: Designed for travel, fly through terminals and city streets with the Jet 4's ultra-compact foldable toddler stroller with featherweight 13.6 lbs design. It fit into overhead lockers on aircraft, ensuring it's ready for any adventure with this baby stroller travel systems
-𝐎𝐍𝐄-𝐇𝐀𝐍𝐃𝐄𝐃 𝐑𝐄𝐂𝐋𝐈𝐍𝐄: The Jet 4's one-handed recline allows you to easily adjust your baby's position, soothe your little one and adjust their position seamlessly with the Jet 4's ingenious single-handed recline, even while holding it in the other arm made it baby trend stroller of all time
-𝐀𝐋𝐋 𝐈𝐍𝐂𝐋𝐔𝐒𝐈𝐕𝐄: The Jet 4's super compact stroller is the only one approved in the USA to include a toddler bar, feature an adjustable footrest, newborn to 55 pounds, and feature a quick, one-hand fold; all while being compact enough to fit all overhead bins on an airplane which make it a best travel stroller for airplane
-𝗡𝗘𝗪𝗕𝗢𝗥𝗡 𝗖𝗢𝗠𝗣𝗔𝗧𝗜𝗕𝗟𝗘: The Jet 4's unique flat recline mode allows you to use the stroller from newborn all the way to 55 pounds - making it last longer and ensure years of happy outings and jogging with this strollers for babies and toddlers
-𝐄𝐗𝐓𝐄𝐍𝐃𝐄𝐃 𝐂𝐀𝐍𝐎𝐏𝐘: Say goodbye to harsh rays and blustery winds with this umbrella stroller. The Jet 4's lightweight baby strollers include a UPF50+ canopy with a mesh viewing window, offering protection from the sun while allowing you to keep an eye on your little one. This makes it the best summer stroller baby travel system for infants, toddlers, and newborns
-𝐀𝐃𝐕𝐀𝐍𝐂𝐄𝐃 𝐒𝐀𝐅𝐄𝐓𝐘 𝐅𝐄𝐀𝐓𝐔𝐑𝐄𝐒: This newborn stroller is equipped with the Genius magnetic buckle system for a secure, easy-to-use, three-click harness that keeps your baby safe and comfortable on the go
-𝐂𝐎𝐍𝐕𝐄𝐍𝐈𝐄𝐍𝐂𝐄 𝐅𝐄𝐀𝐓𝐔𝐑𝐄𝐒: Boasts a large storage basket, flip-flop friendly brake, and anti-crease fabric to ensure this portable stroller stays looking sharp and is easy to manage during travel which makes it the best compact stroller for travel
-Fabric Type        Polyester
-Frame Material Type        Alloy Steel
-Material Type        Polyester
-Built-in Light        No
-Is Electric        No
-Harness Type        5 Point
-Stroller Type        Standard Stroller
-Maximum Weight Recommendation        15 Kilograms
-Measurements
-Back Wheel Diameter        74.87 Centimeters
-Item Dimensions L x W x H        23"L x 8.27"W x 12.8"H
-Frame Weight        8.1 Kilograms
-Item Weight        8.1 Kilograms
-Folded Size        7.08 x 11.81 x 21.65 inches</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Silver-Cross-Jet-Lightweight-All-Terrain/dp/B0D5BNPD8M/ref=sr_1_1?crid=2F9KUSHSLL48K&amp;dib=eyJ2IjoiMSJ9.YErdAP9_ZtwUdtfY6rc0TIOJJXnb2K3uS1ps4b4nV62Oh72QhzVpnRGGUq1e7P47TtIu4ZX1QHAjvoTMcg_TdAdP3ZVS4ddHOpYvwF5Ao_S1G8rofAh6LuwvwnUdtU6d7f9s8Y4-KY7VA7U0dVuiDAs-XvhWa7aDE5tl8VkGy4JjNdGLlIXujJr6JNcBDPDbrojWsEo__ZglIIsHcGBpHkP_HKlYpO4xBeyv8lfsL7c.b_Xn56LyUDKFpgz5VN3sCUO2rhsrWADXOdt7-yN6gDo&amp;dib_tag=se&amp;keywords=silver+cross+wave+stroller&amp;qid=1727653102&amp;sprefix=Silver+Cross+Wave+%2Caps%2C137&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>ICONIC STYLE FOR TRENDY PARENTS.
-Intuitive features that just make sense. The mima xari max full-size stroller is suitable for newborns when used with a car seat or Xari Max bassinet, supports children up to 55 lbs.
-Each detail of the mima xari max is designed to enhance safety and comfort for babies while adding convenience and ease of use for parents.
-The mima xari max features 3-recline positions, reversible &amp; roomy seat, storage basket, adjustable handlebar height, 5-point safety harness, and magnetic harness release that locks in place.
-Need to navigate through gravel, sand, or snow? Shock-absorbing tires, rear wheel suspension, and lockable swivel front wheels provide an incredibly smooth ride.
-Your child is protected from the elements and harmful UV rays. The high-quality UV 50+ fabric canopy gives a sleek modern look. The mima xari max stroller's extendable canopy plus concealed zipper extension surpasses competitiors. You won't miss a moment with the additional peek-a-boo window.
-Leatherette fabric on the seat unit for easy wipe cleaning
-Adjustable handlebar
-Easy to fold and unfold
-Seat pad with a 5-point safety harness
-New style magnetic harness clasp
-Reversible seat
-Three seat recline angles
-A large canopy with 50+ UV protection and a roof window
-Stroller weight: 29.3 lbs
-Maximum child weight: 55 lbs
-User age: from newborn up to 4 years old, bassinet sold separately. 
-Chassis Folded dimension (with wheels attached) - 27” x 16”x 25.5”</t>
-  </si>
-  <si>
-    <t>https://mimakidsusa.com/products/mima-xari-max-stroller?gad_source=1&amp;gclid=CjwKCAjw9eO3BhBNEiwAoc0-jcIVPJMu2JDSpsHipB5jbDZlIdodywf6nw_Yvt7wXUrVN8m98tImVhoCNysQAvD_BwE</t>
-  </si>
-  <si>
-    <t>COMFORT &amp; CONNECTION​ - Stokke Xplory X features a high seat to bring your baby closer, facilitating the connection they need to feel safe &amp; loved. The padding and the adjustable seat &amp; footrest provide comfort every step of the way.
-SAFETY FIRST​ - Protective from top to bottom, our stroller features a hard shell seat, a 5-point harness, a reflective zipper, and a one-push brake system for quick response. Tested internally &amp; with external institutions​.
-EASY TO USE - Parents will appreciate the easy, one-step foldable stroller chassis​, the adjustable handle that accommodates different heights​, the easy-to-clean fabric, and swivel front wheels for effortless maneuverability.
-MAKE IT YOUR OWN - With stroller accessories like the Changing Bag, Cup Holder, and Snack Tray, you can customize the Stokke Xplory X for use with children from newborn to toddler (up to a limit of 48.5 lbs). Plus, choose from a variety of colors!
-DESIGN WITH A PURPOSE - Stokke entered the children's furniture &amp; accessories sector in 1972, and since then, all our products have been designed to challenge the ordinary, foster healthy development, and nurture family bonding.
-anopy Material	Polyester or Nylon
-Tire Material	Plastic
-Seat Material	Synthetic material or engineered plastic
-Frame Material Type	Aluminum
-Features &amp; Specs
-Harness Feature	Adjustable, padded straps
-Harness Type	5 Point
-Installation Type	Portable
-Maximum Weight Recommendation	22 Kilograms
-Measurements
-Item Weight	13.4 Kilograms</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Stokke-Xplory-Royal-Blue-Adjustable/dp/B08Z5X1K1S/ref=sr_1_1_sspa?crid=GWSW8RLRW51L&amp;dib=eyJ2IjoiMSJ9.GEG_u8JfXg06Oc8-rhQHnnGq-tk2xbIp6d5iUfc-zyisuNuDDEj0lSENx4qKwn-xhNgOvmjo7QH8MqYr5pdZfXQHQe99q3SGkrMKBqGOZ7r8RBgLRTuoHvTKSfpTa1dwbg866jOC9q5kJE-a6UcW3XtWxCNS5iSO0FZZ_eNFMszpOgxgtC7JesXDWig0Gkt7nwgOS7kCYUQy0J03yPXl7CMgE5D_F14NlCvLML2PI2s.JvZCRqxWR_28QJ7GmIjptLDgv0-OnasxrLIKblSyZ2g&amp;dib_tag=se&amp;keywords=stokke+xplory+x+stroller&amp;qid=1727653291&amp;sprefix=Stokke+Xplory+X%2Caps%2C140&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
-  </si>
-  <si>
-    <t>SMOOTH RIDE: Advanced 4-wheel suspension ensures a smooth, stable journey for your baby on any terrain. Large wheels and superior engineering offer excellent maneuverability and safety in the city.
-COMPACT AND PORTABLE: With a lightweight frame, this stroller folds down quickly without removing the seat. Sling the carry strap over your shoulder for hassle-free portability in crowded areas.
-SUPERIOR COMFORT: The parent-facing seat is fully reclinable, with an adjustable footrest and XXL sun hood providing UPF50+ protection. Your baby can rest, sleep, or sit comfortably at any angle.
-ENHANCED VISIBILITY: The stroller features integrated LED lights in the frame, perfect for low-light conditions. Improve visibility during evening walks for added safety, without compromising style.
-HIGH-QUALITY BUILD: Built with premium materials, this stroller is both durable and elegant. Its sleek design, reversible seat, and smooth one-hand steering make it ideal for urban parents on the go.
-Product Care Instructions	Hand wash with a mild detergent
-Canopy Material	Gorgeous Grey
-Measurements
-Basket Weight Capacity Maximum	11 Pounds
-Front Wheel Diameter	6.3 Inches
-Back Wheel Diameter	10.3 Inches
-Frame Weight	9 Pounds
-Item Weight	10.1 Pounds
-Specification Met	EN 1888-2
-EU Spare Part Availability Duration	5 Years
-Maximum Weight Recommendation	50 Pounds
-Features &amp; Specs
-Number of wheels	4
-Is Car Seat Compatible	No
-Harness Type	5 Point
-Stroller Type	Standard Stroller</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Joolz-Stroller-Integrated-Suitable-Gorgeous/dp/B08KWJT145/ref=sr_1_3?crid=3EBJWEAAKL2A0&amp;dib=eyJ2IjoiMSJ9.q6M0lKq0BlB29d7WYT9pxMg47LY61X9BFBLh-ZPpEVEBgTd1h1wKVFaOP9c5QBGgsB9jDmhW6hS6IncQu-DM9WJW4eFHRihWNlw2_KTHxSss2Hn4PdV1YX1061hepzHrDc4zqwGE4qzEGRl6b3nduazfAaua4U6wqlF48LWSUGr8-JLR44WdtTaEKGwf7ZMiC3WLLnq0EbL3aHw0-qIujBbl5jtO40LND3G1ruxtqGY.M0-XhCcgIiYexm1rCiQraG1TqykiaHrC4x-04PaAMzw&amp;dib_tag=se&amp;keywords=Joolz+Hub%2B+stroller&amp;qid=1727653323&amp;sprefix=joolz+hub%2B+stroller%2Caps%2C138&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t>Polyester
-Fully featured modular stroller converts from single to double or triple stroller with glider board (second seat, infant car seat, and glider board sold separately)
-Easily lift and carry this stroller that is lighter than the original City Select
-One-step compact fold, 20% smaller than the leading single-to-double stroller* *as compared to the 2020 UPPAbaby Vista V2 single-to-double stroller in the US
-Plenty of room between the seats means more comfort for your kids (more than the UPPAbaby Vista V2 when the second seat is attached)
-With over 24 configurations, the City Select 2 offers versatile seating for up to 3 kids (accessories sold separately)
-Tire Material	Rubber
-Fabric Type	Polyester
-Measurements
-Stroller Seat Weight	26.4 Pounds
-Back Wheel Diameter	20.5 Inches
-Item Dimensions L x W x H	36"L x 23.8"W x 41.1"H
-Frame Weight	26.4 Pounds
-Item Weight	26.4 Pounds
-Installation Type	Freestanding
-Maximum Weight Recommendation	45 Pounds
-Features &amp; Specs
-Additional Features	Convertible, Compact Fold
-Built-in Light	No
-Is Electric	No
-Is Car Seat Compatible	No
-Harness Type	5 Point
-Stroller Type	Modular Stroller</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Baby-Jogger-Single-Stroller-Collection/dp/B094P1912M/ref=sr_1_1?crid=9ZA49DAH5VA0&amp;dib=eyJ2IjoiMSJ9.8i6wAsiwPGvWSC00jfGUkkEF8350Vc7MICKkBy2CDWPPgK37lrzra7qKafgwV_6WFg7cEEKp1JzYylDkGnezZ2fHSJryBzdM27iW1wN3hOAs_JcuigJak5OPuPgDqE0fotUN_goCPWJhDV0WLk8X9fCwSWVz2sbUH4icAZylPloEcqOhoLvY_VivuxuaAY3hccDG578aG7TWn0x1iRjMKwjcFNrRA726Gv3nc-iYHCI.L16PopEu45lT_w-F68g5sgUZk4l10jSpYYp8zYuAoTU&amp;dib_tag=se&amp;keywords=baby+jogger+city+select+2+stroller&amp;qid=1727653353&amp;sprefix=Baby+Jogger+City+Select+2%2Caps%2C135&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>EASY TO USE - YOYO2 is one of the most lightweight, compact, full-feature strollers available. Designed for every situation, every day, you can steer with one hand, carry it on your shoulder &amp; store essentials in the zippered back pocket.
-TAKE IT EVERYWHERE - It's never been easier to meet up with friends, catch a cab, or hop onto the subway. The YOYO2 not only folds &amp; unfolds with one hand, it’s so compact that you can store it in the overhead bin of a plane.
-GROWS WITH YOUR CHILD - Now you only need one stroller! Our all-in-one frame accommodates your growing child, from newborn to toddler (up to 48.5 lbs), with a comfortable seat cushion, a reclining backrest &amp; a secure 5-point harness.
-CUSTOMIZABLE - Choose from nine trendy colors and lots of accessories to suit your needs, like the YOYO board, YOYO bag, YOYO cup holder, YOYO footmuff, YOYO legrest, YOYO parasol, YOYO travel bag, and YOYO mosquito net.
-WHAT’S INCLUDED - Your YOYO2 Stroller includes a frame, 5-point harness, multi-position reclining backrest, canopy extensions, shoulder strap, protective storage bag &amp; the 6+ Color Pack, which includes the seat cushion &amp; matching canopy.
-Material Type	Polyester, Faux Leather
-Measurements
-Item Dimensions L x W x H	33.86"L x 20.5"W x 41.7"H
-Item Weight	6.5 Kilograms
-Maximum Weight Recommendation	22 Kilograms
-Features &amp; Specs
-Seating Capacity	2
-Built-in Light	No
-Is Electric	No
-Is Car Seat Compatible	No
-Harness Type	5 Point
-Stroller Type	Umbrella Stroller</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/BABYZEN-YOYO2-Stroller-Toffee-Cushion/dp/B08573FNK4/ref=sr_1_1?crid=1HK8B45KHBZXX&amp;dib=eyJ2IjoiMSJ9.A53jb8OOyOu_5rEEKMom_TEuXeppQ0JP4Pz_E2uMGDmqGtEZjjHQFsyIaVc1cg18P4ptpd8oFXnjF0cb_LDC5AL8zfbIvOCQsPrV_H6KIi65sPRtV2bgIU8QR_hxY9hqYaBTML11wksofbmQwdrPVC3x3LCV3yLsTw8ElE9Q1NZsE5Y6eBqgUQfPrRcVO_LyZcDcl74lYhyMvIfo8dm05dgL006oj-fTy2J8SXIzjpI.sqQsHIDRjB-AgMgMC-QvKVTB8ciYkJtWx4NEqPdVTRw&amp;dib_tag=se&amp;keywords=Babyzen+YOYO2+stroller&amp;qid=1727653379&amp;sprefix=babyzen+yoyo2+stroller%2Caps%2C149&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>Polyester
-Imported
-Collapsible and Compact Design: This travel stroller's ultra-compact and collapsible design ensures it will fit in most overhead compartments on planes and trains, eliminating the need to check your baby stroller while travelling.
-Lightweight Convenience: This must-have umbrella stroller weighs a mere 9 1/2 pounds and makes one-handed pushing and steering a breeze. It folds down in 2 simple steps and can be carried effortlessly via the attached handle.
-Durable and Flexible Construction: Durable for everyday use as well as travel the Pockit plus is designed to roll with the punches. Its flexible construction keeps wiggly bodies safe and happy during their travels.
-UPF50 plus Sun Canopy and Reclining Seat Back: Your little one can take a stroller snooze in total comfort thanks to the reclining seat back and the UPF50 plus sun canopy. The seat reclines to a baby lounger, and the canopy keeps the sun's rays at bay.
-Agile Front Swivel Wheels: The helpful front swivel wheels make navigating busy streets and turning corners seem like a walk in the park for this lightweight stroller. For increased stability on uneven terrain, simply switch the wheel lock.
-Product Care Instructions	Spot or Wipe Clean
-Canopy Material	Polyester
-Tire Material	Plastic, EVA
-Seat Material	Polyester
-Fabric Type	Polyester
-Frame Material Type	Plastic
-Material Type	Plastic
-Features &amp; Specs
-Additional Features	he Pockit+ All-Terrain folds up into a compact, handbag shaped package in secondsand is airplane carry-on compliant*
-Seating Capacity	1
-Built-in Light	No
-Number of wheels	4
-Is Car Seat Compatible	Yes
-Harness Feature	Adjustable Straps
-Harness Type	3 Point
-Stroller Type	Umbrella Stroller
-Specification Met	ASTM
-Installation Type	Freestanding
-Maximum Weight Recommendation	55 Pounds
-Measurements
-Stroller Seat Weight	10.4 Pounds
-Front Wheel Diameter	4.7 Inches
-Back Wheel Diameter	4.7 Inches
-Item Dimensions L x W x H	28"L x 19.1"W x 39.8"H
-Item Weight	10.4 Pounds
-Folded Size	13.4 x 7.9 x 16.5</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gb-Pockit-All-Terrain-Velvet-Black/dp/B07RGLBX41/ref=sr_1_1_sspa?crid=YFYF5HE7L6WA&amp;dib=eyJ2IjoiMSJ9.FEwLgZtU_rowQ58uUsESJvcNFKBUoB6BkD_6kC0Nl7kGr-4pA-_c3hwaHKDCpBFq6m2pABfVt0BSa0mH35DVWDXCVcqc6JsWZUKHB2Cg5ZgXXVTpzx2xoztsIrVir58QYkBSVxlHpkN4J6kirHiPYe29P7HDHQkofXDE3A5j7xEYe6pDLHyU4rvpK4MBb2qKfa73vaRCdcEIenFRK8JrB2CBuEYwpUy5Ks0vafepkxU.Egzo6FGCF8gY6JZhCzswO_GFyFW5GXrW_DqAjLnvjso&amp;dib_tag=se&amp;keywords=gb+pockit+stroller&amp;qid=1727653409&amp;sprefix=gb+pockit%2B+stroller%2Caps%2C140&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
-  </si>
-  <si>
-    <t>100% Polyester
-TRAVEL BIG, CARRY SMALL: At just under 17 lbs, easily bring the Minu on planes, trains, and ferries thanks to the built-in carry handle and included shoulder strap.
-OVERHEAD FRIENDLY: One hand and one smooth motion are all it takes to completely fold the Minu – small enough to fit in compact travel compartments.
-LARGE BASKET FOR BIGH ADVENTURES: Store everyday essentials, a diaper bag, and any souvenirs you pick up throughout your travels with the large storage basket that can hold up to 20 lbs!
-EXTENDABLE UPF 50+ CANOPY: Zip-out canopy with vented peekaboo window for protection even during the sunniest vacations.
-SMOOTH STROLLING: Front and rear spring-action suspension creates a smooth ride from city sidewalks to beachy boardwalks.
-THE PERFECT TRAVEL COMPANION: The spacious seat holds up to 50 lbs so even the big kids can rest after a big day of adventures.
-STROLL IN STYLE: Choose from a variety of luxurious fashions and premium details like our adjustable, full-grain leather handlebar. Our leather accents are all REACH certified for safer strolling.
-PERFORMANCE TRAVEL SYSTEM: Our UPPAbaby Mesa Infant Car Seats attach to the Minu stroller with convenient adapters to create a complete Performance Travel System.
-Product Care Instructions	Spot clean or hand wash gently in cold water with mild detergent. DO NOT BLEACH Dry flat and away from direct sunlight before re-use or storage DO NOT IRON OR DRY CLEAN
-Canopy Material	100% Polyester
-Tire Material	Plastic or hard rubber
-Seat Material	Polyester
-Fabric Type	100% Polyester
-Frame Material Type	Aluminum
-Material Type	Leather
-Features &amp; Specs
-Additional Features	All-wheel shock absorption suspension, UPF 50+ canopy, lightweight and compact design, one-handed one-step fold, large storage basket, no-rethread harness
-Built-in Light	No
-Is Electric	No
-Is Car Seat Compatible	No
-Harness Feature	5 adjustable points for secure fit
-Harness Type	5 Point
-Stroller Type	Umbrella Stroller
-Specification Met	All-wheel shock absorption, UPF 50+ canopy
-Installation Type	portable
-Maximum Weight Recommendation	50 Pounds
-Measurements
-Item Dimensions L x W x H	35.5"L x 20.3"W x 41"H
-Frame Weight	14.4 Pounds
-Item Weight	16.9 Pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/UPPAbaby-Stroller-Lightweight-Portable-One-Hand/dp/B09XY59SMV/ref=sr_1_1_sspa?crid=E0JNQ9HXDB1T&amp;dib=eyJ2IjoiMSJ9.WiLtZGrHDVeT6Vn8PR5aN4ctKjscnb5AGkUc29FOaAW_sXkY5H9Hgn58-KXgdskpI6rMeVN0O_qbqITT0s1xmvXNLPavP0IW8ejn6kbZj_1xdariy6EpqxTkGmVjz8X4zWMb3auTbcpjppiIyOxDdKSJwUD_jC8wettMXrJEB7RxicXkQ1vYw0PdXqirSRylxp-4jaJ2HLnbANJcIihWd735r1RijXrLhWCdU27obnc.P1LRqGpHb5B19HPrcLv667mow5jE-9WZ47e-yOWYrd8&amp;dib_tag=se&amp;keywords=UPPAbaby+MINU+V2+stroller&amp;qid=1727653444&amp;sprefix=uppababy+minu+v2+stroller%2Caps%2C140&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
-  </si>
-  <si>
-    <t>Unbeatable versatility in a compact size
-The Bugaboo Ant is an ultra compact stroller packed with incredible features designed to provide versatility and ease for you and your family. Its lightweight frame makes it easy to drive while its height-adjustable comfort seat lets your child face you or the world in one simple switch. A true joy to ride and steer, and ready to go from your very first stroll.
-Two-view seat
-An extraordinary stroller needs an extraordinary seat. This easily adjustable and reversible seat lets your child face you or the world in one easy switch.
-Ultra compact fold
-It’s convenient to store out of sight, park in small spaces, or fit in an overhead locker where you would usually keep a bag.
-Grows with your family
-The height-adjustable seat lets you have a safe, comfortable, and seamless ride from newborn to toddler. For extra comfort during the first months, pair your stroller with the Bugaboo baby cocoon.
-Easy to drive
-As your newborn grows into a lively toddler, your push can remain as gentle as ever thanks to the advanced suspension packed into its nimble wheels.
-Key features
-Perfect as a second stroller
-Suitable from birth, for extra comfort pair with the Bugaboo Baby Cocoon
-Car seat compatible
-Lightweight and easy to carry
-Folds in one-piece into an ultra compact size
-Pull-along trolley mode
-Advanced suspension for fewer bumps
-Suitable for a child up to 48.5 lbs
-Comfortable and reclinable seat, featuring three different positions
-Reversible seat, with parent-facing or facing-the-world position
-Height-adjustable handlebar
-Push and steer with one hand
-Rear luggage basket holds up to 11 lbs
-Underseat basket holds up to 6.6 lbs
-Specifications
-Weight, size &amp; dimensions
-Stroller width: 16.06 in
-Stroller weight with seat: 15.8 lbs
-Folded dimensions (length x width x height): 21.6 x 14.9 x 9.1 in
-Minimum handlebar height: 37.4 in
-Maximum handlebar height: 40.9 in
-Front wheel diameter: 4.7 in
-Rear wheel diameter: 5.9 in
-Capacity
-Weight capacity (seat): up to 50 lbs
-Combined under seat basket &amp; rear luggage basket capacity: 17.6 lbs
-Compatible with different car seat models. Check out our Accessories page for information about car seat adapters.
-Fabrics &amp; Care
-Outside: 100% polyester
-Machine washable fabrics, at 30 degrees. Always wash it separately.</t>
-  </si>
-  <si>
-    <t>https://www.bugaboo.com/us-en/strollers/bugaboo-ant/bugaboo-ant-stroller-MI002360.html</t>
-  </si>
-  <si>
-    <t>Polyester
-Ultra-lightweight: Weighs only 14 lbs for easy maneuvering
-Travel System: Can be used with a Baby Jogger infant car seat (sold separately)
-Ultra-compact: One-step fold with auto-lock for transportation and storage
-Comfortable: Multi-position padded seat reclines nearly flat
-Adjustable Calf Support: Provides comfort for growing children
-UV 50+ canopy: Protects your baby from the harsh sun
-Carry Bag: Included for protection against dirt and scratches when traveling
-Lightweight and durable tires with locking front-swivel wheels provide a smooth and nimble ride
-Product Care Instructions	Machine wash seat on cold, gentle or delicate and drip dry. Do not use bleach, solvents or abrasive cleaning materials. Do not press, iron, dry clean or tumble dry. Reminder to always remove the metal frame and PE boards from the seat before washing. If the seat cover requires replacing, only use parts from a Baby Jogger authorized dealer. Plastic and metal parts may be surface washed only using warm water and mild soap; towel dry. The wheels can be cleaned using a damp cloth and must be dried completely with a soft towel or cloth before use. Do not store outside or near a direct heat source such as a radiator or fire. Always store in a dry and safe environment.
-Canopy Material	polyester
-Tire Material	Rubber
-Seat Material	Polyester
-Fabric Type	Polyester
-Frame Material Type	Metal 47.6%, Plastic 52.4%
-Material Type	Plastic, Metal, Fabric
-Features &amp; Specs
-Additional Features	Ultra-Compact, Storage Area, Folds for Easy Transport and Storage, Canopy
-Seating Capacity	1
-Built-in Light	No
-Number of wheels	4
-Is Car Seat Compatible	No
-Harness Feature	enhanced safety, secure fit
-Harness Type	5 Point
-Stroller Type	Umbrella Stroller
-Specification Met	JPMA
-Maximum Weight Recommendation	20 Pounds
-Measurements
-Front Wheel Diameter	5 Inches
-Back Wheel Diameter	6 Inches
-Item Dimensions L x W x H	37.75"L x 19.6"W x 39.5"H
-Frame Weight	14.3 Pounds
-Item Weight	14.3 Pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Baby-Jogger-City-Single-Stroller/dp/B07NZPT3TR/ref=sr_1_1?crid=UJ4T5ADYJEVN&amp;dib=eyJ2IjoiMSJ9.JT40gtnt5qfq7z-UrisIT0qNlQuFcZrJHgNC_uL_xMsp2pVF3vo4LOOoKsAdjP4SgkqkdKxU31mxS8mLlrtNKlVHwfPD14v_dDpTd6xGGbaTuGwJkGZYrkYaG5_SM0CcYZY3FiKiutXrxzcnZ0rdxg7E5HSmRXxxyMJgR56TaJhvvZyq5cS5YgvqkhHEeqWLGhHreC3RG_RBII3qv9RenNHdRLLyLI1BAK3tKeaMFcM.nM1Do8rxxO0gdYS-e4yAFJzzIQ6J5eYpOpl_aW9L3lI&amp;dib_tag=se&amp;keywords=Baby+Jogger+City+Tour+2+stroller&amp;qid=1727653548&amp;sprefix=baby+jogger+city+tour+2+stroller%2Caps%2C152&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>Leatherette, Polyester
-FROM BIRTH to TODDLER: The Joolz Aer+ stroller suits kids 6 months to 4 years (up to 50 lbs). Weighs 13.2 lbs, with an ergonomic seat, compact design, and smooth maneuverability for active families.
-COMFORT, STYLE &amp; ADAPTABILITY: The Joolz Aer+ stroller offers one-handed folding, pre-assembled setup, 11 lb basket, all-terrain suspension, and an ergonomic high handlebar for comfort &amp; adaptability.
-ULTIMATE PORTABILITY &amp; TRAVEL SYSTEM: The Joolz AER+ stroller offers easy transport, compact storage, a shoulder strap, travel pouch, easy fold, airplane friendly compatibility (17.7 x 21 x 8.5 in).
-SAFETY 1st: The Joolz Aer+ pram has a 5-point buckle, adjustable harness, patented reclining stroller seat for safety, spacious seat, large UPF 50+ canopy, and ventilation for all weather conditions.
-SUSTAINABLE &amp; GUARANTEED: The Joolz Aer+ stroller is made from 100% recycled fabrics, offering durability and style. With a 10-year warranty, reusable packaging, and hand-washable materials.
-Fabric Type	Leatherette, Polyester
-Frame Material Type	Aluminum
-Material Type	Polyester
-Features &amp; Specs
-Number of wheels	4
-Is Car Seat Compatible	Yes
-Harness Type	5 Point
-Maximum Weight Recommendation	50 Pounds
-Measurements
-Stroller Seat Weight	50 Pounds
-Item Dimensions L x W x H	32.7"L x 17.7"W x 41.5"H
-Item Weight	13.2 Pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Joolz-Lightweight-Compact-Travel-Stroller/dp/B0CYQ89PC7/ref=sr_1_1_sspa?crid=ZWZ91FGN4LIW&amp;dib=eyJ2IjoiMSJ9.i9PuhDUtuk7gOVHMmlGho-BcOV12qSG-CPqrVQk0qCtS6dVaZGYSHEzRhiV451tVl_rSfd1iy464nK-fl9CR3OxbBBmGjEVStlv-JeyxqvhAXTEgUP-yJwLpeOLNRscoCW187zcREVtinDYZgVQRD0kSai3bLkb3dqBYmneSWaJjb5OQLR_wACx0nsG1pYtYMhUgx4W9WzYpsF1kDdcXMHCXfmyQOeV-jMypDNO6cg4.9SHq_mTHRYanZCO2j5mclZChzb6zcI54xXR-Dk7EXWU&amp;dib_tag=se&amp;keywords=Joolz+Aer+stroller&amp;qid=1727653580&amp;sprefix=joolz+aer+stroller%2Caps%2C152&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
-  </si>
-  <si>
-    <t>Seat Pad: 95% Polyester Fiber, 5% Polyurethane Foam Pad
-ULTRA-COMPACT FOLD: Folds into an ultra-compact, self-standing package in seconds for easy storage
-CARRY ON COMPLIANT: Compact travel stroller for airplane travel folds small enough to carry on. (Airline luggage and carry-on allowances may vary, and are subject to change. Please check airline websites prior to departure)
-LIGHTWEIGHT STROLLER: Weighs only 13.7 lbs.
-TRAVEL SYSTEM READY: Attach any CYBEX infant car seat to the frame to create a convenient baby travel system using included adapters
-SMOOTH FRONT WHEEL SUSPENSION: Infant and toddler stroller provides steady handling and a comfortable ride
-Product Dimensions	‎28.7 x 20.5 x 40.9 inches
-Item model number	‎524000281
-Maximum weight recommendation	‎55 Pounds
-Care instructions	‎Hang dry., Machine wash fabrics separately in cold water, with mild detergent, on a delicate cycle.
-Batteries required	‎No
-Harness type	‎5 Point
-Item Weight	‎13.7 pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Cybex-Lightweight-Stroller-Suspension-Adjustable/dp/B0CWW85JWT/ref=sr_1_1_sspa?crid=17V58RDQUDOQ3&amp;dib=eyJ2IjoiMSJ9.C_BPPpYZFZLR2B7ceeCqkqhx0pNJk39d1wmnzYiyWrFiOAE6xTbsOrktacSbOOiB6tPdXP3swgdKpsQ1T4Y4VgLL0400L2Ob8l7WFiJyL4OD7wD6NVpDO0sMjLjdP-8dEtL9c6dJv6n2g_6us3YYHZJiQ1Y-6XCBwiBjRS0MMDfDhKQwYHkAurqnrTL_wUK88HZbZuRvYLK7zGViEe3Y_CIl2F4RgqBDrakrDqCe3V8.YMlk0PJQRrEdLdhWm4cal2xzw08hfBgNHM5vWoGkqws&amp;dib_tag=se&amp;keywords=Cybex+Libelle+stroller&amp;qid=1727653604&amp;sprefix=cybex+libelle+stroller%2Caps%2C154&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
-  </si>
-  <si>
-    <t>Out around town, on a whirlwind weekend trip, or exploring faraway places - an extra hand is always helpful for any parent. At the touch of a button on the push bar, the Nuna TRVL™ stroller self-folds into a super-compact, free-standing package - giving you the convenience and mobility you need to discover the world in style.
-The Nuna TRVL™ stroller is ultra-lightweight at just 13.6 lbs.* so it’s easy to carry with the arm bar when folded or go hands-free and store away during travel with the carry bag that’s included. It pairs perfectly with all PIPA™ series car seats, creating a sleek-looking travel system with just a click – no adapters needed. City living or jet-setting parents will love the luxe materials and innovative conveniences of this compact and lightweight travel stroller for miles to go.
-The Nuna TRVL stroller can be used for infants and toddlers weighing up to 50 lbs. in either the travel system mode or stroller mode.
-One-hand, multi-position recline and adjustable calf support for added comfort
-Progressive front and rear-wheel suspension technology provides a smooth ride
-One-handed steering and exceptional maneuverability make it a dream to push and turn
-Water repellent, easy to clean, UPF 50+ canopy provides both coverage and multiple windows
-Quick-release, no-rethread five-point harness for easy adjustments
-Luxe leatherette accented push bar and arm bar lend style to your strolls
-Quick release wheels make for an even more compact fold
-Simple, one-touch, rear-wheel braking system
-The removable and rotating arm bar fits kids of all sizes
-Front swivel wheels with swivel locks
-Easy access basket for storing on-the-go essentials
-GREENGUARD Gold Certified: Products that have achieved GREENGUARD Gold Certification are scientifically proven to meet some of the world's most rigorous third-party chemical emissions standards, and certified to not contribute to indoor air pollution or chemical exposure
-Recommended use: Up to 50 lbs
-Stroller dimensions  L 32.5 in  W 20.25 in  H 44 in  Stroller dimensions (folded, armbar removed)  L 24 in  W 20.25 in  H 11 in 
-Weight: 13.6 lbs (without canopy and arm bar - canopy and arm bar approx. 1 lb.)</t>
-  </si>
-  <si>
-    <t>https://nunababy.com/usa/trvl-easy-fold-compact-stroller?color_ref=16743</t>
-  </si>
-  <si>
-    <t>Polyester
-𝐄𝐂𝐎-𝐅𝐑𝐈𝐄𝐍𝐃𝐋𝐘 𝐌𝐀𝐓𝐄𝐑𝐈𝐀𝐋𝐒: Made with soft, sustainable jersey fabric sourced from recycled plastic bottles, complemented by vegan leather and chrome accents, making this jogging stroller an environmentally responsible choice
-𝐋𝐈𝐆𝐇𝐓𝐖𝐄𝐈𝐆𝐇𝐓 𝐀𝐍𝐃 𝐂𝐎𝐌𝐏𝐀𝐂𝐓: Designed for travel, fly through terminals and city streets with the Jet 4's ultra-compact foldable toddler stroller with featherweight 13.6 lbs design. It fit into overhead lockers on aircraft, ensuring it's ready for any adventure with this baby stroller travel systems
-𝐎𝐍𝐄-𝐇𝐀𝐍𝐃𝐄𝐃 𝐑𝐄𝐂𝐋𝐈𝐍𝐄: The Jet 4's one-handed recline allows you to easily adjust your baby's position, soothe your little one and adjust their position seamlessly with the Jet 4's ingenious single-handed recline, even while holding it in the other arm made it baby trend stroller of all time
-𝐀𝐋𝐋 𝐈𝐍𝐂𝐋𝐔𝐒𝐈𝐕𝐄: The Jet 4's super compact stroller is the only one approved in the USA to include a toddler bar, feature an adjustable footrest, newborn to 55 pounds, and feature a quick, one-hand fold; all while being compact enough to fit all overhead bins on an airplane which make it a best travel stroller for airplane
-𝗡𝗘𝗪𝗕𝗢𝗥𝗡 𝗖𝗢𝗠𝗣𝗔𝗧𝗜𝗕𝗟𝗘: The Jet 4's unique flat recline mode allows you to use the stroller from newborn all the way to 55 pounds - making it last longer and ensure years of happy outings and jogging with this strollers for babies and toddlers
-𝐄𝐗𝐓𝐄𝐍𝐃𝐄𝐃 𝐂𝐀𝐍𝐎𝐏𝐘: Say goodbye to harsh rays and blustery winds with this umbrella stroller. The Jet 4's lightweight baby strollers include a UPF50+ canopy with a mesh viewing window, offering protection from the sun while allowing you to keep an eye on your little one. This makes it the best summer stroller baby travel system for infants, toddlers, and newborns
-𝐀𝐃𝐕𝐀𝐍𝐂𝐄𝐃 𝐒𝐀𝐅𝐄𝐓𝐘 𝐅𝐄𝐀𝐓𝐔𝐑𝐄𝐒: This newborn stroller is equipped with the Genius magnetic buckle system for a secure, easy-to-use, three-click harness that keeps your baby safe and comfortable on the go
-𝐂𝐎𝐍𝐕𝐄𝐍𝐈𝐄𝐍𝐂𝐄 𝐅𝐄𝐀𝐓𝐔𝐑𝐄𝐒: Boasts a large storage basket, flip-flop friendly brake, and anti-crease fabric to ensure this portable stroller stays looking sharp and is easy to manage during travel which makes it the best compact stroller for travel
-Fabric Type	Polyester
-Frame Material Type	Alloy Steel
-Material Type	Polyester
-Features &amp; Specs
-Built-in Light	No
-Is Electric	No
-Harness Type	5 Point
-Stroller Type	Standard Stroller
-Maximum Weight Recommendation	15 Kilograms
-Measurements
-Back Wheel Diameter	74.87 Centimeters
-Item Dimensions L x W x H	23"L x 8.27"W x 12.8"H
-Frame Weight	8.1 Kilograms
-Item Weight	8.1 Kilograms
-Folded Size	7.08 x 11.81 x 21.65 inches</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Silver-Cross-Jet-Lightweight-All-Terrain/dp/B0D5BNPD8M/ref=sr_1_1_sspa?crid=D42IQFGJ1BGK&amp;dib=eyJ2IjoiMSJ9.74iU6uwy3a2Yi74WVsL9QD0IHGhIpcSCAyOqlAjJj5_zrC29j7Vp7KfAgzc8LR0JfhYjriI_4vIZRsjOGoE7JG9-_gjjxoDLUv4Io49bdBCFknpidy0cA8Nqv4BVOsakSZpkk64JhOPUy_QFUWdNuiTZGU-8Yebw6u-P6vgWptZagaolZjsbrWUaL00ZkKRy5We0HMcdgtsyrYQfjCqctLkjGzAuQhKWAdIXYZbqE_I.wRhG-f-4DQpIri5ADrqzIj_EazwKg8aKlMJpH9lSte8&amp;dib_tag=se&amp;keywords=Silver+Cross+Jet+stroller&amp;qid=1727653699&amp;sprefix=silver+cross+jet+stroller%2Caps%2C153&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
-  </si>
-  <si>
-    <t>Polyester
-Imported
-The revolutionary ultra-compact folding mechanism of the Pocket Air All-Terrain reduces the stroller into a handbag-shaped package in seconds and is airplane hand luggage compliant.
-Take to the skies with confidence. The ultra-compact folding mechanism of the Pocket Air All-Terrain is airplane hand luggage compliant, freeing you to travel with your stroller without hassle
-Weighing only 4.6 kg, the Pocket Air All-Terrain is the perfect travel companion. Its super-lightweight frame is easy to man oeuvre, lift and carry. Perfect for the city, on vacation, or just being on the go.
-The backrest of the Pocket Air All-Terrain is designed with a breathable mesh fabric that provides comfort for your child even on hot days. Available as an accessory, a snug padded inlay can be added to the seat unit for additional warmth on cooler days.
-The double wheels of the Pocket Air All-Terrain increase both comfort and usability, allowing parents to confidently man oeuvre on different surfaces and ensuring you'll never get stuck in between cobblestones.
-Product Care Instructions	Spot or Wipe Clean
-Canopy Material	Polyester
-Tire Material	Plastic, EVA
-Seat Material	Polyester
-Fabric Type	Polyester
-Frame Material Type	Plastic
-Material Type	Aluminum/Polyester/Plastic/Rubber
-Features &amp; Specs
-Additional Features	Ultra-compact folding mechanism transforms the stroller into a handbag-shaped package in seconds and is airplane carry-on compliant*
-Seating Capacity	1
-Built-in Light	No
-Is Electric	No
-Is Car Seat Compatible	No
-Harness Type	3 Point
-Stroller Type	Umbrella Stroller
-Specification Met	ASTM
-Installation Type	Freestanding
-Maximum Weight Recommendation	55 Pounds
-Measurements
-Front Wheel Diameter	4.7 Inches
-Back Wheel Diameter	4.7 Inches
-Item Dimensions L x W x H	28"L x 17.5"W x 39.8"H
-Frame Weight	4.6 Pounds
-Item Weight	10.4 Pounds
-Folded Size	11.8 x 7 x 13.8</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Pockit-Terrain-Velvet-Black-Compact/dp/B07S3XDZDV/ref=sr_1_1?crid=363OJ390TG0F&amp;dib=eyJ2IjoiMSJ9.9rnl3fcwUItq_3O1MP3FNJEAvW2vse_ZwLYbkSpYQ8eJTA5dW1Nu2n3UWXrrm3Wt8iTyKGC180MUM7XkJsAuwKqS4OsOer7JjrJKR29es-q5VzqivK-APyqz570pabQw5pGt6TlX2wYVsF6hHXYNPWqfmvkZWLBpHUbavzTx8HkDvm8jJ8dfyTWUARU-_sEr1cuZSpJVGWQt35rymvXkQGORg2vZeMfsIyi57n1yjFU.TDyHvK-MaRR4wux9k1bzXkOFu_dOr8K7imVBgED7NuQ&amp;dib_tag=se&amp;keywords=GB+Pockit+Air+All-Terrain+stroller&amp;qid=1727653726&amp;sprefix=gb+pockit+air+all-terrain+stroller%2Caps%2C137&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>full recline fabric sling seat providing a lie flat mode that is perfect for newborns
-ultra lightweight at less than 6kg / 13lbs with a carry handle and shoulder strap - ideal for travel or the perfect secondary buggy
-easy two-step compact fold designed to fit in many carry-on luggage units or to leave in the car for quick trips
-travel system ready with universal car seat adaptors included to easily attach an infant car seat
-additional newborn comfort when paired with our additional cocoon essential accessory.
-Maximum Weight Recommendation	20 Kilograms
-Features &amp; Specs
-Additional Features	full recline fabric sling seat, built-in universal car seat adapters, travel system compatible
-Built-in Light	No
-Number of wheels	4
-Is Electric	No
-Is Car Seat Compatible	Yes
-Harness Type	5 Point
-Stroller Type	Umbrella Stroller
-Basket Weight Capacity Maximum	2000 Grams
-Front Wheel Diameter	5.5 Inches
-Back Wheel Diameter	41.34 Inches
-Item Dimensions L x W x H	22"L x 19"W x 9"H
-Frame Weight	6.1 Kilograms
-Item Weight	6 Kilograms</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Mountain-Buggy-Nano-Stroller-Black/dp/B085RZJ4QK/ref=sr_1_1?crid=1IHXQEX8M3JDC&amp;dib=eyJ2IjoiMSJ9.CzP-K9WAeCrvlvE76I120RMMcz2fqApAGEcxzJWp1CzrYwgVdAklRWQykwEbYrOd0IjKREfVkGZfbeG2dj0Z_CEts_-nPDUx0lkbt9owr_XL0D9wfLEx9T1Vk9ZrYD5fKC7XiRNLBiLhQ-7i3vuHMx6eYEszlubzRtY8nUwuM-q4oKY7NjJm34DXDokqE01SWTzvnOfEfkLOuGBVEgqdleVI8pdQCY5gCI1GuUNpXwU.1IZ7ohHgXG2neUUM0KMs7H5w5Uftc1DlkE5P7XByd6Q&amp;dib_tag=se&amp;keywords=Mountain+Buggy+Nano+stroller&amp;qid=1727653751&amp;sprefix=mountain+buggy+nano+stroller%2Caps%2C136&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>Ripstop
-Extra Padding for enhanced comfort
-Washable footmuff
-Zip-off panel allows for easy access
-Keeps children warm and cosy
-Covers the entire length of the seat
-Style	‎Modern
-Blanket Form	‎Quilt
-Age Range (Description)	‎Baby
-Product Dimensions	‎34.25"L x 12.59"W
-Theme	‎Weather
-Pattern	‎Solid
-Seasons	‎All
-Fabric Type	‎Ripstop
-Global Trade Identification Number	‎05010902197963
-Manufacturer	‎Maclaren
-Item model number	‎ASE13032
-Is Discontinued By Manufacturer	‎No
-Target gender	‎Unisex
-Batteries required	‎No
-Item Weight	‎8.1 ounces</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Maclaren-Mark-II-Footmuff-Silver/dp/B00QVG24IS/ref=sr_1_1?crid=3T5VM0FCWTBPH&amp;dib=eyJ2IjoiMSJ9.JUGGtWR9yIDYznopB-WqaetD2m_cXyuF_M859rsXYyNNbReeydVKwrUHZae3JfSxBc_AM7dncrSJPNCJgA9PDjsEFa50zeivGmLQ66GjUXI9-ayLvVO53gcXhggmH169Htpbh9hRmhB9DoaQr6ahge5_LpC_D2YmVWgbJqvG370.1Xt8xfflVuQi8OoMx6vrKNF5uqbykd0qdzSVPPTe-08&amp;dib_tag=se&amp;keywords=maclaren+mark+ii&amp;qid=1727653778&amp;sprefix=Maclaren+Mark+II%2Caps%2C160&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>https://bumbleride.com/products/indie-all-terrain-stroller</t>
-  </si>
-  <si>
-    <t>Mesh
-ALL-IN-ONE baby and toddler stroller for growing families, for use from birth with a carrycot or infant car seat and can be expanded to accommodate two and three children
-MODULAR system provides endless possibilities with more than 20+ configurations – enjoy as a full-featured single with shopping basket, make it a double stroller ideal for twins and fit Gazelle S perfectly to your family
-ONE-PULL HARNESS makes it a breeze to load your child in to the seat safe and snug – extra handy if you’re doing it twice
-ERGONOMIC full-size reversible seat with near-flat recline position for little ones, advanced suspension for a smooth ride, and one-hand adjustable-height handlebar for parents
-XXL UPF50+ SUN CANOPY with breathable mesh window protects kids from the sun and keeps them safe and cool in the perfect summer stroller
-LOTS OF STORAGE with included shopper basket and spacious storage underneath equaling 55 lb. of cargo capacity
-COMPACT FOLD with one or two seats attached, for easy travel and storage
-Product Care Instructions	Wash separately. Gentle action wash warm water, do not bleach, do not tumble dry, do not iron, do not dry clean
-Tire Material	Plastic
-Fabric Type	Mesh
-Frame Material Type	Aluminum
-Material Type	Polyester, Aluminum
-Features &amp; Specs
-Additional Features	one-pull harness, babies
-Number of Cup Holders	1
-Harness Type	5 Point
-Stroller Type	Modular Stroller
-Maximum Weight Recommendation	50 Pounds
-Measurements
-Item Dimensions L x W x H	41.9"L x 25.4"W x 427"H
-Item Weight	28.4 Pounds
-Folded Size	32.9” L x 25.4” W x 12.2” H</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Cybex-Stroller-Configurations-Ergonomic-Near-Flat/dp/B0BV7VST15/ref=sr_1_1_sspa?crid=XFKLXJOB7DKH&amp;dib=eyJ2IjoiMSJ9.91pJUuamXJYc_O-HmOad-4pdUBCr7LxeXFnJvmTMknH46661vCpvpLtb635eyXYib5j20U0dBPrx-RUUktTbqC2bt2UeEjrBdnGzjPZYZF1vgPcEfvYBJlxalFwxEYtMyTxl4SRP09wKoPhBLr2ieKx6mmu_5SBL8IkGGOd227uV3V5ZlFVn1_IsIWtFzi_7-RBcIRkiKLQKbPgzF67kOTTFtMBd42WeCWlWSfejgpk.2BoyW1ev-YYmvZmBZYLk2m2srKoWLsue6VqG31qBitA&amp;dib_tag=se&amp;keywords=Cybex+Gazelle+S&amp;qid=1727653941&amp;sprefix=cybex+gazelle+s%2Caps%2C147&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
-  </si>
-  <si>
-    <t>https://greentom.com/greentom-classic?srsltid=AfmBOooJD7IndVkj8guLXNiTttZlHfW3KzWwyeYHym_ulhJcczFGDALL</t>
-  </si>
-  <si>
-    <t>249 Euros</t>
-  </si>
-  <si>
-    <t>RU: bassinet - up to 19 lbs.; stroller seat - babies 6 months up to 55 lbs.
-Coast includes: Magnesium and aluminum alloy frame, bassinet and stroller seat with a tailored fabric set and fully ventilated UPF50+ canopy with viewing window, a marl ombre knit jersey reversible seat liner, soft jersey harness pads, insect net, rain cover, extra large basket and cup holder.
-Create 6 configurations straight out of the box.
-Stroller seat is extra roomy and is suitable for babies 6 months old, up to 55 lbs. It has multiple one-handed recline (full upright, snooze recline and full lie flat), and easily switches between parent facing and forward facing modes. For added baby comfort, it has an adjustable calf rest and integrated footrest.
-Suitable for overnight sleeping, the soft padded bassinet is lined with bamboo fabric, which has antibacterial properties and helps regulate temperature.
-Compatible car seats. Silver Cross car seat adaptors allow you to click Maxi-Cosi Mico 30 and Mico Max 30, Nuna Pipa, Pipa Lite and Pipa Lite LX, Cybex Aton2 and Clek Liing infant car seats directly onto your Coast stroller frame. Car seat adaptors and infant car seats sold separately.
-Coast stroller frame uses the highest quality magnesium, making it extremely strong yet lightweight.
-Four-way independent wheel suspension with puncture proof tires.
-Lockable front swivel wheels for maximum maneuverability feature dynamic spring suspension for a smooth ride.
-Easy step-on step-off brake system is flip-flop friendly
-Stitched leatherette handle can be adjusted to 4 height positions
-Articulating and detachable bumper bar is included for the bassinet and stroller seat
-Accessories are available, giving the option of 27 intelligent configurations for one baby, siblings or twins. Sold separately.
-Product dims (assembled): 24"w x 42.9"d. Handle height 36.2-42.9"
-Product dims (folded): 24"w x 13.4"d x 37"h</t>
-  </si>
-  <si>
-    <t>https://silvercrossbaby.ca/en/product/coast-stroller/SX2164TU</t>
-  </si>
-  <si>
-    <t>Polyester
-Imported
-ALL TERRAIN JOGGING STROLLER: The BOB Gear Alterrain Pro Jogging Stroller rolls over all types of terrain
-TRUSTED DURABILITY: A lightweight yet durable aluminum frame, performance fabrics and reflective rims turn heads on the hiking trail or city street
-SMOOTH RIDE: SmoothShox suspension and air-filled tires balance out the ride for your little adventurer, so you can take on any terrain with this foldable stroller
-DOWNHILL CONTROL: An ergonomic handbrake puts downhill control at your fingertips
-SUN PROTECTION: The canopy is 100% waterproof, windproof and rated UPF 50+ to shield your child from the elements
-EXTRA SPACE: Features an XL, zip-top cargo basket and 5 storage pockets, including a cell phone holder by the handlebar to stow your items securely
-FOLD AND GO: The One-hand, quick-fold design collapses the travel stroller to a self-standing position with a single twist of the hand
-COMFY RIDE: Ultra-padded compression seat with infinite recline sits fully upright for all-day comfort and lays near-flat to relax
-VERSATILE CONTROL: Adjustable padded handlebar, adjustable front wheel tracking and swivel-locking front wheel offer easier control
-PEEK-A-BOO WINDOW: Magnetic “peek and chat” window keeps your child cool and lets you chat without stopping
-Product Care Instructions	Sponge area with a solution of lukewarm water and mild soap. Rinse thoroughly with clean water to remove all soap and allow to dry. Do not use detergent.
-Tire Material	Pneumatic
-Fabric Type	Polyester
-Frame Material Type	Aluminum
-Material Type	Pneumatic
-Features &amp; Specs
-Additional Features	Storage AreaCanopy, Folds for Easy Transport and Storage, Adjustable Handle, One-Hand Fold, Hand Operated Brakes
-Seating Capacity	1
-Number of wheels	3
-Harness Type	5 Point
-Stroller Type	Jogging Stroller
-Specification Met	certified frustration-free
-Maximum Weight Recommendation	75 Pounds
-Measurements
-Front Wheel Diameter	12 Inches
-Back Wheel Diameter	16 Inches
-Item Dimensions L x W x H	46"L x 25.5"W x 45.5"H
-Item Weight	32.3 Pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/BOB-Gear-Alterrain-Jogging-Stroller/dp/B07XV1WLSC/ref=sr_1_1?crid=1K29QMKVH92CW&amp;dib=eyJ2IjoiMSJ9.I0mDQvK7dy_oDZd8BM3kByYF_l3cYc8A3DNkH4lhT0qky2DRa8dyuCIItTH-qOYzCnlEb1uqQy_5cJrxaIeTlM2jOhjK0CD-jr4aunnzu3A3JyRJwBfNAVbfBxoE21IPFB3s2K_aeAmHmR6egCCBvR43wZEwqgMTgJViP2KGpJTTVrn4QfAylfKOZCN0BDqz.AyHbY80N9Uv6Otglb0PuwKTeUseWFFxEXrat_T_4uWE&amp;dib_tag=se&amp;keywords=BOB+Gear+Alterrain+Pro+stroller&amp;qid=1727654117&amp;sprefix=bob+gear+alterrain+pro+stroller%2Caps%2C139&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>Polyurethane Foam Pad 100%/ Aluminum Frame
-One-Hand, Quick Fold makes it easy to store and go
-Ventilated Sidewalls improve air flow to keep baby cool; Athleisure Seat Liner wicks away moisture to keep baby dry; removable for easy cleaning
-Tire Material	Rubber
-Fabric Type	Polyurethane Foam Pad 100%/ Aluminum Frame
-Frame Material Type	Aluminum
-Material Type	Aluminum
-Features &amp; Specs
-Additional Features	Ventilated Sidewalls, Breathable Canopy, Quick Fold, Reflective Trim
-Built-in Light	No
-Number of wheels	3
-Is Electric	No
-Is Car Seat Compatible	Yes
-Number of Cup Holders	2
-Harness Feature	Adjustable Straps
-Harness Type	5 Point
-Stroller Type	Jogging Stroller
-Installation Type	Freestanding
-Maximum Weight Recommendation	65 Pounds
-Measurements
-Basket Weight Capacity Maximum	65 Pounds
-Front Wheel Diameter	6.5 Inches
-Back Wheel Diameter	10 Inches
-Car Seat Weight	65 Pounds
-Item Dimensions L x W x H	44"L x 24"W x 42"H
-Item Weight	22 Pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Britax-B-Free-Sport-Stroller-Asher/dp/B0CP2Z7JYW/ref=sr_1_1?crid=10WG6F36TFPC6&amp;dib=eyJ2IjoiMSJ9.Gg5uNHrIbPoZZltHEB1OZXxX3ovWoiUhgkp5N7NTUKr7Y729xRbastie3Wexuh7UgX4fdfDXhmxXdih8j9sfo8ufkT0Cd68knqcrtqm-ivJuU_CCCsUILh-eqeY4PWkSp3jxjdO-4jZpddGVH4mtkvJKhVwPVJ93ZcJFIO5iMlxJClUSl_qOHrQ0t6Cgvwrjnp8xKMQkBLN7UkoS1rX15brcyeORTm0xSr7TCv-PYA0.abm_AyWdkCXbYSBpqPfx-3mDEaFjf7tHnoePvtMe3XQ&amp;dib_tag=se&amp;keywords=Britax+B-Free+stroller&amp;qid=1727654151&amp;sprefix=britax+b-free+stroller%2Caps%2C135&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>Nylon
-THREE POSITION SWIVEL LOCK FRONT WHEEL - Provides maximum control and maximum performance on any terrain while walking or jogging. Swivel, lock forwards, lock backwards or adjust the "play" to personalize your push
-ONE-HAND CONTROL SQUEEZE BRAKE - for hilly adventures and rough terrain;SHOCK ABSORBING SUSPENSION - a smooth push for mom and dad and a smooth ride for your baby
-NEWBORN READY IN THREE MODES - Newborn perfect reclinable seat, compatible with the Mountain Buggy Carry Cot+ in matching fabric (sold separately) and infant car seats from most major brands (sold separately) allow you to use the Terrain from birth until your ready to run
-ACCESSORIES INCLUDED - Reversible liner, two bottle holders, bumper bar and additional 12" rear wheel set to make your Terrain perfect for city strolls; COMPACT AND SIMPLE ONE HAND STANDING FOLD - for easy storage at home or in the car
-WATER-RESISTANT FABRIC - makes care and cleaning a breeze; SO MUCH STORAGE;Sunhood pocket with headphone port, mesh pockets in the seat, and zip-top gear basket
-REVERSIBLE LINER - seat liner is reversible
-Fabric Type	Nylon
-Frame Material Type	Alloy Steel
-Material Type	Nylon, Alloy Steel
-Features &amp; Specs
-Built-in Light	No
-Is Electric	No
-Harness Type	5 Point
-Maximum Weight Recommendation	65 Pounds
-Measurements
-Item Dimensions L x W x H	24.8"L x 15.3"W x 36.6"H
-Item Weight	28.5 Pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Mountain-Buggy-Terrain-Premium-Stroller/dp/B00Z6JLFFO/ref=sr_1_1?crid=159FV3OWJSPL6&amp;dib=eyJ2IjoiMSJ9.gKLPoxRp6_PS_r4NsbFOTr4qO8L71AZd6OTwVmngp4Z4bhZ5FEROAleM63YFqeHaF1OmByF7X2j0k-SFOgSzhy0i3IeX2GdE8bqJXiNP54VTwsAfCOEh70uwIAPUvOOhToOG8jyfi-14rluY-ykvHHBlms_N0bspl_4rcxJTtr6Tavdt1mkL_H-dTbD7LuGhYF0tbYmUaCjL9n_FkkT6uir1aJMl3hyuk5eT-XdBDDc.XCn-8SdisD2yUURUGCMaWD73pBqs3pf9-lfQb_UUYjI&amp;dib_tag=se&amp;keywords=Mountain+Buggy+Terrain+stroller&amp;qid=1727654182&amp;sprefix=mountain+buggy+terrain+stroller%2Caps%2C141&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>Meet the PIPA urbn and DEMI next travel system with TWO PIPA urbn car seats. It's a game-changer for the modern family traveling with twins or doubles.
-Crafted for the confident parent who demands the best, the DEMI next stroller is a statement in style, comfort, and convenience. It grows with possibilities, providing everything you need and more. The PIPA urbn infant car seats pair seamlessly with the DEMI next and redefine travel with a baseless installation, ensuring secure transitions for both babies in seconds.
-Elevate your family's journey with this ultimate fusion of style, security, innovation, and comfort– because you and your babies deserve the very best.
-Forward and rear-facing seat options
-One-touch rear-wheel braking system for scuff-free shoe control
-Custom dual suspension™ provides a nice, smooth ride
-Wide, swivel-lock front wheels make it a master of smooth riding motion
-One-hand adjustable calf support and footrest to accommodate growth
-Self-guiding MagneTech secure snap™ buckles automatically lock into place
-Quick-release 3 to 5-point harness makes it easy to fasten them in
-Fenders and built-in hub caps protect from dirt and debris
-Easily removable premium Merino wool insert provides ultra-soft comfort
-Eye-to-eye connection is easier with the elevated seat level
-Rotating and removable armbar fits kids of all sizes
-Water-repellent UPF 50+ Aire protect canopy™ protects from the elements
-Built-in privacy drape and ventilation panels in the canopy for ideal airflow
-All-season seat keeps baby cozy in winter and easily converts to mesh in summer
-Tires are tough, foam-filled, and ready for any terrain
-No-rethread harness makes it easy to adjust for comfort and growth
-Large basket with 22 lb capacity holds everything you need for the journey
-Adjustable pushbar with luxe leatherette accents to accommodate varying heights
-Included rain cover for when the weather doesn't cooperate
-Compatible with the DEMI next sibling seat and DEMI next bassinet
-Rider board
-Two swivel wheels for easy maneuvering
-Holds up to 50 lbs
-Flips into the stroller basket when not in use
-Folds with stroller
-PIPA urbn
-Auto-reclining foot that aids in proper installations in vehicles
-European belt path for vehicle belt installations
-Aeroflex™ foam that is cleverly lightweight, resilient, and minimizes force transferred to baby by absorbing and diffusing energy
-Side Impact Protection for ultimate baby safe keeping
-Five-point harness keeps travels secure
-Sky drape™ pulls down smoothly and attaches quietly with magnets
-Full-coverage UPF 50+ canopy is extendable and features a flip-out eyeshade and XL peek-a-boo window
-From fabric to foam and beyond, each element is smartly sourced to be both flame resistant and contain no added fire-retardant chemicals
-Integrated magnetic buckle holders help keep straps out of the way when buckling baby in
-Head support includes a 2-layer soft surround to accommodate smaller babies
-Infant head support and body inserts feature environmentally friendly Merino wool and TENCEL™ *** branded lyocell fiber blend that is soft, naturally controls moisture, and is environmentally friendly
-Machine washable seat fabrics and inserts
-Luxe leatherette carry handle for stylish journeys
-FAA certified for aircraft use
-All installation types are baseless- no base needed
-Not compatible with PIPA™ series base or RELX™ base
-Set of included anchor guides make it easy to locate and install on the lower anchor bars in vehicle
-GREENGUARD Gold Certified: Products that have achieved GREENGUARD Gold Certification are scientifically proven to meet some of the world's most rigorous third-party chemical emissions standards, and certified to not contribute to indoor air pollution or chemical exposure
-Birth to 50 lbs
-Weight: 26 lbs without insert, canopy, and armbar (insert, canopy, and armbar approx. 3.4 lb)
-Stroller dimensions: L 39.5 x W 24 x H 49 in
-Stroller dimensions (folded): L 23.5 x W 24 x H 35 in</t>
-  </si>
-  <si>
-    <t>https://nunababy.com/usa/demi-next-two-pipa-urbn-travel-system?color_ref=16366</t>
-  </si>
-  <si>
-    <t>New Features - The Donkey 5 features an improved fold and unfold with ergonomically designed buttons, a higher seat and bassinet position to allow you to have a closer reach to your little one, and integrated attachment points allow for easy use with accessories such as our Cup Holder and Comfort Wheeled Board
-Effortless Expansion - The Donkey 5 Mono accommodates a single child from birth and transforms side-by-side to meet your growing family's needs into a Duo for two children (Duo Extension Set, sold separately) or Twin (Duo Extension Set and Twin Bassinet - sold separately)
-Breezy Bassinet - A sleek bassinet design with new ventilation system will keep your baby comfortable and regulate their temperature. The soft transparent mesh allows your baby to discover the world or their siblings in Duo and Twin mode
-Ample Storage - In Mono mode you have the extendable side luggage basket - perfect for babies essentials and more! The underseat basket also extends in Duo/Twin mode so you don't have to comprise on storage
-Travel System - The Donkey 5 easily integrates with selected car seats with the use of our car seat adapters (sold separately), made for both Mono/Duo and Twin mode
-Material Type	Metal
-Measurements
-Basket Weight Capacity Maximum	24.25 Pounds
-Bassinet Weight	15 Pounds
-Back Wheel Diameter	12 Inches
-Item Dimensions L x W x H	30"L x 24"W x 72"H
-Item Weight	50 Pounds
-Installation Type	Freestanding
-Maximum Weight Recommendation	22 Kilograms
-Features &amp; Specs
-Additional Features	Improved fold and unfold with ergonomically designed buttons
-Seating Capacity	2
-Built-in Light	No
-Number of wheels	4
-Is Electric	No
-Is Car Seat Compatible	Yes
-Harness Feature	Adjustable straps, possibly with padding
-Harness Type	5 Point
-Stroller Type	Standard Stroller</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Bugaboo-Donkey-Complete-Side-Side/dp/B0BZZH1K79/ref=sr_1_1?crid=3ERW7WJLNB5VI&amp;dib=eyJ2IjoiMSJ9.7UYCaQF5fWV1z6AuNddPvC5xVcFzwegpAqMgNO97WxXpDRPKOgYgIKsLVS6RnGt32rjwBbE2upGmbW4IxagF3-olaHCMOfs6s-XCdcplsbZsVTudnz6EmDtAEo5ZzCFDlsrBc9VYM-tsAHSQ3izKhiJfQo8QqWTWaE-bEDY7dRqTH1-MIRu7PoP8JETNisQIBiXyBZsVBr1LU_f-0pu2lFL-O4BwLlp79dTlly6eRzc.ReHR_Ai7XINgZT4g-BP-q3t0tErGN3HUFPFqzla4ASU&amp;dib_tag=se&amp;keywords=Bugaboo+Donkey+5+stroller&amp;qid=1727654346&amp;sprefix=bugaboo+donkey+5+stroller%2Caps%2C142&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100% Polyester
-Imported
-MAKE IT A DOUBLE: The easy slide and lock system expands the frame in seconds to accommodate a second toddler or infant car seat without tools, extra parts or adapters
-SWITCH IT UP: Toddler seat transitions to lay flat carriage mode, allowing baby to stretch out, while the adjustable canopy offers three heights to fit kids up to 43 in.
-STROLL EFFORTLESSLY: Large cruiser tires with front-wheel swivel and rear-wheel suspension ensure a smooth ride
-GO OR STOW: Extra-large storage basket expands to over 2 feet in length with easy access front and back to hold a diaper bag and all the day’s essentials. When not in use, stroller folds compactly and self-stands with toddler seat attached for convenience
-ACCESSORIZE IT: Compatible with Evenflo’s LiteMax Infant Car Seats (sold separately), the stroller also accommodates several other brand models when used with Evenflo Infant Car Seat Adapter (sold separately). Additional accessories include the Pivot Xpand Stroller Second Seat (sold separately), Stroller Rider Board (sold separately), Evenflo Stroller Child Snack Tray with Snack Cup (sold separately), and Pivot Xpand Stroller Market Basket (sold separately)
-Product Care Instructions	Clean minor spills and stains on cloth, vinyl or plastic surfaces with cold water and mild soap. Air dry. On models with removable seat pads, machine wash them separately in cold water–delicate cycle. NO chlorine bleach. Tumble dry 10 – 15 minutes on low heat, remove immediately. DO NOT iron or dry clean. Metal and plastic parts can be wiped clean with a soft damp cloth and dried with a soft cloth. DO NOT use abrasive cleaners.
-Canopy Material	100% Polyester
-Tire Material	Rubber
-Fabric Type	100% Polyester
-Frame Material Type	Metal
-Material Type	Polyester
-Features &amp; Specs
-Seating Capacity	2
-Is Electric	No
-Number of Cup Holders	1
-Harness Feature	5-point harness with standard adjustable straps
-Harness Type	5 Point
-Installation Type	Assembly for Initial Use
-Maximum Weight Recommendation	55 Pounds
-Measurements
-Item Dimensions L x W x H	39"L x 26.5"W x 39.25"H
-Item Weight	30.2 Pounds
-Folded Size	26.5" W x 23.75" D x 33.75" H
-</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Evenflo-Pivot-Modular-Stroller-Sabino/dp/B0BRMC94T6/ref=sr_1_1_sspa?crid=3NPZLN4KZFODU&amp;dib=eyJ2IjoiMSJ9.prDIFNaigid5QMx7CSGpaxnzq5hnZ9j2kOyvc2XkXqKuKXvt2LQMmzMPNrpjU-pCbsNqrXGOWHsRaTzRmaK1WgYLdbRgWjhkvOHPMKY_FVR3VY5GPhDpLc7kaO7Wbz2RR2DEkhFXcs5hVtiFDdZIVHbToWEYmyYHIRRk0m86hTwJMnpF3MqrCtJ_KubmhYvnv9Wmht52kvzxliNC4Gh5flv34elUGMZsv0kw_U7CPLA.kR_WrjmLCDyzYRPiN3nFva-O-rVddRDdZxIQqifvTEo&amp;dib_tag=se&amp;keywords=Evenflo+Pivot+Xpand+stroller&amp;qid=1727654367&amp;sprefix=evenflo+pivot+xpand+stroller%2Caps%2C145&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
-  </si>
-  <si>
-    <t>Polyester
-Made in the USA or Imported
-Converts from a single to a double stroller by adding a sibling seat, bassinet or car seat adapters
-Use from birth with Thule Sleek Bassinet or car seat adapter (sold separately)
-Shock-absorbing 4 wheel suspension for a smooth ride
-Extendable ventilated canopy with UV protection (UPF 50+)
-No-puncture foam-filled 11" rear tires and swiveling front wheels that can be locked into place
-Simple compact fold with auto lock
-Large expandable cargo basket with zip-top cover
-Comfortable large seating area with adjustable footwell
-Reclining and reversible seat
-Accessory Car seat adapters (sold separately) fit all major brands including Nuna, Maxi-Cosi, Chicco, Cybex
-Tire Material	Rubber or Plastic
-Seat Material	Polyester
-Fabric Type	Polyester
-Frame Material Type	Aluminum
-Material Type	Polyester, Aluminum, Plastic
-Features &amp; Specs
-Additional Features	Convertible, Use from Birth, Shock-absorbing Suspension, Extendable Canopy with UV Protection, No-puncture Tires, Simple Compact Fold with Auto Lock, Large Expandable Cargo Basket, Comfortable Large Seating Area with Adjustable Footwell, Reclining and Reversible Seat, Accessory Car Seat Adapters
-Number of wheels	4
-Is Car Seat Compatible	Yes
-Harness Type	5 Point
-Stroller Type	Modular Stroller
-Maximum Weight Recommendation	33 Pounds
-Measurements
-Stroller Seat Weight	25 Pounds
-Frame Weight	28 Pounds
-Item Weight	28 Pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Thule-Sleek-City-Stroller-Melange/dp/B07BQPTXRH/ref=sr_1_1?crid=2V2UJ7BTOV1ML&amp;dib=eyJ2IjoiMSJ9.xoVX6x6UzvBssrTSPPuoXNd1oCzykUt0M8a7uXD2pfhJxj--Op5BG8vmD_mQ0UZX9AhblVYEEC6TxqeM9woMuWcNnVX7T3B-AwTpa4qE4o1S_OfAXD4vPXrnEYTXqoOaFnrXG6nCzc4CKLf9kHzqKXY0QxDjrkgWPd4OMdgGSlQ-Qjpb8i0nVQZKGKsmIgEoTru-pZockPH8cFbjSlEzP75UW97Kfh7KjwVovMcngj0.YjnqxNiU09QkfqUkacBFUvG7FhPk7aLj_YyRzOXKe58&amp;dib_tag=se&amp;keywords=thule+sleek+stroller&amp;qid=1727654387&amp;sprefix=thule+sleek+stroller%2Caps%2C143&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>COMPLETE: The Joolz Day+ comes with a chassis, front and rear wheels, carrycot, reversible ergonomic seat, extended sun hood, bumper bar, 11 lbs shopping basket &amp; rain cover—ready for any adventure.
-ERGONOMIC: The seat offers a supportive backrest, side cushioning, adjustable footrest, and a quick 5-point buckle. The reversible seat allows your baby to face you or the world as they grow.
-COZY: The carrycot includes a breathable mattress, soft head cushion, UPF50+ sun hood, and a secret storage pocket, offering a snug, safe, and comfortable space for your newborn’s best comfort.
-EASY: Steer with ease using just one hand and fold into a one-piece standing position for compact storage. Integrated LED lights and a high 43.7-inch handlebar offer convenience and safety.
-SUSTAINABLE: Made from recycled plastic bottles, the eco-friendly Joolz Day+ stroller includes a rain cover and an 11 lbs shopping basket for ultimate convenience in any weather or situation.
-Product Dimensions	‎33 x 23.4 x 39 inches
-Item model number	‎461105
-Maximum weight recommendation	‎50 Pounds
-Material Type	‎Fabric
-Care instructions	‎Hand wash: clean the fabric with tepid water and soap to prohibit fading of colors. After this, rinse thoroughly with clean water and let it dry.
-Additional product features	‎Reversible Seat, Extendable Canopy UPF 50+ sun protection, All-weather extended sun hood, Breathable mattress for bassinet, Height-adjustable leatherette handlebar, One-hand operation for adjusting footrest and recline function, Spacious shopping basket with a 5kg capacity, Lightweight wheels and all-wheel suspension, Integrated LED lights in the front and back, Rotatable bumper bar, Add-on board for older toddlers, One-touch brake and lockable swivel wheels
-Number Of Items	‎1
-Batteries required	‎No
-Specification met	‎EN 1888-2
-Forward-facing maximum child weight	‎50 Pounds
-Harness type	‎5 Point
-Seating capacity	‎1
-Tire material	‎Rubber
-Item Weight	‎34.6 pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Joolz-Day-Stroller-One-Hand-Comfortable/dp/B0968RTVGB/ref=sr_1_3?crid=3NSLCWQOBJ016&amp;dib=eyJ2IjoiMSJ9.i3BvVTblXlLPqil2NjqC2TeZ4-zf3uMoYVOyMtVDTLUSzde1KRdrTDg8hoCLI_7mS4ftPHpeb5chlwfjVUw5xhTMWUmL0nwecm2OcYyQ9CF1pkZwRcweK8iu7YAAQZNvSKXTgrJBgeBzBwW8TNJQ6A0zudzuiVvuriw-RZL0jukiYjDL4Jzr3UCuhzn-KDIXcsORUwUosSksPWfau0DtODWzFFZu8hKKzqh3DI9tUzg.8KrWVAVADH45m2Oer47ZG8bfqobW1oe0afMP7ov8V3Y&amp;dib_tag=se&amp;keywords=Joolz+Day%2B+stroller&amp;qid=1727654413&amp;sprefix=joolz+day%2B+stroller%2Caps%2C129&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t>Mesh
-Imported
-A lightweight and compact stroller for everyday use
-Quick and simple one hand fold
-30% smaller than traditional 3-wheel strollers
-Compact fold and self-standing capability to easily carry, transport and store
-Adjustable, vented canopy with UPF 50+ UV protection
-Swiveling front wheel with suspension can be locked into a fixed position
-Reclining seat with 5-point padded harness
-Step-in footrest for older children to climb into the stroller on their own
-Lightweight design: 22 lbs; Child weight capacity: 64 lbs
-Meets Disney size requirements: 23.4 in W x 35.2 in L x 38.6 in H
-Item Package Dimensions L x W x H	‎28.03 x 18.58 x 12.44 inches
-Package Weight	‎13.36 Kilograms
-Item Dimensions LxWxH	‎35.2 x 23.4 x 38.6 inches
-Item Weight	‎5.3 Kilograms
-Brand Name	‎Thule
-Warranty Description	‎Limited Lifetime
-Model Name	‎Spring
-Color	‎Shadow Grey
-Material	‎Aluminum
-Suggested Users	‎unisex-baby
-Number of Items	‎1
-Manufacturer	‎Thule
-Part Number	‎11300102
-Included Components	‎Stroller
-Size	‎One Size</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Thule-Spring-Stroller-Shadow-Model/dp/B08324RH6B/ref=sr_1_1?crid=1X0LHGJ4U2OCV&amp;dib=eyJ2IjoiMSJ9.FY_wc36SGr-iAIWTNYnmQE-vbE17PLT7-fBqwCCWXf5Kv-GQJnQhUipHwR74qABqaqzDj-2loz9-ZgqJ10cF-NGAmb7hGOrX6TeAozRR4YVWjEnxDb6AjmlgNx2J1b7SgxjUMNsrEkLQmR4maM7gjC4fUSnwqY9MXq7SStyI3rbixla7_rMAW_rBeNZAIwMz6B7lPoi0mC_STUumul_r5WMcAX6ZK8EqpMj_juPGNZY.JFY4B5y3866irMAwSzpPMyrovPVdvMy8oUS0fsiSz1w&amp;dib_tag=se&amp;keywords=Thule+Spring+stroller&amp;qid=1727654440&amp;sprefix=thule+spring+stroller%2Caps%2C126&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>Polyester
-Imported
-Versatile design, no flat rubber tires, and double seating with the same mobility as a single stroller
-Quick fold with 1 or 2 seats attached; 12 seating options when paired with the B Ready Bassinet, Britax Infant Car Seats, or B Ready Second Seat (all sold separately)
-Travel System ready: compatible with all Britax and BOB infant car seats
-Extra large UV 50+ canopy, adjustable handlebar, 4 recline positions, and oversized storage basket
-Fit: Birth to 55 pounds; maximum unfolded stroller dimensions 44 L x 24 W x 43.25 H inches
-Fabric Content: Body: Polyurethane Foam Pad: 80 percent, Polyester Fiber Batting : 20 percent
-Product Care Instructions	Hand Wash, Line Dry
-Tire Material	Rubber
-Seat Material	Polyester / Polyurethane Foam
-Fabric Type	Polyester
-Frame Material Type	Possibly Rubber or a similar material
-Material Type	Foam
-Maximum Weight Recommendation	55 Pounds
-Measurements
-Bassinet Weight	15 Pounds
-Item Dimensions L x W x H	44"L x 24"W x 43.25"H
-Item Weight	30 Pounds
-Features &amp; Specs
-Additional Features	Puncture Proof
-Built-in Light	No
-Number of wheels	4
-Is Electric	No
-Is Car Seat Compatible	Yes
-Harness Feature	Comfort padding, Easy-to-use buckles, Secure energy-absorbing materials, Adjustable straps, Multiple harness height positions
-Harness Type	5 Point
-Stroller Type	Modular Stroller</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Britax-B-Ready-G3-Stroller-Pistachio/dp/B07GBJR38J/ref=sr_1_1?crid=AR05T8CRJ6C5&amp;dib=eyJ2IjoiMSJ9.Bv7H-_BqDXEsNC2zvQ53kKAPbKFcNnFQ5WeeZvotTqwW_3Phxrdep13KsfvZDY_jCR80G8rH7nsoRLujjKWiw_oLwfVkM2pTA0nMMvtR7AhLC3I8T_w1USN84tbeHq0w86S09RZW0mjKq02hWuoKZXBwYUP62ElabeGmvVZ9ERoya_tyZVs9m_6y_SstGQdPSr8MuLjCBHJ5FFRNR4WWuoCudVf_5ASaYndaRr1dR6w.a11oVYnDOphKBaxyooY_JocXHbeGK8kGyr1Ji9Vevo8&amp;dib_tag=se&amp;keywords=Britax+B-Ready+G3+stroller&amp;qid=1727654464&amp;sprefix=britax+b-ready+g3+stroller%2Caps%2C140&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>Polyester
-INCLUDES MICO LUXE INFANT CAR SEAT: This baby carseat and stroller set allows for seamless transition from car to stroller with a lightweight seat that also boasts a contoured, vegan leather-trimmed handle.
-5-IN-1 CHOOSE FROM 5 MODES Stroll 5 different ways in this versatile car seat and stroller combo. The Zelia2 Luxe 5-in-1 Modular Travel System switches easily between parent-facing car seat caddy, reversible carriage, and reversible stroller.
-PREMIUM MATERIALS FOR COMFORT &amp; DESIGN The Mico Luxe car seat and baby stroller combo features premium, plush PureCosiTM fabric made without added fire retardants. Shell is designed with our innovative ClimaFlowTM technology to help keep your baby cooler.
-MAXSHADE CANOPY FOR PROTECTION: This car seat stroller combo features a MaxShade canopy which not only protects your child from UV rays but also allows you to view your child through its zip-extend mesh panel.
-COMPACT STROLLER FOR EASY STORAGE: The infant travel system is designed for convenience with its easy-to-fold, self-standing compact stroller, perfect for storage and making transitions smoother between home, car, and strolls.
-Canopy Material	Fabric
-Tire Material	Plastic
-Fabric Type	Polyester
-Frame Material Type	Metal
-Material Type	Aluminum
-Features &amp; Specs
-Additional Features	5-in-1 Modular Design, Large Canopy with Peekaboo Window, Side Impact Protection
-Built-in Light	No
-Number of wheels	4
-Is Electric	No
-Is Car Seat Compatible	Yes
-Number of Cup Holders	1
-Harness Type	5 Point
-Stroller Type	Modular Stroller
-Maximum Weight Recommendation	50 Pounds
-Measurements
-Rear Facing Car Seat Maximum Height	32 Inches
-Front Wheel Diameter	7 Inches
-Back Wheel Diameter	7 Inches
-Rear Facing Stroller Maximum Height	32 Inches
-Item Dimensions L x W x H	40.7"L x 26.6"W x 44.1"H
-Item Weight	46 Pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Maxi-Cosi-ZeliaTM%C2%B2-Modular-Travel-System/dp/B0CBW18GDW/ref=sr_1_1?crid=3AEOCSTUBKIIE&amp;dib=eyJ2IjoiMSJ9.7zDOQ5W83rXcmiQr6NQ1ED73-wiBcJs4lHvTU26jA4-_PlQoXX4OeXoLOBKWsLf5sbFwKebosPMqOOxWsJ5IPfbYk2A0nhpz1oNlSDvGukCyVzTZBB26ma-99idMao9zCQB5kaPzJVH9bizZfxysfRYI2DzdqXdJxf3YBKLM6kLYE1uK3hZmKjnAhgrGqCbv652egZibWKOj0vcc_OTqhwY3o6zxyDu69h_GZBSFhwA.XQza3DBflxk-Uo2cvwJCzJpPpbFEeCObZAX41Ihuyo0&amp;dib_tag=se&amp;keywords=Maxi-Cosi+Zelia+stroller&amp;qid=1727654482&amp;sprefix=maxi-cosi+zelia+stroller%2Caps%2C138&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>100% Polyester Blend
-Imported
-Made in Italy. Innovative design allows for quick and easy folding and closes inward, always keeping upholstery clean.
-The Ypsi converts from a Single Stroller to Double Stroller with the Ypsi Double Adapters and Companion Seat (both sold separately)
-Wheels with ball bearings and suspension allow for 360 Degree agility and less effort in pushing,
-Reversible stroller seat with three adjustable backrest positions: sitting, relaxing and resting
-Travel system compatible with Primo Viaggio 4-35 Nido and Primo Viaggio 4-35 Lounge car seats (sold separately)
-Product Dimensions	‎40.55 x 23.5 x 45.66 inches
-Item model number	‎IP2400NA00GU13MO13
-Maximum weight recommendation	‎50 Pounds
-Material Type	‎Polyester, Aluminum, Plastic
-Additional product features	‎Adjustable Canopy, Reversible Seat, Adjustable Height, Swivel Wheels, 5-Point Safety Harness
-Style	‎True Black
-Batteries required	‎No
-Harness type	‎5 pt
-Seating capacity	‎2
-Tire material	‎Polyurethane
-Folded size	‎18.7 x 23.5 x 33.85
-Item Weight	‎25.9 pounds
-Country/Region of origin	‎Italy</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Peg-Perego-Ypsi-Compatible-Bassinets/dp/B0CRWNW5Y9/ref=sr_1_1?crid=12U0DL3E3848S&amp;dib=eyJ2IjoiMSJ9.OEvQBOn5CaZQmJEyqLc9LKDtQw4M5rnQPwzsK8u7V-8q2z6wUskqtM22odMP7Qvuvo-YRzDfpBBbpqYaMtNKXHPu3cQg9os_Pe6PzezGTbdM708J_dfI6LYWlrMaGKaARHTv_dUqJyG9qJM02Qa9-vTnxR6gXYoiYiNow_a47wbrA-TV5WjEpVlKCRlE5tDE-sabni0gdcIKetLK6-LevKs9OyysqtWj-rxyPQgWq_Y.01WYLiWNm6ygYmmO4TubIoeEN2tPvDbAjUUDV71E0Lc&amp;dib_tag=se&amp;keywords=Peg+Perego+YPSI+stroller&amp;qid=1727654504&amp;sprefix=peg+perego+ypsi+stroller%2Caps%2C139&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>Polyester
-INCLUDED TODDLER SEAT: The full size, reversible Toddler Seat allows your growing child to ride forwards, backwards, completely upright, reclined, and anywhere in between.
-INCLUDED BASSINET: The included Bassinet is suitable from birth up to 20lbs. The Bassinet includes a perforated mattress pad and vented base which provides added breathability, creating a truly comfortable and safe resting space for your baby.
-ONE-HANDED RECLINE: The multi-position recline on the Toddler Seat allows your child to lie comfortably for naps or sit upright to take in the sights, offering the flexibility your busy toddler needs.
-EXTENDABLE, UPF 50 plus CANOPY: The zip-out canopy on the Toddler Seat extends for additional sun protection, plush the mesh panels make it easy to peek in while adding airflow.
-EXTRA-LARGE, EASY-ACCESS BASKET: The extra-large opening means it’s easier to reach your diaper bag, toys, and whatever else you pick up along the way, up to 30 lbs.
-PATENTED TWO-STAGE SYSTEM: The All-Wheel Suspension and independent shocks ensure your child has a smooth and comfortable ride whether traveling down winding paths or over bumpy pavement.
-STANDS WHEN FOLDED: The Vista one-step fold is easy and intuitive. The stroller stands on its own when folded and can be folded with or without the Toddler Seat attached.
-STROLL IN STYLE + GREENGUARD GOLD CERTIFIED: Supporting healthier air quality &amp; low chemical emissions. Luxurious fabrics &amp; REACH certified full-grain leather details; adjustable, telescoping handlebar which extends for parents of varying heights.
-Product Care Instructions	Hand Wash Only
-Canopy Material	Polyester
-Tire Material	Rubber
-Seat Material	Polyester
-Fabric Type	Polyester
-Frame Material Type	Aluminum
-Material Type	Leather
-Features &amp; Specs
-Additional Features	Performance Travel System Compatibility
-Seating Capacity	3
-Built-in Light	No
-Number of wheels	4
-Is Electric	No
-Is Car Seat Compatible	Yes
-Harness Feature	Adjustability and added safety
-Harness Type	5 Point
-Stroller Type	Modular Stroller
-Rear Facing Maximum Weight	30 Pounds
-Maximum Weight Recommendation	55 Pounds
-Measurements
-Basket Weight Capacity Maximum	30 Pounds
-Stroller Seat Weight	7 Pounds
-Bassinet Weight	8.8 Pounds
-Back Wheel Diameter	12 Inches
-Item Dimensions L x W x H	36"L x 25.7"W x 25.7"H
-Frame Weight	20 Pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/UPPAbaby-Vista-V2-Stroller-Charcoal/dp/B08Y71CS68/ref=sr_1_1_sspa?crid=31XQJ1TCXNSZH&amp;dib=eyJ2IjoiMSJ9.l7SkfNlN8IqWncT6EBkft2h37cqQe8AsZCmVYlJvkEpxcnWjciFD1jIt2HSdFV9tL8sy8WjP_Bnw2yRbrpLBgwYhAMNM1fA-i_LNCJW_KzgKoH27L-4x6wWxIKlCXQ_tvnVu77UKbXOH_yBolTVfsm3H0k9SserKvqCL8w2pMKKBRpmJx6JAC0kX7-9LsJa8RVs5ncj3OzTPy6d-rs023kZo6gbCiYoRrn7uIff7tQg.VqEOMf91R7H7yBzD2jXW6ijAeNDmDaRBYaV1AdoU1DM&amp;dib_tag=se&amp;keywords=UPPAbaby+VISTA+V2+-stroller&amp;qid=1727654526&amp;sprefix=uppababy+vista+v2+-stroller%2Caps%2C141&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
-  </si>
-  <si>
-    <t>Polyester
-Imported
-3 strollers in 1: Infant Car Seat Carrier, Infant Stroller, and Toddler Stroller to stroll from infant to toddler
-Reversible stroller seat can face parent or the world, for just the right ride as baby grows
-Includes the Graco SnugRide 35 Lite LX Infant Car Seat, rear-facing for infants from 4-35 lb and up to 32" for an easy transition from car to stroller
-Parent's tray with cup holders provides extra convenience on the go
-Child's tray with cup holders to store baby's essentials removes easily to help your child climb in and out of the stroller
-Product Care Instructions	Hand Wash, Spot or Wipe Clean, Machine Wash
-Canopy Material	Polyester
-Tire Material	Plastic
-Seat Material	Polyester
-Fabric Type	Polyester
-Frame Material Type	Metal, Plastic
-Material Type	Polyester
-Features &amp; Specs
-Additional Features	One-Hand Fold, LATCH Compatible, Modular
-Seating Capacity	1
-Built-in Light	No
-Number of wheels	4
-Is Electric	No
-Is Car Seat Compatible	Yes
-Harness Type	3 Point
-Stroller Type	Standard Stroller
-Specification Met	JPMA Certified, Meets ASTM Standards
-Installation Type	Freestanding
-Maximum Weight Recommendation	35 Pounds
-Measurements
-Rear Facing Car Seat Maximum Height	32 Inches
-Front Wheel Diameter	6.5 Inches
-Back Wheel Diameter	7.5 Inches
-Car Seat Weight Capacity Maximum	35 Pounds
-Rear Facing Stroller Maximum Height	32 Inches
-Item Dimensions L x W x H	35.5"L x 25"W x 43.5"H
-Item Weight	26 Pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Graco-Element-Stroller-Reversible-SnugRide/dp/B07Y5VH28M/ref=sr_1_1?crid=9OU0OHLUP4Q2&amp;dib=eyJ2IjoiMSJ9.w0vy3YxcWWDq8GZlW_fjqNin5zPATWmM0XDstjgxLrA8SB4eo2kyT-v20JEwosjqBM70EbJxzsBiWfn299SWkKI7rtZkFc3BonzKfq6o8YGthTYEqMosm-4B328DSWvG9tE2uBWoqksOBNJDXQWuRhVCTh0cXIMTUf62hd3EREA-2qLqAmP-xAxQx7_ZbtWAfz6pVMHScp8Q8ZToIu6vvBjrOAOFjCq165Vx5oLX-4o.KHGY4xU0sXavVZoxotnOriIVj3DS3tE-iLXZeIyY008&amp;dib_tag=se&amp;keywords=Graco+Modes+Element+stroller&amp;qid=1727654550&amp;sprefix=graco+modes+element+stroller%2Caps%2C138&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>Britax Travel System: includes B-Lively stroller (birth to 50lbs), B-Safe Gen2 infant car seat (4-35lbs &amp; up to 32”), car seat base &amp; Click &amp; Go adapters
-Fold it Fast: One-hand quick fold closes the stroller in seconds
-Smooth Ride: Lightweight design and all-wheel suspension for smooth, easy strolls
-Britax Safety: Sturdy build with a high-strength steel reinforced car seat base &amp; SafeCell crumple zone; protective shell with foam provides head-to-toe safety
-Install with Confidence: Install car seat in 3 easy steps with SafeCenter LATCH: connect lower anchors, pull straps to tighten, click carrier into base
-Product Dimensions	‎33 x 23 x 40 inches
-Item model number	‎S12776400
-Minimum weight recommendation	‎1.8 Kilograms
-Maximum weight recommendation	‎24.9 Kilograms
-Material Type	‎Alloy Steel
-Material Composition	‎100% Polyester
-Style	‎B-Lively Gen2
-Batteries required	‎No
-Harness type	‎5 Point
-Seat Width	‎11 Inches
-Item Weight	‎40.5 pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Britax-B-Lively-Cobblestone-SafeWash-Exclusive/dp/B08S16GKMG/ref=sr_1_1?crid=5EBIPJ95WE75&amp;dib=eyJ2IjoiMSJ9.DtOOfujMjiMKUU8XXIkUUEkx2IkSEcHtkeW1KoqW-0GF3xD-D-A9qCFEXfBPCZ-jX1e1wrfEtiMeH3p9dTwYl01vCQkzK3lkCnzE__vLe0xqM7eWhYlWdD4DXxas-9gwTqlAFpfBKdK-8V16cDk_QND6RA2QW-ZZSTiZzd9J2lYTDD_WRMyZLOZz_hYesBs6Qad-Ap6D_ltcE2B5sM_SXQWLMEnhJhGuoutHTLtb5aI.oRIaMkHNBq9XzkCGG7W6nj1BnWIukYdMFLaLWVHFPgA&amp;dib_tag=se&amp;keywords=Britax+B-Lively+stroller&amp;qid=1727654574&amp;sprefix=britax+b-lively+stroller%2Caps%2C141&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>Pack up and go anywhere with MIXX™ next. On the move, it's a smooth ride you can maneuver with one hand and lay flat for newborn comfort. Packed away, its compact fold lets it fit into tighter spaces, so you can take more trips to more places.
-Four modes—travel with MIXX next paired with a bassinet or PIPA™ series infant carrier, or use the stroller seat facing you or facing the world.
-MIXX next can be used from birth to 50 lb.
-One-touch, rear wheel braking system is strong and responsive
-Easy to flip the seat and switch to bassinet or travel system modes
-Quick release five-point harness for secure strolling
-True-flat recline
-Five position recline: easily adjusts with one hand
-Adjustable calf support with integrated footrest promises a comfortable ride
-Super convenient, automatic quick-click fold lock and trolley function when folded
-Height adjustable push bar
-Smart and stately dark matte frame with chrome black wheels
-Luxe leatherette accented pushbar and armbar
-UPF 50+ canopy is water repellent and extendable and features a flip out eyeshade, ventilation panel and window
-Two compartment basket including secret zipper pocket
-Cell phone pocket on seat back
-Removable arm bar fits kids of all sizes
-Pairs perfectly with all Nuna PIPA™ series infant car seats
-Removable two-piece seat insert grows with baby for a perfect fit
-No-rethread harness for easy adjustments
-Tough, rubber foam filled tires are ready for any terrain
-GREENGUARD Gold Certified: Products that have achieved GREENGUARD Gold Certification are scientifically proven to meet some of the world's most rigorous third-party chemical emissions standards, and certified to not contribute to indoor air pollution or chemical exposure
-Recommended use: birth to 50 lbs
-Stroller dimensions  L 32.7 in  W 23.6 in  H 45.3 in  Stroller dimensions (folded)  L 27.5 in  W 23.6 in  H 19 in 
-Weight: 28.3 lbs (without arm bar and insert - arm bar and insert approx. 0.7 lb)</t>
-  </si>
-  <si>
-    <t>https://nunababy.com/usa/mixx-next-compact-stroller?color_ref=16867</t>
-  </si>
-  <si>
-    <t>All-terrain baby stroller with one-hand fold, back rest recline &amp; footrest adjustment, plus improved front bridge design​ creating an automatic self-stand position
-Bugaboo Fox 5 stroller ensures best-in-class maneuverability thanks to the extra-large puncture-proof wheels, full suspension and sleek but sturdy design
-The stroller features compact fold for convenient storage and transportation; compatible with most Bugaboo pushchair accessories (car seats, wheeled board, bassinet stand and more)
-Fox 5 stroller features a spacious, breezy bassinet, reclinable toddler seat, aerated 3D comfort mattress and an extendable sun canopy for added comfort and visibility
-This dual-facing Bugaboo Fox 5 baby stroller features durable and machine-washable fabrics, a comfortable, quick-click harness, and an ergonomically padded seat.
-Product Care Instructions	Machine Wash
-Tire Material	Durable Rubber or Plastic
-Frame Material Type	Alloy Steel
-Material Type	Alloy Steel
-Features &amp; Specs
-Additional Features	All-Terrain, One-Hand Fold, Puncture-Proof Wheels, Accessory Compatibility, Comfort &amp; Visibility, Machine-Washable Fabrics
-Is Car Seat Compatible	Yes
-Harness Type	5 Point
-Stroller Type	Standard Stroller
-Maximum Weight Recommendation	33 Pounds
-Measurements
-Rear Facing Car Seat Maximum Height	32 Inches
-Bassinet Weight	21 Pounds
-Item Dimensions L x W x H	36.61"L x 23.62"W x 41.34"H
-Frame Weight	42 Pounds
-Item Weight	42 Pounds</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Bugaboo-All-Terrain-Suspension-Maneuverability-Black-Misty/dp/B0BX4PVZ7C/ref=sr_1_1?crid=HE0L19NEQ6N9&amp;dib=eyJ2IjoiMSJ9.AtpEfg7rkXXkZmdu_qYmQ_wXO33w2duZDFYt_ICj6aaO7BY-oT7ykho_VLBx5v6dCEUznSY9HNbgMUvpEsvLYs-9rxjmuBfLedqhvExHW35gNOWX8Q2nDg00BZ7ck1mpAj_W8UWQbtP1Ej6_DmZv3LzuMQb5-SRZC1yk81Vzd7Jz_REmAuK27k0YmVE-DTmOa85qMtQnMFbo5WFvNM31YdgBYlBLL1Sn9QBIMQnUKAw.d-x7r6-GJ79lxtl63La7SmJ3erDwGDz-Q_IB4N02dbk&amp;dib_tag=se&amp;keywords=Bugaboo+Fox+2+stroller&amp;qid=1727654631&amp;sprefix=bugaboo+fox+2+stroller%2Caps%2C143&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Protects precious cargo, giving parents peace of mind during outings.</t>
-  </si>
-  <si>
-    <t>Ensures baby's contentment, leading to enjoyable family adventures.</t>
-  </si>
-  <si>
-    <t>Easy to transport, perfect for on-the-go families.</t>
-  </si>
-  <si>
-    <t>Effortless maneuverability for busy parents.</t>
-  </si>
-  <si>
-    <t>Eco-conscious choice for environmentally aware families.</t>
-  </si>
-  <si>
-    <t>Long-lasting investment that grows with your child.</t>
-  </si>
-  <si>
-    <t>Adapts to various terrains and situations, simplifying family life.</t>
-  </si>
-  <si>
-    <t>Complements parents' daily routines and activities seamlessly.</t>
-  </si>
-  <si>
-    <t>Convenient solution for carrying essentials during outings.</t>
-  </si>
-  <si>
-    <t>Shields delicate skin from harmful rays, promoting outdoor exploration.</t>
-  </si>
-  <si>
-    <t>Ergonomic comfort for parents of all heights.</t>
-  </si>
-  <si>
-    <t>Maintains hygiene effortlessly, saving time for busy parents.</t>
-  </si>
-  <si>
-    <t>Trusted quality and innovative features for discerning parents.</t>
-  </si>
-  <si>
-    <t>A stroller's versatility refers to its ability to adapt and transform to meet different needs as your baby grows and as you encounter various situations. The most fundamental aspect of versatility is the ability to adjust the seating position. Many modern strollers offer multiple recline angles, allowing your baby to lie flat for naps, sit upright for engagement with surroundings, or any position in between.
-Reversible seats are another key versatility feature, enabling your baby to face you for bonding and reassurance during younger months, then face forward to explore the world as they grow more curious. Some versatile strollers also convert from a single to double configuration, accommodating a second child when your family expands. This is typically achieved through additional attachment points for a second seat, standing board, or ride-along platform.
-Many versatile strollers are also travel system compatible, meaning they can accept an infant car seat with appropriate adapters. This feature is particularly valuable during the newborn stage, as it allows for seamless transitions from car to stroller without disturbing a sleeping baby. Some models even accept a bassinet attachment for optimal newborn comfort during longer walks.
-Terrain adaptability is another aspect of versatility, with features like adjustable suspension, convertible wheel configurations (such as the ability to lock front wheels for rough terrain), and varying tire types for different surfaces. Storage versatility is also important, with adjustable handlebar heights to accommodate different caregivers, expandable storage baskets, and the ability to fold compactly for car transport or storage.
-The most versatile strollers also offer seasonal adaptability through removable weather shields, expandable canopies, ventilation panels, and foot muffs that can be added or removed as needed. This allows the stroller to provide comfort in various weather conditions, from sunny summer days to cold winter outings.</t>
-  </si>
-  <si>
-    <t>The lifestyle feature of baby strollers refers to how well a stroller matches and supports a family's daily activities, routines, and specific needs. For instance, an urban family who frequently uses public transportation and navigates crowded sidewalks might prefer a compact, lightweight stroller that's easy to fold and carry up subway stairs. These strollers often have smaller wheels and narrow frames to maneuver through tight spaces.
-In contrast, suburban families who enjoy outdoor activities might choose an all-terrain stroller with larger, air-filled tires and robust suspension systems. These features make it comfortable to push the stroller over various surfaces like grass, gravel paths, or uneven sidewalks. Some models even come with adjustable handlebars to accommodate parents of different heights.
-For active families who enjoy jogging or running, specialized jogging strollers offer fixed front wheels for stability at higher speeds, hand brakes for better control on slopes, and ergonomic features that make it comfortable to push while maintaining proper running form. These strollers often include extra safety features like five-point harnesses and wrist straps.
-Parents who travel frequently might prioritize strollers that are approved for air travel, can fold small enough to fit in overhead compartments, or come with carrying bags. Some travel-oriented strollers can even be wheeled like luggage when folded.
-For families with multiple children or those planning to expand, convertible strollers can adapt from single to double configurations. These modular systems might allow for adding a second seat, a standing platform for an older child, or attachment points for infant car seats.
-The lifestyle feature also encompasses storage needs – some families require large underneath baskets for shopping, while others prefer minimal storage to keep the stroller lightweight. Additional lifestyle considerations include whether the stroller needs to fit in a small apartment, a car trunk, or needs to be durable enough for daily use on rough terrain.</t>
-  </si>
-  <si>
-    <t>Storage space is one of the most important practical features of a baby stroller, designed to accommodate both everyday essentials and shopping items. The main storage compartment is typically the undercarriage basket, located beneath the seat. This basket's capacity can vary significantly between models, with some luxury strollers offering up to 30 pounds of storage space. The accessibility of this basket is crucial - some designs allow easy access from all sides, while others may be partially blocked by support bars or seat recline mechanisms.
-Beyond the main basket, most strollers include additional storage options. Parent organizers or console trays near the handlebar provide quick access to items like phones, keys, drinks, and small necessities. Many strollers also feature mesh pockets on the seat back or canopy, perfect for lightweight items like pacifiers, small toys, or burp cloths. Some models include zippered compartments within these pockets for more secure storage.
-For parents who need extra storage, attachable stroller hooks can be used to hang diaper bags or shopping bags, though it's important to follow weight guidelines to maintain stability. Travel systems often incorporate special storage features like car seat adapters that don't compromise the main storage space.
-The storage design also affects the stroller's folding capability. Premium models often maintain storage accessibility even when folded, while others might require emptying the storage areas before collapsing. Weather protection is another consideration, with some strollers featuring water-resistant storage compartments or included rain covers to protect stored items.
-When evaluating storage space, consider your typical outings and storage needs. Urban parents might prioritize compact storage that can handle quick shopping trips, while those who take longer excursions might need more extensive storage options for supplies, picnic items, or beach gear.</t>
-  </si>
-  <si>
-    <t>UV protection in baby strollers is an important safety feature designed to shield infants from harmful ultraviolet radiation. Most modern strollers incorporate UV-protective canopies or sunshades made from specially treated fabrics that block both UVA and UVB rays. These fabrics typically carry a UPF (Ultraviolet Protection Factor) rating, similar to SPF in sunscreen, indicating how effectively they block UV radiation. For example, a UPF 50+ fabric blocks 98% or more of UV rays.
-The effectiveness of UV protection depends on several factors, including the canopy's coverage area, material quality, and design. Extended canopies that can be adjusted to different positions offer better protection as the sun moves throughout the day. Some premium strollers feature expandable sunshades with additional pop-out sections for enhanced coverage. The fabric's color can also play a role, with darker colors generally providing better UV protection than lighter ones.
-Many stroller manufacturers use specialized synthetic materials like polyester treated with UV-inhibiting chemicals or natural fabrics with tight weaves to achieve high UPF ratings. Some also incorporate ventilation panels or mesh windows with UV protection to maintain airflow while keeping the baby protected. It's worth noting that UV protection can diminish over time due to wear and exposure, so regular inspection of the canopy's condition is important.
-Beyond the built-in UV protection, many strollers can be supplemented with additional UV-protective accessories like clip-on sunshades or UV-filtering stroller covers for extra protection during extended outdoor activities. These features are particularly important since babies' sensitive skin is more susceptible to sun damage than adult skin, and early sun protection helps prevent long-term skin damage.</t>
-  </si>
-  <si>
-    <t>The adjustable handlebar feature on baby strollers is a thoughtfully designed element that allows caregivers of different heights to push the stroller comfortably. Most adjustable handlebars work through a telescoping mechanism or pivot point that enables height and angle modifications.
-The most common design uses a central button or lever located on or near the handlebar. When pressed, this releases an internal locking mechanism, allowing the handlebar to move up, down, or tilt to different positions. Once the desired position is reached, releasing the button re-engages the lock, securing the handlebar firmly in place.
-This adjustability typically offers a range of positions, usually spanning about 10-12 inches from lowest to highest setting. The feature is particularly valuable for families where multiple caregivers of varying heights share stroller duties – from a petite grandparent to a tall parent, everyone can maintain proper posture while pushing. This helps prevent back strain and ensures comfortable control of the stroller.
-Many premium stroller models incorporate additional ergonomic elements into their adjustable handlebars, such as foam or leatherette grips that provide tactile comfort and good grip even in wet conditions. The mechanisms are typically designed to withstand thousands of adjustments while maintaining stability and safety.
-From a safety perspective, quality adjustable handlebars include multiple locking points and audible clicks or visual indicators to confirm secure positioning. This prevents accidental height changes during use and ensures the handlebar remains stable even when used to lift the front wheels over curbs or obstacles.</t>
-  </si>
-  <si>
-    <t>When it comes to the ease of cleaning baby strollers, there are several key aspects to consider. The most important feature is typically the fabric used for the seat and canopy. Many modern strollers use machine-washable fabrics that can be easily removed via zippers or snap fasteners. These fabrics often have special treatments that make them stain-resistant and water-repellent, allowing parents to quickly wipe away spills before they set in.
-The seat padding design also plays a crucial role. Well-designed strollers have minimal seams and crevices where crumbs and dirt can accumulate. Some models feature one-piece seat designs that prevent food and debris from falling into hard-to-reach spaces. The harness system should be easily removable for thorough cleaning, with straps that can be wiped down or machine washed.
-Frame cleaning is another important consideration. Premium strollers often have smooth, non-textured frames with rounded corners that can be quickly wiped clean. The wheel assembly should be designed to prevent mud and debris from becoming trapped, with removable wheels that can be hosed down when necessary.
-Storage baskets and accessories should also be designed with cleaning in mind. Many strollers feature mesh or solid fabric baskets that can be wiped clean or removed for washing. Cup holders and snack trays often have smooth surfaces without deep grooves, making them easy to clean with a damp cloth.
-Some advanced strollers even incorporate antimicrobial materials or treatments that help prevent the growth of bacteria and mold, reducing the frequency of deep cleaning needed. Additionally, quick-dry materials help prevent moisture buildup after cleaning, which is particularly important for maintaining hygiene in areas that come into direct contact with the baby.</t>
-  </si>
-  <si>
-    <t>The top brands in baby strollers typically offer different features and benefits that cater to various parenting needs and lifestyles. UPPAbaby is known for their versatile Vista and Cruz models, which provide excellent maneuverability and can convert from single to double strollers. Their high-quality materials and construction justify their premium pricing.
-Bugaboo is another premium brand recognized for their innovative designs and durability. Their Bugaboo Fox and Lynx models feature advanced suspension systems and comfortable seating positions. The brand is particularly popular among urban parents due to their strollers' compact fold and ability to handle city terrain.
-Baby Jogger makes the popular City Mini and City Select series, offering excellent value with features like one-handed folding and adaptable configurations. These strollers are known for being lightweight while maintaining durability.
-Graco represents the more affordable end of the market without compromising on essential features. Their travel systems, which include both a stroller and car seat, are particularly popular among first-time parents seeking practical solutions at reasonable prices.
-Nuna has gained prominence for their eco-friendly materials and sleek European design aesthetic. Their MIXX and TRIV models are known for combining style with functionality, featuring materials free from harmful chemicals and advanced suspension systems.
-Thule, traditionally known for car racks, has successfully entered the stroller market with their urban and jogging models. Their strollers are particularly praised for their durability and suitability for active lifestyles.
-For parents focused on jogging or outdoor activities, BOB Revolution strollers are considered top-tier. They feature robust suspension systems, large air-filled tires, and excellent stability at higher speeds.</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Safety in the context of a stroller encompasses several key aspects that protect the child and provide peace of mind for caregivers:
-Core Safety Features:
-A secure, properly functioning 5-point harness system that keeps the child firmly in place across shoulders, hips, and between legs
-A reliable braking system that locks wheels when parked
-A stable frame design that prevents tipping, with good weight distribution
-Proper wheel locks and suspension for smooth navigation over different surfaces
-Protection Elements:
-Sturdy construction with no pinch points or sharp edges
-Safe materials free from harmful chemicals and meeting safety standards
-An adjustable canopy for sun and weather protection
-Side impact protection and reinforced frame in case of collisions
-Usage Safety:
-Weight and age limits clearly specified and followed
-Proper assembly and regular maintenance of all parts
-Secure attachment points for car seat adapters if applicable
-Clear locking mechanisms that indicate when parts are properly engaged
-Certifications and Standards:
-Compliance with current safety regulations like ASTM F833 in the US
-Regular testing for stability, durability, and potential hazards
-Up-to-date design that incorporates latest safety innovations</t>
-  </si>
-  <si>
-    <t>The comfort features in baby strollers are designed to ensure both the baby's well-being and the parent's convenience during use. At the core of baby comfort is the seat design, which typically includes plush padding and ergonomic support to cradle the baby's developing spine and neck. Many modern strollers offer multiple recline positions, allowing babies to sit upright when alert or lie nearly flat for naps.
-Suspension systems play a crucial role in comfort, with many premium strollers featuring all-wheel suspension that absorbs shocks from uneven terrain, reducing jolts and vibrations that could disturb the baby. The wheels themselves contribute to smoothness, with air-filled tires providing better cushioning than solid plastic ones.
-Weather protection is another essential comfort aspect. Adjustable canopies shield babies from sun, wind, and light rain. Many include UV protection and ventilation panels to maintain airflow while still protecting from the elements. Some models feature extendable canopies that can cover most of the seating area.
-The harness system, while primarily for safety, also contributes to comfort through padded straps and adjustable points that prevent pinching or chafing. Additional comfort features often include adjustable footrests, removable arm bars padded with soft materials, and breathable fabrics that help regulate temperature.
-For winter use, many strollers accommodate warm weather accessories like foot muffs or weather shields. In summer, mesh panels or removable seat liners help keep babies cool. Some premium models even include adjustable handlebar heights and customizable suspension settings to ensure a comfortable experience for both parent and child across different terrains and conditions.</t>
-  </si>
-  <si>
-    <t>The portability of baby strollers refers to how easily they can be transported, stored, and maneuvered when not in active use with a child. A stroller's portability is determined by several key design features working together.
-The folding mechanism is central to portability. Most modern strollers use a one-hand or two-hand folding system that collapses the frame into a compact configuration. Some premium models feature auto-folding technology activated by a button press. The most portable designs fold into a self-standing position, allowing the stroller to remain upright when stored.
-Weight plays a crucial role in portability. Lightweight strollers, often called umbrella strollers, typically weigh between 10-15 pounds and are ideal for travel and frequent transport. Full-sized strollers generally weigh 20-30 pounds, making them less portable but more feature-rich.
-Dimensions when folded impact storage and transport capabilities. Many portable strollers are designed to meet airline carry-on requirements and can fit in overhead compartments. Some models fold small enough to fit in a shopping basket or car trunk without taking up excessive space.
-Carrying features enhance portability. These might include shoulder straps, carrying handles, or travel bags designed specifically for the stroller model. Some strollers come with wheel covers to prevent dirt transfer when transported.
-The frame material affects both weight and durability. Aluminum frames offer an excellent balance of strength and lightness, while steel frames are heavier but more robust. Some ultra-portable models use specialized lightweight composites, though these typically come at a premium price point.
-Quick-release wheels are another important portability feature, allowing users to remove the wheels to achieve an even more compact fold. This is particularly useful for air travel or storing the stroller in tight spaces.</t>
-  </si>
-  <si>
-    <t>A lightweight stroller is a streamlined, portable baby transport solution that typically weighs between 10-20 pounds, making it significantly lighter than traditional full-featured strollers which can weigh 25-35 pounds or more. The lightweight design is achieved through several key engineering choices: using aluminum or other light metals for the frame instead of steel, incorporating compact folding mechanisms, and minimizing bulky features while maintaining essential functionality.
-The primary advantages of lightweight strollers include easy transportation, especially when lifting the stroller in and out of cars or carrying it up stairs. They're particularly valuable for urban parents who frequently use public transportation or travel, as well as for caregivers who may have physical limitations or need to manage multiple children. Many lightweight models can be folded with one hand and are compact enough to fit in airplane overhead compartments or small car trunks.
-However, this weight reduction often comes with trade-offs. Lightweight strollers typically have smaller wheels which may not handle rough terrain as well as their heavier counterparts. They usually have less storage space underneath, simpler sun canopies, and may not recline as fully as standard strollers. Some models might also have lower weight limits for children.
-Modern lightweight strollers have evolved to include more features while maintaining their portability. Many now offer decent suspension systems, adjustable handlebars, and adequate sun protection. Some even accommodate car seat attachments, making them suitable from birth through toddlerhood. The price range varies significantly, from basic models around $100 to premium lightweight strollers that can cost $500 or more, reflecting differences in material quality, design sophistication, and included features.
-For parents trying to decide if a lightweight stroller is right for them, the key consideration should be their lifestyle and specific needs. Those who frequently travel, live in walk-up apartments, or need a secondary stroller for quick trips often find lightweight models invaluable, while parents who frequently go off-road or need extensive storage might prefer a more robust traditional stroller.</t>
-  </si>
-  <si>
-    <t>Sustainable materials in baby strollers represent a growing trend in juvenile product manufacturing that prioritizes environmental responsibility while maintaining safety and durability. These materials typically fall into several categories: recycled materials, renewable resources, and biodegradable components.
-Common sustainable materials used in modern stroller manufacturing include recycled polyester made from post-consumer plastic bottles, which is often used in canopies and seat fabrics. This material provides excellent durability and weather resistance while reducing plastic waste. Some manufacturers also incorporate recycled aluminum and steel in frame construction, which not only reduces mining impact but also maintains the lightweight yet sturdy characteristics essential for stroller safety.
-Natural and renewable materials are another key component. Organic cotton is frequently used in seat padding and harness covers, offering both sustainability and comfort for the baby. Bamboo fabric has gained popularity for its naturally antimicrobial properties and quick-growing renewable nature. Some premium manufacturers have begun incorporating cork in handle grips and detail elements, as it's both sustainable and naturally moisture-resistant.
-Biodegradable materials are emerging in non-structural components. For instance, some manufacturers use bio-based plastics derived from corn or sugarcane for small parts like cup holders or snack trays. These materials can break down more easily at the end of the product's life cycle while maintaining necessary durability during use.
-The manufacturing process for sustainable strollers often emphasizes minimal waste and energy efficiency. Many companies now use water-based adhesives instead of traditional solvent-based ones, and some have implemented closed-loop manufacturing systems that recycle water and materials within the factory.
-It's worth noting that sustainable materials often come with specific care requirements to maintain their longevity. For example, organic cotton may require more gentle washing cycles, and bio-based plastics might need protection from extreme temperatures. However, most manufacturers provide detailed care instructions to help parents maintain these eco-friendly products effectively.
-The cost implications of sustainable materials vary. While these strollers often carry a higher initial price tag, many parents find them to be a worthwhile investment, particularly if they plan to use the stroller for multiple children or resell it. The durability of many sustainable materials can actually lead to a longer product lifespan, potentially offering better value over time.
-Certification standards play an important role in verifying sustainability claims. Look for recognized certifications such as Global Organic Textile Standard (GOTS) for organic materials, or Oeko-Tex Standard 100 for textile safety. These certifications help ensure that sustainable materials meet both environmental and safety standards.
-When considering a sustainable stroller, it's important to look at the entire lifecycle of the product, including its potential for recycling or biodegradation at the end of its use. Many manufacturers now offer take-back programs or provide guidance on responsible disposal of different components.</t>
-  </si>
-  <si>
-    <t>Durability in baby strollers refers to their ability to withstand regular use, maintain structural integrity, and remain functional over time. Several key aspects contribute to a stroller's durability.
-The frame material forms the foundation of stroller durability. Aluminum frames offer an excellent balance of strength and lightweight properties, while steel frames provide maximum strength but add weight. High-grade plastics are sometimes used for certain components but generally aren't the primary frame material in durable strollers.
-Joint construction plays a crucial role in long-term durability. Quality strollers feature reinforced joints with metal-on-metal connections rather than plastic components that can wear down quickly. The folding mechanisms, in particular, need robust construction as they endure repeated stress during daily use.
-Wheel construction significantly impacts durability. Air-filled tires offer better shock absorption but require maintenance and can puncture, while foam-filled or solid rubber tires are more durable for everyday use. The wheel mounting system should include quality bearings and secure attachments to prevent wobbling or failure over time.
-Fabric durability involves both the material quality and its attachment to the frame. Better strollers use heavy-duty, water-resistant fabrics with strong stitching and reliable attachment points. The fabric should resist fading from sun exposure and maintain its shape after repeated washing.
-Environmental resistance is another crucial durability factor. Quality strollers should withstand various weather conditions, including rain, sun exposure, and temperature changes. Rust-resistant treatments on metal parts and UV-protective coatings on fabrics help maintain longevity.
-The harness system needs particular attention to durability since it's crucial for safety. Strong webbing material, secure stitching, and robust buckles ensure the restraint system remains reliable throughout the stroller's life.
-Weight capacity testing is a key indicator of durability. Good strollers are tested well beyond their stated weight limits to ensure structural integrity. This includes both the seat weight capacity and storage basket durability.</t>
   </si>
 </sst>
 </file>
@@ -3438,6 +3433,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -3638,7 +3637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -8372,7 +8373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -8386,7 +8389,7 @@
       <c r="A1" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="27" t="s">
         <v>483</v>
       </c>
       <c r="C1" s="15" t="s">
@@ -8421,16 +8424,16 @@
         <v>490</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>491</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>492</v>
       </c>
       <c r="D3" s="7">
         <v>1299</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8438,33 +8441,33 @@
         <v>17</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>494</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>495</v>
       </c>
       <c r="D4" s="7">
         <v>800</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>497</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>498</v>
       </c>
       <c r="D5" s="7">
         <v>1920</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8472,16 +8475,16 @@
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>500</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>501</v>
       </c>
       <c r="D6" s="7">
         <v>540</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8489,16 +8492,16 @@
         <v>32</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>503</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>504</v>
       </c>
       <c r="D7" s="7">
         <v>260</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8506,16 +8509,16 @@
         <v>37</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>506</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>507</v>
       </c>
       <c r="D8" s="7">
         <v>400</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8523,16 +8526,16 @@
         <v>42</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>509</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>510</v>
       </c>
       <c r="D9" s="7">
         <v>400</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8540,16 +8543,16 @@
         <v>47</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>512</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>513</v>
       </c>
       <c r="D10" s="7">
         <v>598</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8557,16 +8560,16 @@
         <v>52</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>515</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>516</v>
       </c>
       <c r="D11" s="7">
         <v>550</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8574,10 +8577,10 @@
         <v>58</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>518</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>519</v>
       </c>
       <c r="D12" s="7">
         <v>700</v>
@@ -8588,24 +8591,24 @@
         <v>70</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>520</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>521</v>
       </c>
       <c r="D13" s="7">
         <v>2220</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="27" t="s">
         <v>140</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>522</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>523</v>
       </c>
       <c r="D14" s="7">
         <v>480</v>
@@ -8616,10 +8619,10 @@
         <v>78</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>524</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>525</v>
       </c>
       <c r="D15" s="7">
         <v>1350</v>
@@ -8630,10 +8633,10 @@
         <v>82</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>526</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>527</v>
       </c>
       <c r="D16" s="7">
         <v>720</v>
@@ -8644,10 +8647,10 @@
         <v>87</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>528</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>529</v>
       </c>
       <c r="D17" s="7">
         <v>729</v>
@@ -8658,10 +8661,10 @@
         <v>91</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>530</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>531</v>
       </c>
       <c r="D18" s="7">
         <v>750</v>
@@ -8672,10 +8675,10 @@
         <v>94</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>532</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>533</v>
       </c>
       <c r="D19" s="7">
         <v>449</v>
@@ -8686,10 +8689,10 @@
         <v>104</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>534</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>535</v>
       </c>
       <c r="D20" s="7">
         <v>280</v>
@@ -8700,10 +8703,10 @@
         <v>109</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>536</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>537</v>
       </c>
       <c r="D21" s="7">
         <v>400</v>
@@ -8714,10 +8717,10 @@
         <v>114</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>538</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>539</v>
       </c>
       <c r="D22" s="7">
         <v>500</v>
@@ -8728,10 +8731,10 @@
         <v>119</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>540</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>541</v>
       </c>
       <c r="D23" s="7">
         <v>259</v>
@@ -8742,10 +8745,10 @@
         <v>128</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>542</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>543</v>
       </c>
       <c r="D24" s="7">
         <v>449</v>
@@ -8756,10 +8759,10 @@
         <v>133</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>544</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>545</v>
       </c>
       <c r="D25" s="7">
         <v>300</v>
@@ -8770,10 +8773,10 @@
         <v>137</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>546</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>547</v>
       </c>
       <c r="D26" s="7">
         <v>350</v>
@@ -8784,10 +8787,10 @@
         <v>140</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>548</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>549</v>
       </c>
       <c r="D27" s="7">
         <v>480</v>
@@ -8798,10 +8801,10 @@
         <v>150</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>550</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>551</v>
       </c>
       <c r="D28" s="7">
         <v>140</v>
@@ -8812,10 +8815,10 @@
         <v>144</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>552</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>553</v>
       </c>
       <c r="D29" s="7">
         <v>249</v>
@@ -8826,10 +8829,10 @@
         <v>161</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>554</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>555</v>
       </c>
       <c r="D30" s="7">
         <v>93</v>
@@ -8840,7 +8843,7 @@
         <v>174</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D31" s="7">
         <v>699</v>
@@ -8851,10 +8854,10 @@
         <v>181</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>557</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>558</v>
       </c>
       <c r="D32" s="7">
         <v>800</v>
@@ -8866,10 +8869,10 @@
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>559</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>560</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -8899,10 +8902,10 @@
         <v>192</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>561</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>562</v>
       </c>
       <c r="D34" s="7">
         <v>1600</v>
@@ -8913,10 +8916,10 @@
         <v>199</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>563</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>564</v>
       </c>
       <c r="D35" s="7">
         <v>700</v>
@@ -8927,10 +8930,10 @@
         <v>223</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>565</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>566</v>
       </c>
       <c r="D36" s="7">
         <v>269</v>
@@ -8941,10 +8944,10 @@
         <v>229</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>567</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>568</v>
       </c>
       <c r="D37" s="7">
         <v>555</v>
@@ -8955,10 +8958,10 @@
         <v>242</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>569</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>570</v>
       </c>
       <c r="D38" s="7">
         <v>1750</v>
@@ -8969,10 +8972,10 @@
         <v>251</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>571</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>572</v>
       </c>
       <c r="D39" s="7">
         <v>1500</v>
@@ -8983,10 +8986,10 @@
         <v>265</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>573</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>574</v>
       </c>
       <c r="D40" s="7">
         <v>350</v>
@@ -8997,10 +9000,10 @@
         <v>271</v>
       </c>
       <c r="B41" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>575</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>576</v>
       </c>
       <c r="D41" s="7">
         <v>950</v>
@@ -9011,10 +9014,10 @@
         <v>304</v>
       </c>
       <c r="B42" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>577</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>578</v>
       </c>
       <c r="D42" s="7">
         <v>1099</v>
@@ -9025,10 +9028,10 @@
         <v>313</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>579</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>580</v>
       </c>
       <c r="D43" s="7">
         <v>400</v>
@@ -9039,10 +9042,10 @@
         <v>330</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>581</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>582</v>
       </c>
       <c r="D44" s="7">
         <v>465</v>
@@ -9053,10 +9056,10 @@
         <v>418</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>583</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>584</v>
       </c>
       <c r="D45" s="7">
         <v>500</v>
@@ -9067,10 +9070,10 @@
         <v>423</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>585</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>586</v>
       </c>
       <c r="D46" s="7">
         <v>700</v>
@@ -9081,10 +9084,10 @@
         <v>431</v>
       </c>
       <c r="B47" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>587</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>588</v>
       </c>
       <c r="D47" s="7">
         <v>800</v>
@@ -9095,10 +9098,10 @@
         <v>435</v>
       </c>
       <c r="B48" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>589</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>590</v>
       </c>
       <c r="D48" s="7">
         <v>310</v>
@@ -9109,10 +9112,10 @@
         <v>437</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>591</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>592</v>
       </c>
       <c r="D49" s="7">
         <v>460</v>
@@ -9123,10 +9126,10 @@
         <v>439</v>
       </c>
       <c r="B50" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>593</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>594</v>
       </c>
       <c r="D50" s="7">
         <v>830</v>
@@ -9137,10 +9140,10 @@
         <v>490</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>595</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>596</v>
       </c>
       <c r="D51" s="7">
         <v>1299</v>
@@ -12032,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
@@ -12063,7 +12066,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -12075,7 +12078,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -12087,7 +12090,7 @@
         <v>99</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -12099,7 +12102,7 @@
         <v>149</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -12111,7 +12114,7 @@
         <v>163</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -12123,7 +12126,7 @@
         <v>198</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -12135,7 +12138,7 @@
         <v>237</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -12147,7 +12150,7 @@
         <v>275</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -12159,7 +12162,7 @@
         <v>318</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -12171,7 +12174,7 @@
         <v>356</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -12183,7 +12186,7 @@
         <v>393</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -12195,7 +12198,7 @@
         <v>430</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -12207,7 +12210,7 @@
         <v>446</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -15346,8 +15349,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -15361,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.4">
@@ -15369,7 +15372,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.4">
@@ -15377,7 +15380,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.4">
@@ -15385,7 +15388,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.4">
@@ -15393,7 +15396,7 @@
         <v>149</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.4">
@@ -15401,7 +15404,7 @@
         <v>163</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.4">
@@ -15409,7 +15412,7 @@
         <v>198</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.4">
@@ -15417,7 +15420,7 @@
         <v>237</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.4">
@@ -15425,7 +15428,7 @@
         <v>275</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.4">
@@ -15433,7 +15436,7 @@
         <v>318</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.4">
@@ -15441,7 +15444,7 @@
         <v>356</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.4">
@@ -15449,7 +15452,7 @@
         <v>393</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.4">
@@ -15457,7 +15460,7 @@
         <v>430</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.4">
@@ -15465,7 +15468,7 @@
         <v>446</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
